--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -77,6 +77,21 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:16</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>21.1500</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>ايفا كريم 20 جم</t>
   </si>
   <si>
@@ -92,7 +107,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 9:28 AM</t>
+    <t>Monday, 6 October, 2025 9:30 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -805,53 +820,86 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>25</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>26</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
-      <c r="P10" s="13">
-        <v>106.06</v>
-      </c>
-      <c r="Q10" s="13"/>
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>27</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>28</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>29</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>30</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>21</v>
+      </c>
     </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c t="s" r="A11" s="14">
-        <v>27</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c t="s" r="G11" s="15">
-        <v>28</v>
-      </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c t="s" r="K11" s="17">
-        <v>29</v>
-      </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="P11" s="13">
+        <v>127.20999999999999</v>
+      </c>
+      <c r="Q11" s="13"/>
+    </row>
+    <row r="12" ht="16.5" customHeight="1">
+      <c t="s" r="A12" s="14">
+        <v>32</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c t="s" r="G12" s="15">
+        <v>33</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+      <c t="s" r="K12" s="17">
+        <v>34</v>
+      </c>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="32">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -875,10 +923,15 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="K12:Q12"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -77,6 +77,18 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -101,13 +113,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>Monday, 6 October, 2025 9:30 AM</t>
+    <t>Monday, 6 October, 2025 9:34 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -831,7 +837,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -840,66 +846,99 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
         <v>31</v>
       </c>
-      <c t="s" r="Q10" s="12">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>32</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>33</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>24</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>25</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>21</v>
       </c>
     </row>
-    <row r="11" ht="25.5" customHeight="1">
-      <c r="P11" s="13">
-        <v>127.20999999999999</v>
-      </c>
-      <c r="Q11" s="13"/>
-    </row>
-    <row r="12" ht="16.5" customHeight="1">
-      <c t="s" r="A12" s="14">
-        <v>32</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c t="s" r="G12" s="15">
-        <v>33</v>
-      </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c t="s" r="K12" s="17">
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="P12" s="13">
+        <v>142.21000000000001</v>
+      </c>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" ht="16.5" customHeight="1">
+      <c t="s" r="A13" s="14">
         <v>34</v>
       </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c t="s" r="G13" s="15">
+        <v>35</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c t="s" r="K13" s="17">
+        <v>36</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="37">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -928,10 +967,15 @@
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="K13:Q13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -113,7 +113,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 9:34 AM</t>
+    <t>Monday, 6 October, 2025 9:38 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -89,6 +89,18 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -104,6 +116,15 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>TUSSISTOP 30MG/5ML SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
     <t>ايفا كريم 20 جم</t>
   </si>
   <si>
@@ -113,7 +134,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 9:38 AM</t>
+    <t>Monday, 6 October, 2025 9:39 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -870,7 +891,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -879,66 +900,132 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
+        <v>35</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>21</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>13</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>36</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>37</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>38</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>39</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>40</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>24</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
         <v>25</v>
       </c>
-      <c t="s" r="Q11" s="12">
+      <c t="s" r="Q13" s="12">
         <v>21</v>
       </c>
     </row>
-    <row r="12" ht="25.5" customHeight="1">
-      <c r="P12" s="13">
-        <v>142.21000000000001</v>
-      </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c t="s" r="A13" s="14">
-        <v>34</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c t="s" r="G13" s="15">
-        <v>35</v>
-      </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c t="s" r="K13" s="17">
-        <v>36</v>
-      </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="P14" s="13">
+        <v>214.21000000000001</v>
+      </c>
+      <c r="Q14" s="13"/>
+    </row>
+    <row r="15" ht="16.5" customHeight="1">
+      <c t="s" r="A15" s="14">
+        <v>41</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c t="s" r="G15" s="15">
+        <v>42</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
+      <c t="s" r="K15" s="17">
+        <v>43</v>
+      </c>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="47">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -972,10 +1059,20 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="K15:Q15"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -134,7 +134,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 9:39 AM</t>
+    <t>Monday, 6 October, 2025 9:40 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -101,6 +101,21 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -129,9 +144,6 @@
   </si>
   <si>
     <t>2:0</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>Monday, 6 October, 2025 9:40 AM</t>
@@ -907,13 +919,13 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -940,7 +952,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -950,14 +962,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -966,66 +978,99 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
-      <c r="P14" s="13">
-        <v>214.21000000000001</v>
-      </c>
-      <c r="Q14" s="13"/>
-    </row>
-    <row r="15" ht="16.5" customHeight="1">
-      <c t="s" r="A15" s="14">
-        <v>41</v>
-      </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c t="s" r="G15" s="15">
-        <v>42</v>
-      </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-      <c t="s" r="K15" s="17">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
         <v>43</v>
       </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>44</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>31</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>24</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>25</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="P15" s="13">
+        <v>268.20999999999998</v>
+      </c>
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" ht="16.5" customHeight="1">
+      <c t="s" r="A16" s="14">
+        <v>45</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c t="s" r="G16" s="15">
+        <v>46</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c t="s" r="K16" s="17">
+        <v>47</v>
+      </c>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="52">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1069,10 +1114,15 @@
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="K16:Q16"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -146,7 +146,7 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 9:40 AM</t>
+    <t>Monday, 6 October, 2025 9:42 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
     <t>CURAM 1GM 12 F.C. TABS.</t>
   </si>
   <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>182.00</t>
   </si>
   <si>
@@ -74,9 +86,6 @@
     <t>31.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
   </si>
   <si>
@@ -146,7 +155,25 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 9:42 AM</t>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t>شاش 5سم</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>Monday, 6 October, 2025 9:43 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -804,7 +831,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -813,14 +840,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -830,14 +857,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>20</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -846,14 +873,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -863,14 +890,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -879,14 +906,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -896,14 +923,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -912,31 +939,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -945,31 +972,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -978,14 +1005,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -995,14 +1022,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>42</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1018,59 +1045,158 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
-      <c r="P15" s="13">
-        <v>268.20999999999998</v>
-      </c>
-      <c r="Q15" s="13"/>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c t="s" r="A16" s="14">
-        <v>45</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c t="s" r="G16" s="15">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
         <v>46</v>
       </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c t="s" r="K16" s="17">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
         <v>47</v>
       </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>34</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>27</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>48</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>49</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>34</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>27</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>50</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>51</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>34</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>52</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>53</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="P18" s="13">
+        <v>379.20999999999998</v>
+      </c>
+      <c r="Q18" s="13"/>
+    </row>
+    <row r="19" ht="16.5" customHeight="1">
+      <c t="s" r="A19" s="14">
+        <v>54</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c t="s" r="G19" s="15">
+        <v>55</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c t="s" r="K19" s="17">
+        <v>56</v>
+      </c>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="67">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1119,10 +1245,25 @@
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="K19:Q19"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -173,7 +173,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 9:43 AM</t>
+    <t>Monday, 6 October, 2025 9:49 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -149,6 +149,18 @@
     <t>49.0000</t>
   </si>
   <si>
+    <t>XITHRONE 500MG 3 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
     <t>ايفا كريم 20 جم</t>
   </si>
   <si>
@@ -173,7 +185,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 9:49 AM</t>
+    <t>Monday, 6 October, 2025 10:29 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1084,15 +1096,15 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1104,14 +1116,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1137,14 +1149,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1154,49 +1166,82 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
-      <c r="P18" s="13">
-        <v>379.20999999999998</v>
-      </c>
-      <c r="Q18" s="13"/>
-    </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c t="s" r="A19" s="14">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
         <v>54</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c t="s" r="G19" s="15">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
         <v>55</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c t="s" r="K19" s="17">
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>34</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
         <v>56</v>
       </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="P19" s="13">
+        <v>442.20999999999998</v>
+      </c>
+      <c r="Q19" s="13"/>
+    </row>
+    <row r="20" ht="16.5" customHeight="1">
+      <c t="s" r="A20" s="14">
+        <v>58</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c t="s" r="G20" s="15">
+        <v>59</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c t="s" r="K20" s="17">
+        <v>60</v>
+      </c>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="72">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1260,10 +1305,15 @@
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="K20:Q20"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -185,7 +185,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 10:29 AM</t>
+    <t>Monday, 6 October, 2025 10:30 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -185,7 +185,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 10:30 AM</t>
+    <t>Monday, 6 October, 2025 11:01 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -74,6 +74,30 @@
     <t>0:1</t>
   </si>
   <si>
+    <t xml:space="preserve">GET WHITE  CREAM</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
+    <t>MIDODRINE 2.5MG 20 TAB</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
@@ -113,9 +137,6 @@
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>108.00</t>
   </si>
   <si>
@@ -140,6 +161,15 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>STARVILLE ACNE PRONE SKIN FACIAL CLEANSER 200 ML</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>125.0000</t>
+  </si>
+  <si>
     <t>TUSSISTOP 30MG/5ML SYRUP 100 ML</t>
   </si>
   <si>
@@ -150,9 +180,6 @@
   </si>
   <si>
     <t>XITHRONE 500MG 3 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>0:0</t>
   </si>
   <si>
     <t>63.00</t>
@@ -898,15 +925,15 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>12</v>
@@ -918,14 +945,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -975,7 +1002,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -991,13 +1018,13 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -1008,7 +1035,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1017,14 +1044,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1034,14 +1061,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1050,7 +1077,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1063,18 +1090,18 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1083,14 +1110,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1100,14 +1127,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q15" s="12">
         <v>49</v>
-      </c>
-      <c t="s" r="Q15" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1123,21 +1150,21 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1149,28 +1176,28 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1182,66 +1209,165 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
-      <c r="P19" s="13">
-        <v>442.20999999999998</v>
-      </c>
-      <c r="Q19" s="13"/>
-    </row>
-    <row r="20" ht="16.5" customHeight="1">
-      <c t="s" r="A20" s="14">
-        <v>58</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c t="s" r="G20" s="15">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
         <v>59</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c t="s" r="K20" s="17">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
         <v>60</v>
       </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>23</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>35</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>36</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>61</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>62</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>23</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>35</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>36</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>63</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>64</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>23</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>65</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="P22" s="13">
+        <v>727.21000000000004</v>
+      </c>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" ht="16.5" customHeight="1">
+      <c t="s" r="A23" s="14">
+        <v>67</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c t="s" r="G23" s="15">
+        <v>68</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c t="s" r="K23" s="17">
+        <v>69</v>
+      </c>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="87">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1310,10 +1436,25 @@
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="K23:Q23"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ADOLOR 30 MG 3 AMPS.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
   </si>
   <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>86.00</t>
   </si>
   <si>
@@ -71,9 +86,6 @@
     <t>60.0600</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t xml:space="preserve">GET WHITE  CREAM</t>
   </si>
   <si>
@@ -200,6 +212,15 @@
     <t>18:0</t>
   </si>
   <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
     <t>شاش 5سم</t>
   </si>
   <si>
@@ -212,7 +233,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 11:01 AM</t>
+    <t>Monday, 6 October, 2025 11:02 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -870,7 +891,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -879,14 +900,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -896,14 +917,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -925,18 +946,18 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -945,31 +966,31 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -978,14 +999,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1002,7 +1023,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1035,7 +1056,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1068,7 +1089,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1084,24 +1105,24 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1117,24 +1138,24 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
+        <v>47</v>
+      </c>
+      <c t="s" r="Q15" s="12">
         <v>48</v>
-      </c>
-      <c t="s" r="Q15" s="12">
-        <v>49</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1143,14 +1164,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1167,7 +1188,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1176,14 +1197,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1193,14 +1214,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1209,14 +1230,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1226,14 +1247,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1242,31 +1263,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1275,31 +1296,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1308,66 +1329,132 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>60</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
-      <c r="P22" s="13">
-        <v>727.21000000000004</v>
-      </c>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c t="s" r="A23" s="14">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
         <v>67</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c t="s" r="G23" s="15">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>26</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>27</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
         <v>68</v>
       </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c t="s" r="K23" s="17">
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
         <v>69</v>
       </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
+      <c t="s" r="Q22" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>70</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>71</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>27</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>72</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>73</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="P24" s="13">
+        <v>741.09000000000003</v>
+      </c>
+      <c r="Q24" s="13"/>
+    </row>
+    <row r="25" ht="16.5" customHeight="1">
+      <c t="s" r="A25" s="14">
+        <v>74</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c t="s" r="G25" s="15">
+        <v>75</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
+      <c t="s" r="K25" s="17">
+        <v>76</v>
+      </c>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="97">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1451,10 +1538,20 @@
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="K25:Q25"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -233,7 +233,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 11:02 AM</t>
+    <t>Monday, 6 October, 2025 11:11 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -233,7 +233,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 11:11 AM</t>
+    <t>Monday, 6 October, 2025 11:13 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -101,6 +101,15 @@
     <t>110.0000</t>
   </si>
   <si>
+    <t>MEGAMOX 457MG/5ML SUSP. 70ML</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
     <t>MIDODRINE 2.5MG 20 TAB</t>
   </si>
   <si>
@@ -122,6 +131,15 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
   </si>
   <si>
@@ -191,6 +209,30 @@
     <t>49.0000</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8197:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>XILONE 5MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>XITHRONE 500MG 3 F.C.TAB.</t>
   </si>
   <si>
@@ -203,21 +245,24 @@
     <t>ايفا كريم 20 جم</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
     <t>18:0</t>
   </si>
   <si>
+    <t>بيبي جوي رقم 1</t>
+  </si>
+  <si>
+    <t>285.00</t>
+  </si>
+  <si>
+    <t>285.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
     <t>2.0000</t>
   </si>
   <si>
@@ -233,7 +278,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 11:13 AM</t>
+    <t>Monday, 6 October, 2025 11:18 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1006,7 +1051,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1039,7 +1084,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1049,11 +1094,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>18</v>
@@ -1065,14 +1110,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1082,11 +1127,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>18</v>
@@ -1098,14 +1143,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1115,14 +1160,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1131,31 +1176,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1164,14 +1209,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1181,14 +1226,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1197,31 +1242,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>18</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1230,14 +1275,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1247,14 +1292,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>58</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>59</v>
-      </c>
-      <c t="s" r="Q18" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1303,21 +1348,21 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>18</v>
@@ -1329,31 +1374,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1362,28 +1407,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>18</v>
@@ -1395,66 +1440,231 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>64</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
-      <c r="P24" s="13">
-        <v>741.09000000000003</v>
-      </c>
-      <c r="Q24" s="13"/>
-    </row>
-    <row r="25" ht="16.5" customHeight="1">
-      <c t="s" r="A25" s="14">
-        <v>74</v>
-      </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c t="s" r="G25" s="15">
-        <v>75</v>
-      </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
-      <c t="s" r="K25" s="17">
-        <v>76</v>
-      </c>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>77</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>70</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>27</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>45</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>78</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>79</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>27</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>45</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>80</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>70</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>27</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>81</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>83</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>26</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>27</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>68</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>85</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>86</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>27</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>87</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="P29" s="13">
+        <v>1188.0899999999999</v>
+      </c>
+      <c r="Q29" s="13"/>
+    </row>
+    <row r="30" ht="16.5" customHeight="1">
+      <c t="s" r="A30" s="14">
+        <v>89</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c t="s" r="G30" s="15">
+        <v>90</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c t="s" r="K30" s="17">
+        <v>91</v>
+      </c>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="97">
+  <mergeCells count="122">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1548,10 +1758,35 @@
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="K25:Q25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="K30:Q30"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -74,6 +74,18 @@
     <t>86.0000</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>CURAM 1GM 12 F.C. TABS.</t>
   </si>
   <si>
@@ -101,6 +113,18 @@
     <t>110.0000</t>
   </si>
   <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
     <t>MEGAMOX 457MG/5ML SUSP. 70ML</t>
   </si>
   <si>
@@ -119,6 +143,15 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
@@ -212,16 +245,13 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8197:0</t>
+    <t>8195:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>2:0</t>
+    <t>8.0000</t>
   </si>
   <si>
     <t>XILONE 5MG/5ML SYRUP 100ML</t>
@@ -278,7 +308,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 11:18 AM</t>
+    <t>Monday, 6 October, 2025 11:37 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1002,7 +1032,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1024,18 +1054,18 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1044,28 +1074,28 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>18</v>
@@ -1077,14 +1107,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1094,11 +1124,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>18</v>
@@ -1110,14 +1140,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1127,11 +1157,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>18</v>
@@ -1143,14 +1173,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1160,11 +1190,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>18</v>
@@ -1176,14 +1206,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1233,7 +1263,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1249,13 +1279,13 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1266,7 +1296,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>54</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1275,14 +1305,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1292,14 +1322,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>59</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1308,14 +1338,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1325,14 +1355,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1341,7 +1371,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1354,18 +1384,18 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q20" s="12">
         <v>65</v>
-      </c>
-      <c t="s" r="Q20" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1414,7 +1444,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1447,7 +1477,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1480,24 +1510,24 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1506,28 +1536,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>18</v>
@@ -1539,28 +1569,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>18</v>
@@ -1572,28 +1602,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>18</v>
@@ -1605,66 +1635,165 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>70</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
-      <c r="P29" s="13">
-        <v>1188.0899999999999</v>
-      </c>
-      <c r="Q29" s="13"/>
-    </row>
-    <row r="30" ht="16.5" customHeight="1">
-      <c t="s" r="A30" s="14">
-        <v>89</v>
-      </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c t="s" r="G30" s="15">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
         <v>90</v>
       </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
-      <c t="s" r="K30" s="17">
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>35</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>31</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
         <v>91</v>
       </c>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>93</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>30</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>31</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>79</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>95</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>96</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>31</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>97</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="P32" s="13">
+        <v>1321.0899999999999</v>
+      </c>
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" ht="16.5" customHeight="1">
+      <c t="s" r="A33" s="14">
+        <v>99</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c t="s" r="G33" s="15">
+        <v>100</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c t="s" r="K33" s="17">
+        <v>101</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="122">
+  <mergeCells count="137">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1783,10 +1912,25 @@
     <mergeCell ref="H28:K28"/>
     <mergeCell ref="L28:M28"/>
     <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K33:Q33"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -308,7 +308,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 11:37 AM</t>
+    <t>Monday, 6 October, 2025 11:57 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -212,16 +212,16 @@
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
-    <t>0:16</t>
+    <t>0:10</t>
   </si>
   <si>
     <t>141.00</t>
   </si>
   <si>
-    <t>21.1500</t>
-  </si>
-  <si>
-    <t>0:3</t>
+    <t>63.4500</t>
+  </si>
+  <si>
+    <t>0:9</t>
   </si>
   <si>
     <t>STARVILLE ACNE PRONE SKIN FACIAL CLEANSER 200 ML</t>
@@ -308,7 +308,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 11:57 AM</t>
+    <t>Monday, 6 October, 2025 11:59 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1763,7 +1763,7 @@
     </row>
     <row r="32" ht="25.5" customHeight="1">
       <c r="P32" s="13">
-        <v>1321.0899999999999</v>
+        <v>1363.3900000000001</v>
       </c>
       <c r="Q32" s="13"/>
     </row>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -77,13 +77,16 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
-    <t>6:0</t>
+    <t>5:0</t>
   </si>
   <si>
     <t>33.00</t>
   </si>
   <si>
-    <t>33.0000</t>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
   </si>
   <si>
     <t>CURAM 1GM 12 F.C. TABS.</t>
@@ -98,6 +101,24 @@
     <t>60.0600</t>
   </si>
   <si>
+    <t>DIGENORM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
+    <t>DIGESTIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">GET WHITE  CREAM</t>
   </si>
   <si>
@@ -110,19 +131,25 @@
     <t>110.00</t>
   </si>
   <si>
-    <t>110.0000</t>
+    <t>INDERAL 10 MG 50 TABS</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
   </si>
   <si>
     <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>57.00</t>
   </si>
   <si>
-    <t>57.0000</t>
+    <t>114.0000</t>
   </si>
   <si>
     <t>MEGAMOX 457MG/5ML SUSP. 70ML</t>
@@ -176,9 +203,6 @@
     <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>15.00</t>
   </si>
   <si>
@@ -206,9 +230,6 @@
     <t>54.0000</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -242,6 +263,27 @@
     <t>49.0000</t>
   </si>
   <si>
+    <t>VERMIZOLE 200MG 6 TAB</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>VERMIZOLE 200MG/5ML SUSP. 30 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -308,7 +350,16 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 11:59 AM</t>
+    <t>مرهم راسب ابيض</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>Monday, 6 October, 2025 12:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1032,7 +1083,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1041,14 +1092,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1058,11 +1109,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1074,31 +1125,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1107,14 +1158,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1124,11 +1175,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>18</v>
@@ -1140,20 +1191,20 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1161,7 +1212,7 @@
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>18</v>
@@ -1173,14 +1224,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1230,7 +1281,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1246,7 +1297,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1256,11 +1307,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>18</v>
@@ -1272,14 +1323,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1289,11 +1340,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>18</v>
@@ -1305,14 +1356,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1322,11 +1373,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>18</v>
@@ -1338,14 +1389,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1355,14 +1406,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1371,31 +1422,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>65</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1404,14 +1455,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1421,14 +1472,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>70</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1437,14 +1488,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1454,14 +1505,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1470,7 +1521,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1483,18 +1534,18 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1503,14 +1554,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1520,14 +1571,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>48</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1536,14 +1587,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1553,11 +1604,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>18</v>
@@ -1569,14 +1620,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1586,11 +1637,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>18</v>
@@ -1602,28 +1653,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>18</v>
@@ -1635,31 +1686,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>18</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1668,31 +1719,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1701,28 +1752,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>18</v>
@@ -1734,66 +1785,264 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
-      <c r="P32" s="13">
-        <v>1363.3900000000001</v>
-      </c>
-      <c r="Q32" s="13"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
-      <c t="s" r="A33" s="14">
-        <v>99</v>
-      </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c t="s" r="G33" s="15">
-        <v>100</v>
-      </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
-      <c t="s" r="K33" s="17">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
         <v>101</v>
       </c>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>25</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>38</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>64</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>102</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>103</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>38</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>64</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>104</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>25</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>38</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>105</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>107</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>37</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>38</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>93</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>109</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>110</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>38</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>111</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>113</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>114</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>38</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>115</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="P38" s="13">
+        <v>1796.3900000000001</v>
+      </c>
+      <c r="Q38" s="13"/>
+    </row>
+    <row r="39" ht="16.5" customHeight="1">
+      <c t="s" r="A39" s="14">
+        <v>116</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c t="s" r="G39" s="15">
+        <v>117</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
+      <c t="s" r="K39" s="17">
+        <v>118</v>
+      </c>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
+  <mergeCells count="167">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1927,10 +2176,40 @@
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="K39:Q39"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -359,7 +359,7 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 12:01 PM</t>
+    <t>Monday, 6 October, 2025 12:02 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -350,6 +350,12 @@
     <t>10.0000</t>
   </si>
   <si>
+    <t>ماكينه حلاقه جليت فليكتور</t>
+  </si>
+  <si>
+    <t>24:0</t>
+  </si>
+  <si>
     <t>مرهم راسب ابيض</t>
   </si>
   <si>
@@ -359,7 +365,7 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 12:02 PM</t>
+    <t>Monday, 6 October, 2025 12:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2000,49 +2006,82 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>115</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>116</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>38</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>117</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
         <v>94</v>
       </c>
-      <c t="s" r="Q37" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" ht="24.75" customHeight="1">
-      <c r="P38" s="13">
-        <v>1796.3900000000001</v>
-      </c>
-      <c r="Q38" s="13"/>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
-      <c t="s" r="A39" s="14">
-        <v>116</v>
-      </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c t="s" r="G39" s="15">
-        <v>117</v>
-      </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="16"/>
-      <c t="s" r="K39" s="17">
+      <c t="s" r="Q38" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="P39" s="13">
+        <v>1811.3900000000001</v>
+      </c>
+      <c r="Q39" s="13"/>
+    </row>
+    <row r="40" ht="16.5" customHeight="1">
+      <c t="s" r="A40" s="14">
         <v>118</v>
       </c>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c t="s" r="G40" s="15">
+        <v>119</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="16"/>
+      <c t="s" r="K40" s="17">
+        <v>120</v>
+      </c>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="167">
+  <mergeCells count="172">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2206,10 +2245,15 @@
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="L37:M37"/>
     <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="K40:Q40"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -284,6 +284,18 @@
     <t>78.0000</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>8:2</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -365,7 +377,7 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 12:04 PM</t>
+    <t>Monday, 6 October, 2025 12:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1749,7 +1761,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1765,7 +1777,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1775,14 +1787,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1791,14 +1803,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1808,11 +1820,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>18</v>
@@ -1824,28 +1836,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>18</v>
@@ -1857,14 +1869,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1890,14 +1902,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1907,11 +1919,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>18</v>
@@ -1923,14 +1935,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1940,11 +1952,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>18</v>
@@ -1956,14 +1968,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1973,14 +1985,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2006,14 +2018,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2022,14 +2034,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2039,49 +2051,82 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>64</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
-      <c r="P39" s="13">
-        <v>1811.3900000000001</v>
-      </c>
-      <c r="Q39" s="13"/>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
-      <c t="s" r="A40" s="14">
-        <v>118</v>
-      </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c t="s" r="G40" s="15">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
         <v>119</v>
       </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="16"/>
-      <c t="s" r="K40" s="17">
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
         <v>120</v>
       </c>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>38</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>121</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="P40" s="13">
+        <v>1828.22</v>
+      </c>
+      <c r="Q40" s="13"/>
+    </row>
+    <row r="41" ht="16.5" customHeight="1">
+      <c t="s" r="A41" s="14">
+        <v>122</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c t="s" r="G41" s="15">
+        <v>123</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="16"/>
+      <c t="s" r="K41" s="17">
+        <v>124</v>
+      </c>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="172">
+  <mergeCells count="177">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2250,10 +2295,15 @@
     <mergeCell ref="H38:K38"/>
     <mergeCell ref="L38:M38"/>
     <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="K41:Q41"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -326,6 +326,15 @@
     <t>63.0000</t>
   </si>
   <si>
+    <t>املاح افونا</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>ايفا كريم 20 جم</t>
   </si>
   <si>
@@ -344,6 +353,9 @@
     <t>285.0000</t>
   </si>
   <si>
+    <t>جل صبار برطمان</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -377,7 +389,7 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 12:10 PM</t>
+    <t>Monday, 6 October, 2025 12:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1886,11 +1898,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>18</v>
@@ -1902,14 +1914,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>25</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1935,14 +1947,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1952,11 +1964,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>18</v>
@@ -1975,7 +1987,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1985,11 +1997,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>18</v>
@@ -2001,14 +2013,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2018,14 +2030,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2034,14 +2046,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2051,11 +2063,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>18</v>
@@ -2067,14 +2079,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2084,49 +2096,115 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>121</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>122</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>38</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>64</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>123</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>124</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>38</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>125</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
         <v>98</v>
       </c>
-      <c t="s" r="Q39" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" ht="24.75" customHeight="1">
-      <c r="P40" s="13">
-        <v>1828.22</v>
-      </c>
-      <c r="Q40" s="13"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c t="s" r="A41" s="14">
-        <v>122</v>
-      </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c t="s" r="G41" s="15">
-        <v>123</v>
-      </c>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="16"/>
-      <c t="s" r="K41" s="17">
-        <v>124</v>
-      </c>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
+      <c t="s" r="Q41" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="P42" s="13">
+        <v>1878.22</v>
+      </c>
+      <c r="Q42" s="13"/>
+    </row>
+    <row r="43" ht="16.5" customHeight="1">
+      <c t="s" r="A43" s="14">
+        <v>126</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c t="s" r="G43" s="15">
+        <v>127</v>
+      </c>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="16"/>
+      <c t="s" r="K43" s="17">
+        <v>128</v>
+      </c>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="177">
+  <mergeCells count="187">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2300,10 +2378,20 @@
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="K43:Q43"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -389,7 +389,7 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 12:54 PM</t>
+    <t>Monday, 6 October, 2025 12:55 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -389,7 +389,7 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 12:55 PM</t>
+    <t>Monday, 6 October, 2025 1:03 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -62,6 +62,15 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>AMIPRIDE 50MG 30 TAB</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>36.6300</t>
+  </si>
+  <si>
     <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
   </si>
   <si>
@@ -179,6 +188,15 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
@@ -389,7 +407,7 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 1:03 PM</t>
+    <t>Monday, 6 October, 2025 1:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1063,7 +1081,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1073,14 +1091,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1089,14 +1107,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1106,14 +1124,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1122,14 +1140,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1139,14 +1157,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1155,14 +1173,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1179,7 +1197,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1195,7 +1213,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1212,7 +1230,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1228,24 +1246,24 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1254,20 +1272,20 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1275,10 +1293,10 @@
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1287,14 +1305,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1311,7 +1329,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1327,7 +1345,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1344,7 +1362,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1360,7 +1378,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1377,7 +1395,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1393,7 +1411,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1410,7 +1428,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1426,7 +1444,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1436,14 +1454,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1452,14 +1470,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1469,14 +1487,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1485,14 +1503,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1509,7 +1527,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1525,7 +1543,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1535,14 +1553,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1551,31 +1569,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1584,14 +1602,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1601,14 +1619,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1617,31 +1635,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1650,14 +1668,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1667,14 +1685,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q26" s="12">
         <v>83</v>
-      </c>
-      <c t="s" r="Q26" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1690,7 +1708,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1707,7 +1725,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1723,7 +1741,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1733,14 +1751,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>88</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1749,14 +1767,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1766,14 +1784,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1782,14 +1800,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1799,14 +1817,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>57</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1815,14 +1833,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1832,14 +1850,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1848,14 +1866,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1872,7 +1890,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>18</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1888,13 +1906,13 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -1905,7 +1923,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1921,24 +1939,24 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1947,31 +1965,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1980,31 +1998,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2013,31 +2031,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2046,31 +2064,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2079,31 +2097,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2119,24 +2137,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2158,7 +2176,7 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2166,45 +2184,111 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
-      <c r="P42" s="13">
-        <v>1878.22</v>
-      </c>
-      <c r="Q42" s="13"/>
-    </row>
-    <row r="43" ht="16.5" customHeight="1">
-      <c t="s" r="A43" s="14">
-        <v>126</v>
-      </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c t="s" r="G43" s="15">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
         <v>127</v>
       </c>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="16"/>
-      <c t="s" r="K43" s="17">
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
         <v>128</v>
       </c>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>41</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>70</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>129</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>130</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>41</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>131</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="P44" s="13">
+        <v>1990.8499999999999</v>
+      </c>
+      <c r="Q44" s="13"/>
+    </row>
+    <row r="45" ht="16.5" customHeight="1">
+      <c t="s" r="A45" s="14">
+        <v>132</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c t="s" r="G45" s="15">
+        <v>133</v>
+      </c>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="16"/>
+      <c t="s" r="K45" s="17">
+        <v>134</v>
+      </c>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="187">
+  <mergeCells count="197">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2388,10 +2472,20 @@
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="L41:M41"/>
     <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="K45:Q45"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -407,7 +407,7 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 1:07 PM</t>
+    <t>Monday, 6 October, 2025 1:08 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -197,6 +197,15 @@
     <t>76.0000</t>
   </si>
   <si>
+    <t>OMEGA P SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>125.0000</t>
+  </si>
+  <si>
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
@@ -266,12 +275,6 @@
     <t>STARVILLE ACNE PRONE SKIN FACIAL CLEANSER 200 ML</t>
   </si>
   <si>
-    <t>125.00</t>
-  </si>
-  <si>
-    <t>125.0000</t>
-  </si>
-  <si>
     <t>TUSSISTOP 30MG/5ML SYRUP 100 ML</t>
   </si>
   <si>
@@ -407,7 +410,7 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 1:08 PM</t>
+    <t>Monday, 6 October, 2025 1:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1510,7 +1513,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1520,11 +1523,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1536,14 +1539,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1576,7 +1579,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1609,7 +1612,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1619,14 +1622,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1635,20 +1638,20 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1659,7 +1662,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1675,24 +1678,24 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>83</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1701,14 +1704,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1718,14 +1721,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>86</v>
-      </c>
-      <c t="s" r="Q27" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1741,7 +1744,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1751,11 +1754,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1767,7 +1770,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1784,11 +1787,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1800,14 +1803,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1817,14 +1820,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>94</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1833,14 +1836,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1850,14 +1853,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1866,14 +1869,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1883,14 +1886,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1899,14 +1902,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1916,14 +1919,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1932,14 +1935,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1949,11 +1952,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -1965,28 +1968,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -1998,7 +2001,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2015,11 +2018,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2038,7 +2041,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>28</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2048,11 +2051,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2064,14 +2067,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2081,11 +2084,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2097,14 +2100,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2114,11 +2117,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2147,11 +2150,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2163,14 +2166,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2180,14 +2183,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2196,14 +2199,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2213,14 +2216,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2229,14 +2232,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2246,49 +2249,82 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
-      <c r="P44" s="13">
-        <v>1990.8499999999999</v>
-      </c>
-      <c r="Q44" s="13"/>
-    </row>
-    <row r="45" ht="16.5" customHeight="1">
-      <c t="s" r="A45" s="14">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>130</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>131</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>41</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
         <v>132</v>
       </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c t="s" r="G45" s="15">
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="P45" s="13">
+        <v>2115.8499999999999</v>
+      </c>
+      <c r="Q45" s="13"/>
+    </row>
+    <row r="46" ht="16.5" customHeight="1">
+      <c t="s" r="A46" s="14">
         <v>133</v>
       </c>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="16"/>
-      <c t="s" r="K45" s="17">
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c t="s" r="G46" s="15">
         <v>134</v>
       </c>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="16"/>
+      <c t="s" r="K46" s="17">
+        <v>135</v>
+      </c>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="197">
+  <mergeCells count="202">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2482,10 +2518,15 @@
     <mergeCell ref="H43:K43"/>
     <mergeCell ref="L43:M43"/>
     <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="K46:Q46"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -410,7 +410,7 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 1:10 PM</t>
+    <t>Monday, 6 October, 2025 1:14 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -71,12 +71,24 @@
     <t>36.6300</t>
   </si>
   <si>
+    <t>BIOVITA 60 GUMMIES</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>250.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>86.00</t>
   </si>
   <si>
@@ -131,9 +143,6 @@
     <t xml:space="preserve">GET WHITE  CREAM</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -377,6 +386,27 @@
     <t>جل صبار برطمان</t>
   </si>
   <si>
+    <t>حلق</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>حمام كريم فاتيكا 900 جم</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -392,9 +422,6 @@
     <t>5.00</t>
   </si>
   <si>
-    <t>10.0000</t>
-  </si>
-  <si>
     <t>ماكينه حلاقه جليت فليكتور</t>
   </si>
   <si>
@@ -410,7 +437,7 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 1:14 PM</t>
+    <t>Monday, 6 October, 2025 1:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1134,7 +1161,7 @@
         <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1143,14 +1170,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1167,7 +1194,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1176,14 +1203,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1193,14 +1220,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>32</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1216,7 +1243,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1226,14 +1253,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1242,14 +1269,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1259,14 +1286,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1275,31 +1302,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1315,13 +1342,13 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1329,10 +1356,10 @@
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1341,14 +1368,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1365,7 +1392,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1381,7 +1408,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1398,7 +1425,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1414,7 +1441,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1431,7 +1458,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1447,7 +1474,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1464,7 +1491,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1480,7 +1507,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1497,7 +1524,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1513,7 +1540,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1530,7 +1557,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1546,7 +1573,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1556,14 +1583,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1572,14 +1599,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1596,7 +1623,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1612,7 +1639,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1629,7 +1656,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1645,7 +1672,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1655,14 +1682,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1671,20 +1698,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1695,7 +1722,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1711,24 +1738,24 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>86</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1737,14 +1764,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1754,14 +1781,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1770,7 +1797,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1787,14 +1814,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1810,7 +1837,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1827,7 +1854,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1843,7 +1870,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1853,14 +1880,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>95</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1869,14 +1896,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1886,14 +1913,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1902,14 +1929,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1919,14 +1946,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1935,14 +1962,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1959,7 +1986,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1975,7 +2002,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1992,7 +2019,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2008,13 +2035,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2025,7 +2052,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2041,24 +2068,24 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2067,31 +2094,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>32</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2100,31 +2127,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2140,24 +2167,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2166,31 +2193,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2199,31 +2226,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2232,31 +2259,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2265,66 +2292,165 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>131</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
-      <c r="P45" s="13">
-        <v>2115.8499999999999</v>
-      </c>
-      <c r="Q45" s="13"/>
-    </row>
-    <row r="46" ht="16.5" customHeight="1">
-      <c t="s" r="A46" s="14">
-        <v>133</v>
-      </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c t="s" r="G46" s="15">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
         <v>134</v>
       </c>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="16"/>
-      <c t="s" r="K46" s="17">
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
         <v>135</v>
       </c>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>44</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>136</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>128</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>137</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>138</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>44</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>76</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>77</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>139</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>140</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>44</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>141</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="P48" s="13">
+        <v>2515.8499999999999</v>
+      </c>
+      <c r="Q48" s="13"/>
+    </row>
+    <row r="49" ht="16.5" customHeight="1">
+      <c t="s" r="A49" s="14">
+        <v>142</v>
+      </c>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c t="s" r="G49" s="15">
+        <v>143</v>
+      </c>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="16"/>
+      <c t="s" r="K49" s="17">
+        <v>144</v>
+      </c>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="202">
+  <mergeCells count="217">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2523,10 +2649,25 @@
     <mergeCell ref="H44:K44"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="K49:Q49"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -420,6 +420,9 @@
   </si>
   <si>
     <t>5.00</t>
+  </si>
+  <si>
+    <t>صوفي طويل جدا</t>
   </si>
   <si>
     <t>ماكينه حلاقه جليت فليكتور</t>
@@ -2365,7 +2368,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2375,11 +2378,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>24</v>
@@ -2391,14 +2394,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2408,49 +2411,82 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>76</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
+        <v>77</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>140</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>141</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>44</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>142</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
         <v>108</v>
       </c>
-      <c t="s" r="Q47" s="12">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="48" ht="24.75" customHeight="1">
-      <c r="P48" s="13">
-        <v>2515.8499999999999</v>
-      </c>
-      <c r="Q48" s="13"/>
-    </row>
-    <row r="49" ht="16.5" customHeight="1">
-      <c t="s" r="A49" s="14">
-        <v>142</v>
-      </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c t="s" r="G49" s="15">
+      <c t="s" r="Q48" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="P49" s="13">
+        <v>2565.8499999999999</v>
+      </c>
+      <c r="Q49" s="13"/>
+    </row>
+    <row r="50" ht="16.5" customHeight="1">
+      <c t="s" r="A50" s="14">
         <v>143</v>
       </c>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="16"/>
-      <c t="s" r="K49" s="17">
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c t="s" r="G50" s="15">
         <v>144</v>
       </c>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="16"/>
+      <c t="s" r="K50" s="17">
+        <v>145</v>
+      </c>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="217">
+  <mergeCells count="222">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2664,10 +2700,15 @@
     <mergeCell ref="H47:K47"/>
     <mergeCell ref="L47:M47"/>
     <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="K49:Q49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="K50:Q50"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -389,42 +389,48 @@
     <t>حلق</t>
   </si>
   <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>حمام كريم فاتيكا 900 جم</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>شاش 5سم</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>صوفي طويل جدا</t>
+  </si>
+  <si>
     <t>12:0</t>
   </si>
   <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>حمام كريم فاتيكا 900 جم</t>
-  </si>
-  <si>
-    <t>140.00</t>
-  </si>
-  <si>
-    <t>140.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>2.0000</t>
-  </si>
-  <si>
-    <t>شاش 5سم</t>
-  </si>
-  <si>
-    <t>14:0</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t>صوفي طويل جدا</t>
-  </si>
-  <si>
     <t>ماكينه حلاقه جليت فليكتور</t>
   </si>
   <si>
@@ -440,7 +446,7 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 1:16 PM</t>
+    <t>Monday, 6 October, 2025 1:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2253,7 +2259,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2349,7 +2355,7 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>32</v>
@@ -2361,14 +2367,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2394,14 +2400,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2427,14 +2433,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2444,7 +2450,7 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -2456,13 +2462,13 @@
     </row>
     <row r="49" ht="25.5" customHeight="1">
       <c r="P49" s="13">
-        <v>2565.8499999999999</v>
+        <v>2575.8499999999999</v>
       </c>
       <c r="Q49" s="13"/>
     </row>
     <row r="50" ht="16.5" customHeight="1">
       <c t="s" r="A50" s="14">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
@@ -2470,13 +2476,13 @@
       <c r="E50" s="14"/>
       <c r="F50" s="14"/>
       <c t="s" r="G50" s="15">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H50" s="15"/>
       <c r="I50" s="15"/>
       <c r="J50" s="16"/>
       <c t="s" r="K50" s="17">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L50" s="17"/>
       <c r="M50" s="17"/>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -95,6 +95,27 @@
     <t>86.0000</t>
   </si>
   <si>
+    <t>CEFIX HAIR CREAM</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>265.00</t>
+  </si>
+  <si>
+    <t>265.0000</t>
+  </si>
+  <si>
+    <t>CLARY HAIR MASK</t>
+  </si>
+  <si>
+    <t>360.00</t>
+  </si>
+  <si>
+    <t>360.0000</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -140,12 +161,27 @@
     <t>42.0000</t>
   </si>
   <si>
+    <t>GELBLEND ACTIVE GEL</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
+    <t>GELBLEND HYDRA MOIST</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>175.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">GET WHITE  CREAM</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>110.00</t>
   </si>
   <si>
@@ -206,6 +242,15 @@
     <t>76.0000</t>
   </si>
   <si>
+    <t>NOMORE ACNE CLEANSER</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
     <t>OMEGA P SYRUP 120 ML</t>
   </si>
   <si>
@@ -266,6 +311,15 @@
     <t>54.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">PURE SECCO HAIR  LOTION</t>
+  </si>
+  <si>
+    <t>280.00</t>
+  </si>
+  <si>
+    <t>280.0000</t>
+  </si>
+  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -284,6 +338,9 @@
     <t>STARVILLE ACNE PRONE SKIN FACIAL CLEANSER 200 ML</t>
   </si>
   <si>
+    <t>TELOFILL SUNSCREEN عرض</t>
+  </si>
+  <si>
     <t>TUSSISTOP 30MG/5ML SYRUP 100 ML</t>
   </si>
   <si>
@@ -356,6 +413,18 @@
     <t>63.0000</t>
   </si>
   <si>
+    <t>ZINOL 1GM I.M./I.V. VIAL</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>املاح افونا</t>
   </si>
   <si>
@@ -401,12 +470,6 @@
     <t>حمام كريم فاتيكا 900 جم</t>
   </si>
   <si>
-    <t>140.00</t>
-  </si>
-  <si>
-    <t>140.0000</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -431,6 +494,9 @@
     <t>12:0</t>
   </si>
   <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
     <t>ماكينه حلاقه جليت فليكتور</t>
   </si>
   <si>
@@ -446,7 +512,7 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 1:18 PM</t>
+    <t>Monday, 6 October, 2025 1:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1219,13 +1285,13 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -1236,7 +1302,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1245,31 +1311,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1278,14 +1344,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1295,14 +1361,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>39</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>32</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1318,7 +1384,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1328,14 +1394,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1344,20 +1410,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1365,10 +1431,10 @@
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q15" s="12">
         <v>39</v>
-      </c>
-      <c t="s" r="Q15" s="12">
-        <v>24</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1377,14 +1443,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1417,13 +1483,13 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1434,7 +1500,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1456,7 +1522,7 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1483,13 +1549,13 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1497,7 +1563,7 @@
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>24</v>
@@ -1509,14 +1575,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1566,7 +1632,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1615,7 +1681,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1625,11 +1691,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>24</v>
@@ -1641,14 +1707,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1658,11 +1724,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>24</v>
@@ -1674,14 +1740,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1691,14 +1757,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1707,31 +1773,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1740,31 +1806,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1773,14 +1839,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1790,14 +1856,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>89</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1806,14 +1872,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1823,11 +1889,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>24</v>
@@ -1839,14 +1905,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1856,11 +1922,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>24</v>
@@ -1872,14 +1938,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1896,7 +1962,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1912,24 +1978,24 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>98</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1938,31 +2004,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1971,14 +2037,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1988,14 +2054,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>69</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2004,14 +2070,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2021,11 +2087,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>24</v>
@@ -2037,7 +2103,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2050,15 +2116,15 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>24</v>
@@ -2070,28 +2136,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>24</v>
@@ -2103,28 +2169,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>24</v>
@@ -2136,31 +2202,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>24</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2169,20 +2235,20 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>32</v>
+        <v>121</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2193,7 +2259,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2209,24 +2275,24 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>24</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2235,31 +2301,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>126</v>
+        <v>39</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2268,28 +2334,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>24</v>
@@ -2301,28 +2367,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>24</v>
@@ -2334,31 +2400,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>135</v>
+        <v>39</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2367,28 +2433,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>39</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>24</v>
@@ -2400,28 +2466,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>24</v>
@@ -2433,66 +2499,363 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>143</v>
+        <v>39</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>24</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
-      <c r="P49" s="13">
-        <v>2575.8499999999999</v>
-      </c>
-      <c r="Q49" s="13"/>
-    </row>
-    <row r="50" ht="16.5" customHeight="1">
-      <c t="s" r="A50" s="14">
-        <v>145</v>
-      </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c t="s" r="G50" s="15">
-        <v>146</v>
-      </c>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="16"/>
-      <c t="s" r="K50" s="17">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
         <v>147</v>
       </c>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>21</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>29</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>139</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>140</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>148</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>149</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>29</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>150</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>152</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>24</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>29</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>51</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>153</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>21</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>29</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>126</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>155</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>156</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>29</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>157</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>158</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>159</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>160</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>29</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>69</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>70</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>161</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>21</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>29</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>91</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>162</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>163</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>29</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>91</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>164</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>165</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>29</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>166</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="P58" s="13">
+        <v>4303.8500000000004</v>
+      </c>
+      <c r="Q58" s="13"/>
+    </row>
+    <row r="59" ht="16.5" customHeight="1">
+      <c t="s" r="A59" s="14">
+        <v>167</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c t="s" r="G59" s="15">
+        <v>168</v>
+      </c>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="16"/>
+      <c t="s" r="K59" s="17">
+        <v>169</v>
+      </c>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="222">
+  <mergeCells count="267">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2711,10 +3074,55 @@
     <mergeCell ref="H48:K48"/>
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="K59:Q59"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -233,6 +233,15 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>NESTOGEN 1 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>255.00</t>
+  </si>
+  <si>
+    <t>255.0000</t>
+  </si>
+  <si>
     <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
   </si>
   <si>
@@ -512,7 +521,7 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 1:31 PM</t>
+    <t>Monday, 6 October, 2025 1:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1747,7 +1756,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1764,7 +1773,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1780,13 +1789,13 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1797,7 +1806,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1819,7 +1828,7 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1846,7 +1855,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1856,11 +1865,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>24</v>
@@ -1872,14 +1881,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1912,7 +1921,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1945,7 +1954,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1955,14 +1964,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1971,20 +1980,20 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1995,7 +2004,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2011,7 +2020,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2028,7 +2037,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>24</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2044,24 +2053,24 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>107</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2070,14 +2079,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2087,14 +2096,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>24</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2103,7 +2112,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2116,15 +2125,15 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>24</v>
@@ -2136,28 +2145,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>24</v>
@@ -2209,7 +2218,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>117</v>
+        <v>24</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2219,14 +2228,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>117</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2235,14 +2244,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2252,14 +2261,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2268,14 +2277,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2285,14 +2294,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>84</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2301,14 +2310,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>39</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2325,7 +2334,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>24</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2341,7 +2350,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2374,7 +2383,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2384,11 +2393,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>24</v>
@@ -2400,20 +2409,20 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2450,11 +2459,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>24</v>
@@ -2466,14 +2475,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>39</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2483,11 +2492,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>24</v>
@@ -2499,14 +2508,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>39</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2516,11 +2525,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>24</v>
@@ -2539,7 +2548,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2549,11 +2558,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>24</v>
@@ -2565,14 +2574,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2582,14 +2591,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2598,14 +2607,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2615,14 +2624,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>51</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>52</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2631,14 +2640,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2648,11 +2657,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>24</v>
@@ -2664,14 +2673,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>156</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2681,14 +2690,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2697,14 +2706,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2714,14 +2723,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>69</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>70</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2730,14 +2739,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>163</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2747,14 +2756,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2763,14 +2772,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>163</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2780,14 +2789,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2796,14 +2805,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2813,49 +2822,82 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>94</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>24</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
-      <c r="P58" s="13">
-        <v>4303.8500000000004</v>
-      </c>
-      <c r="Q58" s="13"/>
-    </row>
-    <row r="59" ht="16.5" customHeight="1">
-      <c t="s" r="A59" s="14">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
         <v>167</v>
       </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c t="s" r="G59" s="15">
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
         <v>168</v>
       </c>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="16"/>
-      <c t="s" r="K59" s="17">
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>29</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
         <v>169</v>
       </c>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="P59" s="13">
+        <v>4558.8500000000004</v>
+      </c>
+      <c r="Q59" s="13"/>
+    </row>
+    <row r="60" ht="16.5" customHeight="1">
+      <c t="s" r="A60" s="14">
+        <v>170</v>
+      </c>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c t="s" r="G60" s="15">
+        <v>171</v>
+      </c>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="16"/>
+      <c t="s" r="K60" s="17">
+        <v>172</v>
+      </c>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="267">
+  <mergeCells count="272">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3119,10 +3161,15 @@
     <mergeCell ref="H57:K57"/>
     <mergeCell ref="L57:M57"/>
     <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="K59:Q59"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="K60:Q60"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -65,6 +65,9 @@
     <t>AMIPRIDE 50MG 30 TAB</t>
   </si>
   <si>
+    <t>1:1</t>
+  </si>
+  <si>
     <t>111.00</t>
   </si>
   <si>
@@ -134,9 +137,6 @@
     <t>CURAM 1GM 12 F.C. TABS.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>182.00</t>
   </si>
   <si>
@@ -521,7 +521,7 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 1:32 PM</t>
+    <t>Monday, 6 October, 2025 1:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1195,7 +1195,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1205,11 +1205,11 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
         <v>16</v>
@@ -1221,14 +1221,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1238,14 +1238,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1254,14 +1254,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1271,14 +1271,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1287,31 +1287,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1320,31 +1320,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1353,14 +1353,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1370,14 +1370,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1386,14 +1386,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1426,7 +1426,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1443,7 +1443,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1459,7 +1459,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1476,7 +1476,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1492,13 +1492,13 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1509,7 +1509,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1525,13 +1525,13 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1542,7 +1542,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1558,13 +1558,13 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1575,7 +1575,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1608,7 +1608,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1624,7 +1624,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1641,7 +1641,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1657,7 +1657,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1674,7 +1674,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1690,7 +1690,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1707,7 +1707,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1723,7 +1723,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1740,7 +1740,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1756,7 +1756,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1773,7 +1773,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1789,7 +1789,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1822,13 +1822,13 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1839,7 +1839,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1855,7 +1855,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1872,7 +1872,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1905,7 +1905,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1938,7 +1938,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1954,7 +1954,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1971,7 +1971,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2020,13 +2020,13 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2053,13 +2053,13 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2070,7 +2070,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2119,7 +2119,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2136,7 +2136,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2152,24 +2152,24 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2185,7 +2185,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2202,7 +2202,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2218,7 +2218,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2235,7 +2235,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2350,7 +2350,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2367,7 +2367,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2383,7 +2383,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2400,7 +2400,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2433,7 +2433,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2449,13 +2449,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2466,7 +2466,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2482,13 +2482,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2499,7 +2499,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2521,7 +2521,7 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2532,7 +2532,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2548,13 +2548,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2565,7 +2565,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2581,13 +2581,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2598,7 +2598,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2620,7 +2620,7 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2631,7 +2631,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2647,13 +2647,13 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2664,7 +2664,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2680,13 +2680,13 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -2697,7 +2697,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2719,7 +2719,7 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -2730,7 +2730,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2752,7 +2752,7 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -2763,7 +2763,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2779,13 +2779,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -2796,7 +2796,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2818,7 +2818,7 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -2829,7 +2829,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2851,7 +2851,7 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -2862,7 +2862,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -143,6 +143,18 @@
     <t>60.0600</t>
   </si>
   <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>8:3</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>DIGENORM SYRUP 120 ML</t>
   </si>
   <si>
@@ -188,9 +200,6 @@
     <t>INDERAL 10 MG 50 TABS</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>75.00</t>
   </si>
   <si>
@@ -482,9 +491,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.0000</t>
-  </si>
-  <si>
     <t>شاش 5سم</t>
   </si>
   <si>
@@ -521,7 +527,7 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 1:37 PM</t>
+    <t>Monday, 6 October, 2025 1:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1426,7 +1432,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1436,14 +1442,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1452,14 +1458,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1469,14 +1475,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1485,28 +1491,28 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>25</v>
@@ -1518,7 +1524,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1535,11 +1541,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>25</v>
@@ -1551,7 +1557,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1568,11 +1574,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>25</v>
@@ -1584,28 +1590,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>25</v>
@@ -1624,7 +1630,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1641,7 +1647,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1657,7 +1663,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1674,7 +1680,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1690,7 +1696,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1723,7 +1729,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1756,7 +1762,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1789,7 +1795,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1806,7 +1812,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1822,13 +1828,13 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1839,7 +1845,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1861,7 +1867,7 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1888,7 +1894,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1898,11 +1904,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>25</v>
@@ -1914,14 +1920,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1954,7 +1960,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1987,7 +1993,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1997,14 +2003,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2013,20 +2019,20 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2037,7 +2043,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2053,7 +2059,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2070,7 +2076,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2086,24 +2092,24 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>110</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2112,14 +2118,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2129,14 +2135,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2145,7 +2151,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2158,15 +2164,15 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>25</v>
@@ -2178,28 +2184,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>25</v>
@@ -2251,7 +2257,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2261,14 +2267,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>120</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2277,14 +2283,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2294,14 +2300,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2310,14 +2316,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2327,14 +2333,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>87</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2343,14 +2349,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>40</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2367,7 +2373,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2383,7 +2389,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2416,7 +2422,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2426,11 +2432,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>25</v>
@@ -2442,20 +2448,20 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2492,11 +2498,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>25</v>
@@ -2508,14 +2514,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>40</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2525,11 +2531,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>25</v>
@@ -2541,14 +2547,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2558,11 +2564,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>97</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>25</v>
@@ -2581,7 +2587,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2591,11 +2597,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>25</v>
@@ -2607,14 +2613,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2624,14 +2630,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2640,14 +2646,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>25</v>
+        <v>155</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2657,14 +2663,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>51</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>52</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2673,14 +2679,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2690,11 +2696,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>129</v>
+        <v>55</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>25</v>
@@ -2706,14 +2712,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>159</v>
+        <v>22</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2723,14 +2729,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2739,14 +2745,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2756,14 +2762,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>69</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>70</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2779,7 +2785,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2789,14 +2795,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2805,14 +2811,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>166</v>
+        <v>22</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2822,14 +2828,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2855,49 +2861,82 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>97</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
-      <c r="P59" s="13">
-        <v>4558.8500000000004</v>
-      </c>
-      <c r="Q59" s="13"/>
-    </row>
-    <row r="60" ht="16.5" customHeight="1">
-      <c t="s" r="A60" s="14">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>169</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
         <v>170</v>
       </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c t="s" r="G60" s="15">
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>30</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
         <v>171</v>
       </c>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="16"/>
-      <c t="s" r="K60" s="17">
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="P60" s="13">
+        <v>4588.6099999999997</v>
+      </c>
+      <c r="Q60" s="13"/>
+    </row>
+    <row r="61" ht="16.5" customHeight="1">
+      <c t="s" r="A61" s="14">
         <v>172</v>
       </c>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
-      <c r="O60" s="17"/>
-      <c r="P60" s="17"/>
-      <c r="Q60" s="17"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c t="s" r="G61" s="15">
+        <v>173</v>
+      </c>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="16"/>
+      <c t="s" r="K61" s="17">
+        <v>174</v>
+      </c>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="272">
+  <mergeCells count="277">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3166,10 +3205,15 @@
     <mergeCell ref="H58:K58"/>
     <mergeCell ref="L58:M58"/>
     <mergeCell ref="N58:O58"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="K60:Q60"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="K61:Q61"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -476,15 +476,12 @@
     <t>حلق</t>
   </si>
   <si>
-    <t>11:0</t>
+    <t>10:0</t>
   </si>
   <si>
     <t>10.00</t>
   </si>
   <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>حمام كريم فاتيكا 900 جم</t>
   </si>
   <si>
@@ -527,7 +524,7 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 1:38 PM</t>
+    <t>Monday, 6 October, 2025 1:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2667,10 +2664,10 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>40</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2679,7 +2676,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2712,7 +2709,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2745,14 +2742,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2762,11 +2759,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>40</v>
@@ -2778,14 +2775,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2811,7 +2808,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2844,14 +2841,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2877,14 +2874,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2894,7 +2891,7 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -2906,13 +2903,13 @@
     </row>
     <row r="60" ht="24.75" customHeight="1">
       <c r="P60" s="13">
-        <v>4588.6099999999997</v>
+        <v>4598.6099999999997</v>
       </c>
       <c r="Q60" s="13"/>
     </row>
     <row r="61" ht="16.5" customHeight="1">
       <c t="s" r="A61" s="14">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
@@ -2920,13 +2917,13 @@
       <c r="E61" s="14"/>
       <c r="F61" s="14"/>
       <c t="s" r="G61" s="15">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H61" s="15"/>
       <c r="I61" s="15"/>
       <c r="J61" s="16"/>
       <c t="s" r="K61" s="17">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L61" s="17"/>
       <c r="M61" s="17"/>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -524,7 +524,7 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 1:39 PM</t>
+    <t>Monday, 6 October, 2025 1:42 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -206,6 +206,15 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t>LEZBERG PLUS 40/12.5MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
     <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
   </si>
   <si>
@@ -524,7 +533,7 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 1:42 PM</t>
+    <t>Monday, 6 October, 2025 1:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1660,7 +1669,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1677,7 +1686,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1693,7 +1702,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1710,7 +1719,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1726,7 +1735,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1759,7 +1768,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1792,7 +1801,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1825,7 +1834,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1842,7 +1851,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1858,13 +1867,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1875,7 +1884,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1897,7 +1906,7 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1924,7 +1933,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1934,11 +1943,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>25</v>
@@ -1950,14 +1959,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1990,7 +1999,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2023,7 +2032,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2033,14 +2042,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2049,20 +2058,20 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2073,7 +2082,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2089,7 +2098,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2106,7 +2115,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2122,24 +2131,24 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>113</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2148,14 +2157,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2165,14 +2174,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2181,7 +2190,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2194,15 +2203,15 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>25</v>
@@ -2214,28 +2223,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>25</v>
@@ -2287,7 +2296,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2297,14 +2306,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>123</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2313,14 +2322,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2330,14 +2339,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2346,14 +2355,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2363,14 +2372,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>90</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2379,14 +2388,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2403,7 +2412,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2419,7 +2428,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2452,7 +2461,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2462,11 +2471,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>25</v>
@@ -2478,20 +2487,20 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2528,11 +2537,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>97</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>98</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>25</v>
@@ -2544,14 +2553,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2561,11 +2570,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>25</v>
@@ -2577,14 +2586,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>40</v>
+        <v>152</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2594,11 +2603,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>25</v>
@@ -2617,7 +2626,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2627,11 +2636,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>25</v>
@@ -2643,14 +2652,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>155</v>
+        <v>22</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2660,14 +2669,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>123</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2683,7 +2692,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>25</v>
+        <v>158</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2693,14 +2702,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>55</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>56</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2709,14 +2718,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2726,14 +2735,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>132</v>
+        <v>55</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>133</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2742,14 +2751,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>160</v>
+        <v>22</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2759,14 +2768,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>40</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2775,14 +2784,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2792,14 +2801,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>72</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>73</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2808,14 +2817,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>22</v>
+        <v>167</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2825,14 +2834,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2841,14 +2850,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>167</v>
+        <v>22</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2858,14 +2867,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2874,14 +2883,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2891,49 +2900,82 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
-      <c r="P60" s="13">
-        <v>4598.6099999999997</v>
-      </c>
-      <c r="Q60" s="13"/>
-    </row>
-    <row r="61" ht="16.5" customHeight="1">
-      <c t="s" r="A61" s="14">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
         <v>171</v>
       </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c t="s" r="G61" s="15">
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
         <v>172</v>
       </c>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="16"/>
-      <c t="s" r="K61" s="17">
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>30</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
         <v>173</v>
       </c>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="17"/>
-      <c r="Q61" s="17"/>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="P61" s="13">
+        <v>4637.2200000000003</v>
+      </c>
+      <c r="Q61" s="13"/>
+    </row>
+    <row r="62" ht="16.5" customHeight="1">
+      <c t="s" r="A62" s="14">
+        <v>174</v>
+      </c>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c t="s" r="G62" s="15">
+        <v>175</v>
+      </c>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="16"/>
+      <c t="s" r="K62" s="17">
+        <v>176</v>
+      </c>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="277">
+  <mergeCells count="282">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3207,10 +3249,15 @@
     <mergeCell ref="H59:K59"/>
     <mergeCell ref="L59:M59"/>
     <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="K61:Q61"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="K62:Q62"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -533,7 +533,7 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 1:43 PM</t>
+    <t>Monday, 6 October, 2025 1:47 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -212,7 +212,7 @@
     <t>117.00</t>
   </si>
   <si>
-    <t>38.6100</t>
+    <t>117.0000</t>
   </si>
   <si>
     <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
@@ -533,7 +533,7 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 1:47 PM</t>
+    <t>Monday, 6 October, 2025 1:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1669,7 +1669,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1686,7 +1686,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2945,7 +2945,7 @@
     </row>
     <row r="61" ht="25.5" customHeight="1">
       <c r="P61" s="13">
-        <v>4637.2200000000003</v>
+        <v>4715.6099999999997</v>
       </c>
       <c r="Q61" s="13"/>
     </row>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -533,7 +533,7 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 1:48 PM</t>
+    <t>Monday, 6 October, 2025 1:49 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -173,6 +173,15 @@
     <t>42.0000</t>
   </si>
   <si>
+    <t>DUSPATALIN RETARD 200 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
     <t>GELBLEND ACTIVE GEL</t>
   </si>
   <si>
@@ -215,6 +224,18 @@
     <t>117.0000</t>
   </si>
   <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
     <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
   </si>
   <si>
@@ -362,6 +383,15 @@
     <t>0:9</t>
   </si>
   <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
     <t>STARVILLE ACNE PRONE SKIN FACIAL CLEANSER 200 ML</t>
   </si>
   <si>
@@ -446,9 +476,6 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>48.0000</t>
   </si>
   <si>
@@ -497,6 +524,9 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t>شاش 5سم</t>
   </si>
   <si>
@@ -506,9 +536,6 @@
     <t>5.00</t>
   </si>
   <si>
-    <t>10.0000</t>
-  </si>
-  <si>
     <t>صوفي طويل جدا</t>
   </si>
   <si>
@@ -533,7 +560,7 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 1:49 PM</t>
+    <t>Monday, 6 October, 2025 2:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1537,13 +1564,13 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1554,7 +1581,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1617,7 +1644,7 @@
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>25</v>
@@ -1629,28 +1656,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>25</v>
@@ -1702,7 +1729,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1719,7 +1746,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1735,7 +1762,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1745,14 +1772,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1761,14 +1788,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1778,14 +1805,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1794,14 +1821,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1811,11 +1838,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>25</v>
@@ -1827,14 +1854,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1844,11 +1871,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>25</v>
@@ -1860,7 +1887,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1877,14 +1904,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1893,7 +1920,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1906,15 +1933,15 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>25</v>
@@ -1926,14 +1953,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1943,14 +1970,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1959,20 +1986,20 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1999,7 +2026,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2032,7 +2059,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2042,11 +2069,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>25</v>
@@ -2058,14 +2085,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2082,7 +2109,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2098,13 +2125,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2115,7 +2142,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2131,24 +2158,24 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2157,20 +2184,20 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2181,7 +2208,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>116</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2190,7 +2217,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2203,15 +2230,15 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>25</v>
@@ -2223,31 +2250,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>24</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2256,14 +2283,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2273,14 +2300,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2289,14 +2316,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2306,11 +2333,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>25</v>
@@ -2322,31 +2349,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>23</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>126</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2362,7 +2389,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2372,14 +2399,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2388,14 +2415,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>25</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2405,14 +2432,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>93</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2421,14 +2448,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2438,14 +2465,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2454,14 +2481,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>140</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2478,7 +2505,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2511,7 +2538,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2533,7 +2560,7 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2560,21 +2587,21 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>101</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>25</v>
@@ -2586,28 +2613,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>25</v>
@@ -2619,7 +2646,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2636,11 +2663,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>25</v>
@@ -2652,14 +2679,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2669,11 +2696,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>25</v>
@@ -2685,14 +2712,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2702,14 +2729,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>126</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2718,14 +2745,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2735,11 +2762,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>55</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>56</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>25</v>
@@ -2751,7 +2778,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2768,14 +2795,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>93</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2784,14 +2811,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2801,14 +2828,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>40</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2817,14 +2844,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>167</v>
+        <v>25</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2834,11 +2861,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>25</v>
@@ -2850,7 +2877,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2867,14 +2894,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>124</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2883,14 +2910,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2900,14 +2927,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>100</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>101</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2916,14 +2943,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2933,49 +2960,148 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>173</v>
+        <v>82</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
-      <c r="P61" s="13">
-        <v>4715.6099999999997</v>
-      </c>
-      <c r="Q61" s="13"/>
-    </row>
-    <row r="62" ht="16.5" customHeight="1">
-      <c t="s" r="A62" s="14">
-        <v>174</v>
-      </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c t="s" r="G62" s="15">
-        <v>175</v>
-      </c>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="16"/>
-      <c t="s" r="K62" s="17">
-        <v>176</v>
-      </c>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="17"/>
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>177</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>22</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>30</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>107</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>178</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>179</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>30</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>107</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>180</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>181</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>30</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>182</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>146</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="P64" s="13">
+        <v>4831.1599999999999</v>
+      </c>
+      <c r="Q64" s="13"/>
+    </row>
+    <row r="65" ht="16.5" customHeight="1">
+      <c t="s" r="A65" s="14">
+        <v>183</v>
+      </c>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c t="s" r="G65" s="15">
+        <v>184</v>
+      </c>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="16"/>
+      <c t="s" r="K65" s="17">
+        <v>185</v>
+      </c>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="282">
+  <mergeCells count="297">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3254,10 +3380,25 @@
     <mergeCell ref="H60:K60"/>
     <mergeCell ref="L60:M60"/>
     <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="K62:Q62"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="K65:Q65"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -407,6 +407,24 @@
     <t>49.0000</t>
   </si>
   <si>
+    <t>VENTAMOR CREAM 60 GM</t>
+  </si>
+  <si>
+    <t>195.00</t>
+  </si>
+  <si>
+    <t>195.0000</t>
+  </si>
+  <si>
+    <t>VENTAMOR FACIAL WASH</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
     <t>VERMIZOLE 200MG 6 TAB</t>
   </si>
   <si>
@@ -560,7 +578,7 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 2:13 PM</t>
+    <t>Monday, 6 October, 2025 2:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2422,7 +2440,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2455,24 +2473,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>136</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>136</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2481,14 +2499,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2498,14 +2516,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2514,14 +2532,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2531,14 +2549,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>100</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2547,14 +2565,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2564,14 +2582,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2580,14 +2598,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2604,7 +2622,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2620,7 +2638,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2630,7 +2648,7 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -2653,13 +2671,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2686,21 +2704,21 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>108</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>25</v>
@@ -2712,14 +2730,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>161</v>
+        <v>40</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2729,11 +2747,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>25</v>
@@ -2745,7 +2763,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2762,11 +2780,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>25</v>
@@ -2778,14 +2796,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>22</v>
+        <v>167</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2795,11 +2813,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>25</v>
@@ -2811,14 +2829,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>167</v>
+        <v>40</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2828,14 +2846,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>136</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2844,14 +2862,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2861,11 +2879,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>58</v>
+        <v>163</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>59</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>25</v>
@@ -2877,14 +2895,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>22</v>
+        <v>173</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2894,14 +2912,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>37</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2910,14 +2928,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>173</v>
+        <v>25</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2927,14 +2945,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>58</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>171</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2943,14 +2961,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>176</v>
+        <v>22</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2960,14 +2978,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>83</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2976,14 +2994,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>22</v>
+        <v>179</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -2993,11 +3011,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>107</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>40</v>
@@ -3009,14 +3027,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3026,11 +3044,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>25</v>
@@ -3042,14 +3060,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>181</v>
+        <v>22</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3059,49 +3077,115 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>107</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
-      <c r="P64" s="13">
-        <v>4831.1599999999999</v>
-      </c>
-      <c r="Q64" s="13"/>
-    </row>
-    <row r="65" ht="16.5" customHeight="1">
-      <c t="s" r="A65" s="14">
-        <v>183</v>
-      </c>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c t="s" r="G65" s="15">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
         <v>184</v>
       </c>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="16"/>
-      <c t="s" r="K65" s="17">
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
         <v>185</v>
       </c>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="17"/>
-      <c r="Q65" s="17"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>30</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>107</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>186</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>187</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>30</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>188</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>152</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="P66" s="13">
+        <v>5216.1599999999999</v>
+      </c>
+      <c r="Q66" s="13"/>
+    </row>
+    <row r="67" ht="16.5" customHeight="1">
+      <c t="s" r="A67" s="14">
+        <v>189</v>
+      </c>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c t="s" r="G67" s="15">
+        <v>190</v>
+      </c>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="16"/>
+      <c t="s" r="K67" s="17">
+        <v>191</v>
+      </c>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="297">
+  <mergeCells count="307">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3395,10 +3479,20 @@
     <mergeCell ref="H63:K63"/>
     <mergeCell ref="L63:M63"/>
     <mergeCell ref="N63:O63"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="K67:Q67"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -578,7 +578,7 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 2:14 PM</t>
+    <t>Monday, 6 October, 2025 2:16 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -407,6 +407,12 @@
     <t>49.0000</t>
   </si>
   <si>
+    <t>URINEX 24 CAPS</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>VENTAMOR CREAM 60 GM</t>
   </si>
   <si>
@@ -578,7 +584,7 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 2:16 PM</t>
+    <t>Monday, 6 October, 2025 2:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2440,7 +2446,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2450,14 +2456,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2466,7 +2472,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2479,15 +2485,15 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>25</v>
@@ -2499,28 +2505,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>25</v>
@@ -2532,14 +2538,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>25</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2549,14 +2555,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>142</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2565,14 +2571,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2582,14 +2588,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2598,14 +2604,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2615,14 +2621,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2631,14 +2637,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>40</v>
+        <v>152</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2648,14 +2654,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2664,14 +2670,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2681,11 +2687,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>25</v>
@@ -2697,14 +2703,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>160</v>
+        <v>22</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2714,11 +2720,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>73</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>25</v>
@@ -2730,28 +2736,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>40</v>
+        <v>162</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>73</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>25</v>
@@ -2763,7 +2769,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2780,11 +2786,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>107</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>25</v>
@@ -2796,14 +2802,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>167</v>
+        <v>40</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2836,7 +2842,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>40</v>
+        <v>169</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2846,11 +2852,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>25</v>
@@ -2862,14 +2868,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2879,11 +2885,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>25</v>
@@ -2895,14 +2901,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>173</v>
+        <v>22</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2912,14 +2918,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>142</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2928,14 +2934,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>25</v>
+        <v>175</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2945,14 +2951,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>58</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>59</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>144</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2961,14 +2967,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2978,14 +2984,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>151</v>
+        <v>58</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3001,7 +3007,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>179</v>
+        <v>22</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3011,14 +3017,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3027,14 +3033,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3044,14 +3050,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>82</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>83</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3067,7 +3073,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>22</v>
+        <v>184</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3077,14 +3083,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3093,14 +3099,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>185</v>
+        <v>22</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3114,10 +3120,10 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3143,49 +3149,82 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>107</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
-      <c r="P66" s="13">
-        <v>5216.1599999999999</v>
-      </c>
-      <c r="Q66" s="13"/>
-    </row>
-    <row r="67" ht="16.5" customHeight="1">
-      <c t="s" r="A67" s="14">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>188</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
         <v>189</v>
       </c>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c t="s" r="G67" s="15">
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>30</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
         <v>190</v>
       </c>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="16"/>
-      <c t="s" r="K67" s="17">
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="P67" s="13">
+        <v>5237.1599999999999</v>
+      </c>
+      <c r="Q67" s="13"/>
+    </row>
+    <row r="68" ht="16.5" customHeight="1">
+      <c t="s" r="A68" s="14">
         <v>191</v>
       </c>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
-      <c r="P67" s="17"/>
-      <c r="Q67" s="17"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c t="s" r="G68" s="15">
+        <v>192</v>
+      </c>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16"/>
+      <c t="s" r="K68" s="17">
+        <v>193</v>
+      </c>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="307">
+  <mergeCells count="312">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3489,10 +3528,15 @@
     <mergeCell ref="H65:K65"/>
     <mergeCell ref="L65:M65"/>
     <mergeCell ref="N65:O65"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="K68:Q68"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -560,6 +560,27 @@
     <t>5.00</t>
   </si>
   <si>
+    <t>شامبو فاتيكا 360مل</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>صابونه دوف SOAP</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>صوفي طويل جدا</t>
   </si>
   <si>
@@ -584,7 +605,7 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 2:20 PM</t>
+    <t>Monday, 6 October, 2025 2:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3073,7 +3094,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>184</v>
+        <v>22</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3083,11 +3104,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>82</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>83</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>25</v>
@@ -3099,14 +3120,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>22</v>
+        <v>187</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3116,14 +3137,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>107</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>142</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3132,14 +3153,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3149,11 +3170,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>25</v>
@@ -3165,14 +3186,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>189</v>
+        <v>22</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3182,49 +3203,115 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>107</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
+        <v>142</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>193</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>194</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>30</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>107</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>195</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>196</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>30</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>197</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
         <v>154</v>
       </c>
-      <c t="s" r="Q66" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="67" ht="25.5" customHeight="1">
-      <c r="P67" s="13">
-        <v>5237.1599999999999</v>
-      </c>
-      <c r="Q67" s="13"/>
-    </row>
-    <row r="68" ht="16.5" customHeight="1">
-      <c t="s" r="A68" s="14">
-        <v>191</v>
-      </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c t="s" r="G68" s="15">
-        <v>192</v>
-      </c>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="16"/>
-      <c t="s" r="K68" s="17">
-        <v>193</v>
-      </c>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="17"/>
+      <c t="s" r="Q68" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="P69" s="13">
+        <v>5352.1599999999999</v>
+      </c>
+      <c r="Q69" s="13"/>
+    </row>
+    <row r="70" ht="16.5" customHeight="1">
+      <c t="s" r="A70" s="14">
+        <v>198</v>
+      </c>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c t="s" r="G70" s="15">
+        <v>199</v>
+      </c>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="16"/>
+      <c t="s" r="K70" s="17">
+        <v>200</v>
+      </c>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="312">
+  <mergeCells count="322">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3533,10 +3620,20 @@
     <mergeCell ref="H66:K66"/>
     <mergeCell ref="L66:M66"/>
     <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="K70:Q70"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -605,7 +605,7 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 2:23 PM</t>
+    <t>Monday, 6 October, 2025 2:25 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -605,7 +605,7 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 2:25 PM</t>
+    <t>Monday, 6 October, 2025 4:09 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -146,69 +146,81 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>8:3</t>
-  </si>
-  <si>
-    <t>23.7600</t>
+    <t>8:2</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>DIGENORM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
+    <t>DIGESTIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>DUSPATALIN RETARD 200 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>GELBLEND ACTIVE GEL</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
+    <t>GELBLEND HYDRA MOIST</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>175.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GET WHITE  CREAM</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>INDERAL 10 MG 50 TABS</t>
   </si>
   <si>
     <t>0:2</t>
   </si>
   <si>
-    <t>DIGENORM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>110.0000</t>
-  </si>
-  <si>
-    <t>DIGESTIN 20 TABLETS</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>DUSPATALIN RETARD 200 MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>GELBLEND ACTIVE GEL</t>
-  </si>
-  <si>
-    <t>140.00</t>
-  </si>
-  <si>
-    <t>140.0000</t>
-  </si>
-  <si>
-    <t>GELBLEND HYDRA MOIST</t>
-  </si>
-  <si>
-    <t>175.00</t>
-  </si>
-  <si>
-    <t>175.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GET WHITE  CREAM</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>INDERAL 10 MG 50 TABS</t>
-  </si>
-  <si>
     <t>75.00</t>
   </si>
   <si>
@@ -227,13 +239,13 @@
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
-    <t>1:3</t>
-  </si>
-  <si>
     <t>48.00</t>
   </si>
   <si>
-    <t>31.6800</t>
+    <t>79.6800</t>
+  </si>
+  <si>
+    <t>1:2</t>
   </si>
   <si>
     <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
@@ -263,15 +275,18 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
     <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
   </si>
   <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
     <t>NESTOGEN 1 MILK 400 GM</t>
   </si>
   <si>
@@ -341,9 +356,6 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>92.00</t>
   </si>
   <si>
@@ -443,9 +455,6 @@
     <t>VERMIZOLE 200MG/5ML SUSP. 30 ML</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>26.00</t>
   </si>
   <si>
@@ -455,9 +464,6 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>8:2</t>
-  </si>
-  <si>
     <t>51.00</t>
   </si>
   <si>
@@ -548,18 +554,33 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>9.0000</t>
+  </si>
+  <si>
+    <t>شاش 5سم</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
     <t>10.0000</t>
   </si>
   <si>
-    <t>شاش 5سم</t>
-  </si>
-  <si>
-    <t>14:0</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
     <t>شامبو فاتيكا 360مل</t>
   </si>
   <si>
@@ -605,7 +626,7 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 4:09 PM</t>
+    <t>Monday, 6 October, 2025 4:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1560,7 +1581,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1576,7 +1597,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1593,7 +1614,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1626,7 +1647,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1642,13 +1663,13 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1659,7 +1680,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1722,7 +1743,7 @@
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>25</v>
@@ -1734,28 +1755,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>25</v>
@@ -1774,7 +1795,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1784,11 +1805,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>25</v>
@@ -1800,14 +1821,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1824,7 +1845,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1840,7 +1861,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1857,7 +1878,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>40</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1866,14 +1887,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1883,14 +1904,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1899,14 +1920,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1916,11 +1937,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>25</v>
@@ -1932,14 +1953,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1949,11 +1970,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>25</v>
@@ -1965,14 +1986,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1982,11 +2003,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>25</v>
@@ -1998,7 +2019,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2015,14 +2036,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2031,7 +2052,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2044,15 +2065,15 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>25</v>
@@ -2064,14 +2085,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2081,14 +2102,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2097,28 +2118,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>25</v>
@@ -2130,14 +2151,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2147,11 +2168,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>25</v>
@@ -2163,14 +2184,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2180,11 +2201,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>25</v>
@@ -2196,14 +2217,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2213,14 +2234,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2229,31 +2250,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2262,31 +2283,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2295,31 +2316,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>123</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2328,31 +2349,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2361,14 +2382,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2378,14 +2399,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2401,24 +2422,24 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>24</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2427,14 +2448,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2444,11 +2465,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>25</v>
@@ -2467,24 +2488,24 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2493,14 +2514,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2510,11 +2531,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>25</v>
@@ -2526,31 +2547,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>55</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2559,14 +2580,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2576,11 +2597,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>25</v>
@@ -2592,31 +2613,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>144</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>144</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2625,14 +2646,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>25</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2642,14 +2663,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2658,14 +2679,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>152</v>
+        <v>89</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2675,14 +2696,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2691,14 +2712,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2708,14 +2729,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2724,14 +2745,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>22</v>
+        <v>154</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2741,14 +2762,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2757,14 +2778,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2774,11 +2795,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>25</v>
@@ -2790,28 +2811,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>25</v>
@@ -2823,28 +2844,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>108</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>25</v>
@@ -2856,14 +2877,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>169</v>
+        <v>40</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2873,11 +2894,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>107</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>108</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>25</v>
@@ -2889,7 +2910,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2906,11 +2927,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>112</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>25</v>
@@ -2922,14 +2943,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>22</v>
+        <v>171</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2939,11 +2960,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>166</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>25</v>
@@ -2955,14 +2976,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2972,14 +2993,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>144</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2988,14 +3009,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3005,11 +3026,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>59</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>25</v>
@@ -3021,14 +3042,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>22</v>
+        <v>177</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3038,14 +3059,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>37</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3054,14 +3075,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>181</v>
+        <v>25</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3071,14 +3092,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>61</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>179</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3087,7 +3108,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3104,14 +3125,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>182</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3120,14 +3141,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>187</v>
+        <v>22</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3137,14 +3158,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3153,14 +3174,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3170,14 +3191,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>82</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>83</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3186,7 +3207,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3203,14 +3224,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>107</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>142</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3236,11 +3257,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>107</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>108</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>25</v>
@@ -3252,14 +3273,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3269,49 +3290,148 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>86</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>154</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
-      <c r="P69" s="13">
-        <v>5352.1599999999999</v>
-      </c>
-      <c r="Q69" s="13"/>
-    </row>
-    <row r="70" ht="16.5" customHeight="1">
-      <c t="s" r="A70" s="14">
-        <v>198</v>
-      </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c t="s" r="G70" s="15">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
         <v>199</v>
       </c>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="16"/>
-      <c t="s" r="K70" s="17">
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>22</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>30</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>112</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>146</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
         <v>200</v>
       </c>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="17"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>201</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>30</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>112</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>202</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>203</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>30</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>204</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>156</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="P72" s="13">
+        <v>5501.04</v>
+      </c>
+      <c r="Q72" s="13"/>
+    </row>
+    <row r="73" ht="16.5" customHeight="1">
+      <c t="s" r="A73" s="14">
+        <v>205</v>
+      </c>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c t="s" r="G73" s="15">
+        <v>206</v>
+      </c>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="16"/>
+      <c t="s" r="K73" s="17">
+        <v>207</v>
+      </c>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="322">
+  <mergeCells count="337">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3630,10 +3750,25 @@
     <mergeCell ref="H68:K68"/>
     <mergeCell ref="L68:M68"/>
     <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="K73:Q73"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -122,57 +122,81 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>COUGHSED PARACETAMOL CHILDREN 12 SUPP</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>29.0000</t>
+  </si>
+  <si>
+    <t>CURAM 1GM 12 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>182.00</t>
+  </si>
+  <si>
+    <t>60.0600</t>
+  </si>
+  <si>
+    <t>CURAM 457MG/5ML PD. FOR ORAL SUSP. 70ML</t>
+  </si>
+  <si>
+    <t>97.00</t>
+  </si>
+  <si>
+    <t>97.0000</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>8:2</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
     <t>5:0</t>
   </si>
   <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>DIGENORM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
   </si>
   <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>CURAM 1GM 12 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>182.00</t>
-  </si>
-  <si>
-    <t>60.0600</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>8:2</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>DIGENORM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>110.0000</t>
-  </si>
-  <si>
     <t>DIGESTIN 20 TABLETS</t>
   </si>
   <si>
@@ -278,9 +302,6 @@
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>39.00</t>
   </si>
   <si>
@@ -326,13 +347,10 @@
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>31.00</t>
   </si>
   <si>
-    <t>31.0000</t>
+    <t>62.0000</t>
   </si>
   <si>
     <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
@@ -350,283 +368,286 @@
     <t>15.00</t>
   </si>
   <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PURE SECCO HAIR  LOTION</t>
+  </si>
+  <si>
+    <t>280.00</t>
+  </si>
+  <si>
+    <t>280.0000</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:10</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>63.4500</t>
+  </si>
+  <si>
+    <t>0:9</t>
+  </si>
+  <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
+    <t>STARVILLE ACNE PRONE SKIN FACIAL CLEANSER 200 ML</t>
+  </si>
+  <si>
+    <t>TELOFILL SUNSCREEN عرض</t>
+  </si>
+  <si>
+    <t>TUSSISTOP 30MG/5ML SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>URINEX 24 CAPS</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>VENTAMOR CREAM 60 GM</t>
+  </si>
+  <si>
+    <t>195.00</t>
+  </si>
+  <si>
+    <t>195.0000</t>
+  </si>
+  <si>
+    <t>VENTAMOR FACIAL WASH</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
+    <t>VERMIZOLE 200MG 6 TAB</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>VERMIZOLE 200MG/5ML SUSP. 30 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8193:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>XILONE 5MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>XITHRONE 500MG 3 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
+    <t>ZINOL 1GM I.M./I.V. VIAL</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>املاح افونا</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>ايفا كريم 20 جم</t>
+  </si>
+  <si>
     <t>15.0000</t>
   </si>
   <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PURE SECCO HAIR  LOTION</t>
-  </si>
-  <si>
-    <t>280.00</t>
-  </si>
-  <si>
-    <t>280.0000</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
-  </si>
-  <si>
-    <t>0:10</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>63.4500</t>
-  </si>
-  <si>
-    <t>0:9</t>
-  </si>
-  <si>
-    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>12.8700</t>
-  </si>
-  <si>
-    <t>STARVILLE ACNE PRONE SKIN FACIAL CLEANSER 200 ML</t>
-  </si>
-  <si>
-    <t>TELOFILL SUNSCREEN عرض</t>
-  </si>
-  <si>
-    <t>TUSSISTOP 30MG/5ML SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>URINEX 24 CAPS</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>VENTAMOR CREAM 60 GM</t>
-  </si>
-  <si>
-    <t>195.00</t>
-  </si>
-  <si>
-    <t>195.0000</t>
-  </si>
-  <si>
-    <t>VENTAMOR FACIAL WASH</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>190.0000</t>
-  </si>
-  <si>
-    <t>VERMIZOLE 200MG 6 TAB</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>VERMIZOLE 200MG/5ML SUSP. 30 ML</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8195:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t>بيبي جوي رقم 1</t>
+  </si>
+  <si>
+    <t>285.00</t>
+  </si>
+  <si>
+    <t>285.0000</t>
+  </si>
+  <si>
+    <t>جل صبار برطمان</t>
+  </si>
+  <si>
+    <t>حلق</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>حمام كريم فاتيكا 900 جم</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>9.0000</t>
+  </si>
+  <si>
+    <t>شاش 5سم</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>شامبو فاتيكا 360مل</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>صابونه دوف SOAP</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>صوفي طويل جدا</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>ماكينه حلاقه جليت فليكتور</t>
+  </si>
+  <si>
+    <t>24:0</t>
+  </si>
+  <si>
+    <t>مرهم راسب ابيض</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>8.00</t>
   </si>
   <si>
     <t>8.0000</t>
   </si>
   <si>
-    <t>XILONE 5MG/5ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>XITHRONE 500MG 3 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>63.0000</t>
-  </si>
-  <si>
-    <t>ZINOL 1GM I.M./I.V. VIAL</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>املاح افونا</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>ايفا كريم 20 جم</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
-    <t>18:0</t>
-  </si>
-  <si>
-    <t>بيبي جوي رقم 1</t>
-  </si>
-  <si>
-    <t>285.00</t>
-  </si>
-  <si>
-    <t>285.0000</t>
-  </si>
-  <si>
-    <t>جل صبار برطمان</t>
-  </si>
-  <si>
-    <t>حلق</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>حمام كريم فاتيكا 900 جم</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>9.0000</t>
-  </si>
-  <si>
-    <t>شاش 5سم</t>
-  </si>
-  <si>
-    <t>14:0</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>شامبو فاتيكا 360مل</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>صابونه دوف SOAP</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>صوفي طويل جدا</t>
-  </si>
-  <si>
-    <t>12:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>ماكينه حلاقه جليت فليكتور</t>
-  </si>
-  <si>
-    <t>24:0</t>
-  </si>
-  <si>
-    <t>مرهم راسب ابيض</t>
-  </si>
-  <si>
-    <t>13:0</t>
-  </si>
-  <si>
-    <t>8.00</t>
-  </si>
-  <si>
-    <t>Monday, 6 October, 2025 4:22 PM</t>
+    <t>Monday, 6 October, 2025 4:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1531,7 +1552,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1541,14 +1562,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1557,14 +1578,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1574,14 +1595,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1590,14 +1611,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1607,14 +1628,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q17" s="12">
         <v>53</v>
-      </c>
-      <c t="s" r="Q17" s="12">
-        <v>40</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1630,7 +1651,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1640,14 +1661,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>25</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1656,14 +1677,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1673,14 +1694,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1689,28 +1710,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>25</v>
@@ -1722,31 +1743,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1755,7 +1776,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1772,11 +1793,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>25</v>
@@ -1788,28 +1809,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>25</v>
@@ -1821,28 +1842,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>25</v>
@@ -1854,14 +1875,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1871,14 +1892,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>78</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1887,14 +1908,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1904,14 +1925,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1920,14 +1941,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1937,14 +1958,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1953,14 +1974,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1970,14 +1991,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1986,14 +2007,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2003,11 +2024,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>25</v>
@@ -2019,14 +2040,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2036,11 +2057,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>25</v>
@@ -2052,14 +2073,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2069,11 +2090,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>25</v>
@@ -2085,7 +2106,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2102,14 +2123,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2118,7 +2139,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2131,15 +2152,15 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>25</v>
@@ -2151,14 +2172,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2168,14 +2189,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2184,20 +2205,20 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2224,7 +2245,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2257,7 +2278,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2274,7 +2295,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2290,7 +2311,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2307,7 +2328,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2323,13 +2344,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2340,7 +2361,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2356,13 +2377,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2373,7 +2394,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2389,24 +2410,24 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>127</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2415,31 +2436,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2448,14 +2469,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2465,14 +2486,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2481,31 +2502,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2514,14 +2535,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2531,11 +2552,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>25</v>
@@ -2547,31 +2568,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2580,14 +2601,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2597,11 +2618,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>25</v>
@@ -2613,31 +2634,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>63</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2653,7 +2674,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2686,13 +2707,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2703,7 +2724,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>89</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2719,7 +2740,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2733,10 +2754,10 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2745,14 +2766,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2762,14 +2783,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>105</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2778,14 +2799,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2795,14 +2816,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2811,14 +2832,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>22</v>
+        <v>159</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2828,14 +2849,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
+        <v>161</v>
+      </c>
+      <c t="s" r="Q54" s="12">
         <v>162</v>
-      </c>
-      <c t="s" r="Q54" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2851,7 +2872,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>61</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2861,7 +2882,7 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
@@ -2884,13 +2905,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -2917,21 +2938,21 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>40</v>
+        <v>170</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>25</v>
@@ -2943,14 +2964,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>171</v>
+        <v>61</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2960,11 +2981,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>112</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>113</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>25</v>
@@ -2976,14 +2997,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2993,11 +3014,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>118</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>25</v>
@@ -3009,14 +3030,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>22</v>
+        <v>178</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3026,11 +3047,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>167</v>
+        <v>118</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>25</v>
@@ -3042,14 +3063,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>177</v>
+        <v>61</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3059,14 +3080,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>89</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3075,14 +3096,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3092,11 +3113,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>61</v>
+        <v>173</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>62</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>25</v>
@@ -3108,14 +3129,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>22</v>
+        <v>184</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3125,14 +3146,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>181</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>182</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3141,14 +3162,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3158,14 +3179,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>69</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>89</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3174,14 +3195,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>187</v>
+        <v>22</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3191,14 +3212,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
+        <v>188</v>
+      </c>
+      <c t="s" r="Q65" s="12">
         <v>189</v>
-      </c>
-      <c t="s" r="Q65" s="12">
-        <v>40</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3231,7 +3252,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3264,7 +3285,7 @@
         <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3280,7 +3301,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>198</v>
+        <v>22</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3290,11 +3311,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>86</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>87</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>25</v>
@@ -3306,14 +3327,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>22</v>
+        <v>189</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3323,14 +3344,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>112</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>146</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3339,14 +3360,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3356,11 +3377,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>25</v>
@@ -3372,14 +3393,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>203</v>
+        <v>22</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3389,49 +3410,115 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>118</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>25</v>
+        <v>61</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
-      <c r="P72" s="13">
-        <v>5501.04</v>
-      </c>
-      <c r="Q72" s="13"/>
-    </row>
-    <row r="73" ht="16.5" customHeight="1">
-      <c t="s" r="A73" s="14">
-        <v>205</v>
-      </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c t="s" r="G73" s="15">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
         <v>206</v>
       </c>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="16"/>
-      <c t="s" r="K73" s="17">
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
         <v>207</v>
       </c>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="17"/>
-      <c r="Q73" s="17"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>30</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>118</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>176</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>208</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>209</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>30</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>210</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>211</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="P74" s="13">
+        <v>5712.04</v>
+      </c>
+      <c r="Q74" s="13"/>
+    </row>
+    <row r="75" ht="16.5" customHeight="1">
+      <c t="s" r="A75" s="14">
+        <v>212</v>
+      </c>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c t="s" r="G75" s="15">
+        <v>213</v>
+      </c>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="16"/>
+      <c t="s" r="K75" s="17">
+        <v>214</v>
+      </c>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="337">
+  <mergeCells count="347">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3765,10 +3852,20 @@
     <mergeCell ref="H71:K71"/>
     <mergeCell ref="L71:M71"/>
     <mergeCell ref="N71:O71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="K73:Q73"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="K75:Q75"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -647,7 +647,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 4:23 PM</t>
+    <t>Monday, 6 October, 2025 4:24 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -185,6 +185,15 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>DIASMECT 20% SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>DIGENORM SYRUP 120 ML</t>
   </si>
   <si>
@@ -377,9 +386,6 @@
     <t>92.00</t>
   </si>
   <si>
-    <t>23.0000</t>
-  </si>
-  <si>
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
@@ -647,7 +653,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 4:24 PM</t>
+    <t>Monday, 6 October, 2025 4:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1684,7 +1690,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1701,7 +1707,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>61</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1710,14 +1716,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1727,14 +1733,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q20" s="12">
         <v>64</v>
-      </c>
-      <c t="s" r="Q20" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1767,7 +1773,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1783,13 +1789,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1800,7 +1806,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1863,7 +1869,7 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>25</v>
@@ -1875,20 +1881,20 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1896,7 +1902,7 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>25</v>
@@ -1908,14 +1914,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1948,7 +1954,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1965,7 +1971,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>86</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1974,14 +1980,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1991,14 +1997,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q28" s="12">
         <v>89</v>
-      </c>
-      <c t="s" r="Q28" s="12">
-        <v>61</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2014,7 +2020,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2031,7 +2037,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2047,7 +2053,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2080,7 +2086,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2094,7 +2100,7 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>25</v>
@@ -2106,14 +2112,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2123,7 +2129,7 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
@@ -2139,14 +2145,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2160,7 +2166,7 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>25</v>
@@ -2179,7 +2185,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2196,7 +2202,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2212,13 +2218,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2229,7 +2235,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2251,7 +2257,7 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2278,7 +2284,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2295,7 +2301,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>61</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2311,7 +2317,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2328,7 +2334,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2361,7 +2367,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>61</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2377,7 +2383,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2394,7 +2400,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2410,13 +2416,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2424,10 +2430,10 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2436,14 +2442,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2453,14 +2459,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2469,31 +2475,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>133</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2502,14 +2508,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2519,14 +2525,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2535,14 +2541,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>137</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2552,14 +2558,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2568,7 +2574,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2581,15 +2587,15 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>25</v>
@@ -2601,28 +2607,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>23</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>25</v>
@@ -2634,14 +2640,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2651,14 +2657,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2674,7 +2680,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2684,14 +2690,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>66</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2700,7 +2706,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2713,15 +2719,15 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>25</v>
@@ -2733,28 +2739,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>25</v>
@@ -2773,7 +2779,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2787,10 +2793,10 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2799,14 +2805,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2816,14 +2822,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2832,14 +2838,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>159</v>
+        <v>51</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2849,14 +2855,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>162</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2865,14 +2871,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>61</v>
+        <v>161</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2882,14 +2888,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>164</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2898,14 +2904,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2915,11 +2921,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>25</v>
@@ -2931,14 +2937,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>170</v>
+        <v>22</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2948,11 +2954,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>84</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>25</v>
@@ -2964,28 +2970,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>61</v>
+        <v>172</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>87</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>25</v>
@@ -2997,14 +3003,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3014,7 +3020,7 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>118</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3037,7 +3043,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>178</v>
+        <v>64</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3047,11 +3053,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>25</v>
@@ -3070,7 +3076,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>61</v>
+        <v>180</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3080,11 +3086,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>121</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>25</v>
@@ -3096,14 +3102,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3113,11 +3119,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>25</v>
@@ -3129,14 +3135,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>184</v>
+        <v>22</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3146,14 +3152,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>119</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3162,14 +3168,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3179,14 +3185,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>69</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3195,14 +3201,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3212,14 +3218,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>189</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3228,7 +3234,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3245,14 +3251,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>40</v>
+        <v>191</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3261,14 +3267,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>194</v>
+        <v>22</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3278,14 +3284,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3294,14 +3300,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>22</v>
+        <v>196</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3311,14 +3317,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>25</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3327,14 +3333,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>189</v>
+        <v>22</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3344,11 +3350,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>25</v>
@@ -3360,14 +3366,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3377,11 +3383,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>94</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>95</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>25</v>
@@ -3400,7 +3406,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3410,14 +3416,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>61</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3426,14 +3432,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>207</v>
+        <v>22</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3443,14 +3449,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>25</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3476,49 +3482,82 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>121</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
+        <v>178</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>210</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
         <v>211</v>
       </c>
-      <c t="s" r="Q73" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="74" ht="25.5" customHeight="1">
-      <c r="P74" s="13">
-        <v>5712.04</v>
-      </c>
-      <c r="Q74" s="13"/>
-    </row>
-    <row r="75" ht="16.5" customHeight="1">
-      <c t="s" r="A75" s="14">
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>30</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
         <v>212</v>
       </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c t="s" r="G75" s="15">
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
         <v>213</v>
       </c>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="16"/>
-      <c t="s" r="K75" s="17">
+      <c t="s" r="Q74" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="P75" s="13">
+        <v>5735.04</v>
+      </c>
+      <c r="Q75" s="13"/>
+    </row>
+    <row r="76" ht="16.5" customHeight="1">
+      <c t="s" r="A76" s="14">
         <v>214</v>
       </c>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="17"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c t="s" r="G76" s="15">
+        <v>215</v>
+      </c>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="16"/>
+      <c t="s" r="K76" s="17">
+        <v>216</v>
+      </c>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="347">
+  <mergeCells count="352">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3862,10 +3901,15 @@
     <mergeCell ref="H73:K73"/>
     <mergeCell ref="L73:M73"/>
     <mergeCell ref="N73:O73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="K75:Q75"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="K76:Q76"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -653,7 +653,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 4:44 PM</t>
+    <t>Monday, 6 October, 2025 4:45 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -608,13 +608,13 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>شامبو فاتيكا 360مل</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
+    <t>شامبو صانسيك 350مل</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
   </si>
   <si>
     <t>صابونه دوف SOAP</t>
@@ -653,7 +653,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 4:45 PM</t>
+    <t>Monday, 6 October, 2025 4:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3340,7 +3340,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3527,7 +3527,7 @@
     </row>
     <row r="75" ht="24.75" customHeight="1">
       <c r="P75" s="13">
-        <v>5735.04</v>
+        <v>5750.04</v>
       </c>
       <c r="Q75" s="13"/>
     </row>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -110,6 +110,15 @@
     <t>265.0000</t>
   </si>
   <si>
+    <t>CETAL 1000MG 15 TABS</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>13.8600</t>
+  </si>
+  <si>
     <t>CLARY HAIR MASK</t>
   </si>
   <si>
@@ -209,9 +218,6 @@
     <t>DIGESTIN 20 TABLETS</t>
   </si>
   <si>
-    <t>42.00</t>
-  </si>
-  <si>
     <t>42.0000</t>
   </si>
   <si>
@@ -248,6 +254,15 @@
     <t>110.00</t>
   </si>
   <si>
+    <t>GLYCERIN ADULT 10 SUSP 1.47G</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>11.0000</t>
+  </si>
+  <si>
     <t>INDERAL 10 MG 50 TABS</t>
   </si>
   <si>
@@ -542,10 +557,16 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>امواس لورد</t>
+  </si>
+  <si>
+    <t>21:0</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>ايفا كريم 20 جم</t>
-  </si>
-  <si>
-    <t>15.0000</t>
   </si>
   <si>
     <t>بلاستر مترسيلك 2 سم</t>
@@ -1459,13 +1480,13 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -1476,7 +1497,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1492,24 +1513,24 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1518,14 +1539,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1535,14 +1556,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>43</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1591,7 +1612,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1608,7 +1629,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1624,7 +1645,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1634,14 +1655,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>53</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1650,14 +1671,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1667,14 +1688,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1683,14 +1704,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1707,7 +1728,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>25</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1723,7 +1744,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1740,7 +1761,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>64</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1749,14 +1770,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1766,14 +1787,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q21" s="12">
         <v>67</v>
-      </c>
-      <c t="s" r="Q21" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1799,14 +1820,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1815,31 +1836,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1848,7 +1869,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1865,11 +1886,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>25</v>
@@ -1881,7 +1902,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1898,11 +1919,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>25</v>
@@ -1921,21 +1942,21 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>25</v>
@@ -1947,31 +1968,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1980,14 +2001,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1997,14 +2018,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>89</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2013,14 +2034,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2030,14 +2051,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>64</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2046,14 +2067,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2063,14 +2084,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2079,14 +2100,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2096,14 +2117,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2112,14 +2133,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2129,11 +2150,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>25</v>
@@ -2152,7 +2173,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2162,11 +2183,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>25</v>
@@ -2178,14 +2199,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2195,11 +2216,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>25</v>
@@ -2211,7 +2232,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2228,14 +2249,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2244,7 +2265,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2257,15 +2278,15 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>25</v>
@@ -2277,14 +2298,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2294,14 +2315,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2310,31 +2331,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>64</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2343,14 +2364,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2360,11 +2381,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>25</v>
@@ -2376,14 +2397,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2393,14 +2414,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2409,14 +2430,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2426,14 +2447,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2449,13 +2470,13 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2466,7 +2487,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2482,13 +2503,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2496,10 +2517,10 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2508,31 +2529,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>132</v>
+        <v>25</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>135</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2541,31 +2562,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>137</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2574,14 +2595,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>137</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2591,14 +2612,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2607,31 +2628,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>22</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>24</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2640,14 +2661,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2657,11 +2678,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>25</v>
@@ -2673,31 +2694,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2713,7 +2734,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2746,24 +2767,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>34</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2772,14 +2793,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2789,11 +2810,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>25</v>
@@ -2812,13 +2833,13 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -2829,7 +2850,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2845,7 +2866,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2859,10 +2880,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2871,14 +2892,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>161</v>
+        <v>43</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2888,14 +2909,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>164</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2904,14 +2925,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2921,14 +2942,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2937,14 +2958,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>22</v>
+        <v>166</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2954,14 +2975,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2970,14 +2991,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>172</v>
+        <v>67</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2987,11 +3008,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>87</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>25</v>
@@ -3003,28 +3024,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>25</v>
@@ -3036,24 +3057,24 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>64</v>
+        <v>177</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3076,7 +3097,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>180</v>
+        <v>67</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3086,11 +3107,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>25</v>
@@ -3102,14 +3123,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>64</v>
+        <v>183</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3119,11 +3140,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>126</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>25</v>
@@ -3135,14 +3156,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3152,11 +3173,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>25</v>
@@ -3168,14 +3189,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3185,14 +3206,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>126</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>122</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3208,7 +3229,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3218,11 +3239,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>72</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>73</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>25</v>
@@ -3234,7 +3255,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3251,14 +3272,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>191</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3274,7 +3295,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>22</v>
+        <v>193</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3284,14 +3305,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3307,7 +3328,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>196</v>
+        <v>25</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3317,14 +3338,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>74</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>64</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3333,14 +3354,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3350,14 +3371,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>198</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3366,14 +3387,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>191</v>
+        <v>22</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3383,14 +3404,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3399,14 +3420,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3416,14 +3437,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>97</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>25</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3432,14 +3453,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3449,14 +3470,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>121</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>122</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>64</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3465,14 +3486,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3482,11 +3503,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>121</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>178</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>25</v>
@@ -3498,14 +3519,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3515,49 +3536,148 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>102</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>25</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
-      <c r="P75" s="13">
-        <v>5750.04</v>
-      </c>
-      <c r="Q75" s="13"/>
-    </row>
-    <row r="76" ht="16.5" customHeight="1">
-      <c t="s" r="A76" s="14">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
         <v>214</v>
       </c>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c t="s" r="G76" s="15">
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>22</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>30</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>126</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
         <v>215</v>
       </c>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="16"/>
-      <c t="s" r="K76" s="17">
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
         <v>216</v>
       </c>
-      <c r="L76" s="17"/>
-      <c r="M76" s="17"/>
-      <c r="N76" s="17"/>
-      <c r="O76" s="17"/>
-      <c r="P76" s="17"/>
-      <c r="Q76" s="17"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>30</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>126</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>184</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>217</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>218</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>30</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>219</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>220</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="P78" s="13">
+        <v>5789.8999999999996</v>
+      </c>
+      <c r="Q78" s="13"/>
+    </row>
+    <row r="79" ht="16.5" customHeight="1">
+      <c t="s" r="A79" s="14">
+        <v>221</v>
+      </c>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c t="s" r="G79" s="15">
+        <v>222</v>
+      </c>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="16"/>
+      <c t="s" r="K79" s="17">
+        <v>223</v>
+      </c>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="17"/>
+      <c r="Q79" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="352">
+  <mergeCells count="367">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3906,10 +4026,25 @@
     <mergeCell ref="H74:K74"/>
     <mergeCell ref="L74:M74"/>
     <mergeCell ref="N74:O74"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="K76:Q76"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="K79:Q79"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -170,6 +170,15 @@
     <t>97.0000</t>
   </si>
   <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -230,6 +239,15 @@
     <t>69.0000</t>
   </si>
   <si>
+    <t>EPICOPRED 20 MG 20 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>104.00</t>
+  </si>
+  <si>
+    <t>104.0000</t>
+  </si>
+  <si>
     <t>GELBLEND ACTIVE GEL</t>
   </si>
   <si>
@@ -275,6 +293,24 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>134.0000</t>
+  </si>
+  <si>
+    <t>L-CARNITINE 300MG/ML SYRUP 30ML</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
     <t>LEZBERG PLUS 40/12.5MG 30 F.C.TAB</t>
   </si>
   <si>
@@ -314,6 +350,15 @@
     <t>100.0000</t>
   </si>
   <si>
+    <t>MELACRYST 3 MG 20 ORO-DISPERSIBLE FILMS</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>MIDODRINE 2.5MG 20 TAB</t>
   </si>
   <si>
@@ -509,16 +554,16 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8193:0</t>
+    <t>8190:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>6:0</t>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>9:0</t>
   </si>
   <si>
     <t>XILONE 5MG/5ML SYRUP 100ML</t>
@@ -587,6 +632,18 @@
     <t>جل صبار برطمان</t>
   </si>
   <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>25:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>حلق</t>
   </si>
   <si>
@@ -599,6 +656,15 @@
     <t>حمام كريم فاتيكا 900 جم</t>
   </si>
   <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -674,7 +740,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 4:53 PM</t>
+    <t>Monday, 6 October, 2025 4:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1678,7 +1744,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1688,14 +1754,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1704,14 +1770,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1721,14 +1787,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1737,14 +1803,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1761,7 +1827,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>25</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1777,7 +1843,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1794,7 +1860,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>67</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1803,14 +1869,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1820,14 +1886,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>25</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1836,7 +1902,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1853,14 +1919,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1876,13 +1942,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1893,7 +1959,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1915,7 +1981,7 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1956,7 +2022,7 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>25</v>
@@ -1968,14 +2034,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1985,14 +2051,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2001,20 +2067,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -2022,7 +2088,7 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>25</v>
@@ -2034,31 +2100,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2067,14 +2133,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2091,7 +2157,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>94</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2100,7 +2166,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2117,14 +2183,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2133,7 +2199,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2150,11 +2216,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>25</v>
@@ -2166,14 +2232,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2183,11 +2249,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>25</v>
@@ -2199,14 +2265,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2216,14 +2282,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2232,7 +2298,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2249,14 +2315,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2265,7 +2331,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2282,11 +2348,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>25</v>
@@ -2298,14 +2364,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2315,14 +2381,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2331,28 +2397,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>25</v>
@@ -2364,14 +2430,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2381,11 +2447,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>25</v>
@@ -2397,14 +2463,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2418,10 +2484,10 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>67</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2437,7 +2503,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2470,7 +2536,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2487,7 +2553,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2503,13 +2569,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2517,10 +2583,10 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2529,31 +2595,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>85</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2562,31 +2628,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2595,14 +2661,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>137</v>
+        <v>40</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2619,7 +2685,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>140</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2628,14 +2694,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>40</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2645,14 +2711,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2661,14 +2727,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2678,14 +2744,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2701,7 +2767,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2711,14 +2777,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>23</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>24</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2727,28 +2793,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>25</v>
@@ -2760,14 +2826,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2777,14 +2843,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>34</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2793,14 +2859,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2810,14 +2876,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2826,7 +2892,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2839,15 +2905,15 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>25</v>
@@ -2859,28 +2925,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>23</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>127</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>25</v>
@@ -2892,14 +2958,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2909,14 +2975,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2925,14 +2991,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2942,11 +3008,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>34</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2958,14 +3024,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>166</v>
+        <v>22</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2982,7 +3048,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>169</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2991,28 +3057,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>25</v>
@@ -3024,14 +3090,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3041,11 +3107,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>25</v>
@@ -3057,14 +3123,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>177</v>
+        <v>43</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3074,14 +3140,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3090,31 +3156,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3123,31 +3189,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>126</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
+        <v>183</v>
+      </c>
+      <c t="s" r="Q62" s="12">
         <v>184</v>
-      </c>
-      <c t="s" r="Q62" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3163,21 +3229,21 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>126</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>25</v>
@@ -3189,28 +3255,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>187</v>
+        <v>22</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>126</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>25</v>
@@ -3222,28 +3288,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>67</v>
+        <v>192</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>104</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>25</v>
@@ -3255,14 +3321,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3272,11 +3338,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>25</v>
@@ -3288,14 +3354,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3305,14 +3371,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>141</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>127</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3321,14 +3387,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3338,11 +3404,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>75</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>25</v>
@@ -3354,14 +3420,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>22</v>
+        <v>202</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3371,14 +3437,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>198</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3387,14 +3453,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3404,14 +3470,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3420,14 +3486,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>203</v>
+        <v>22</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3437,14 +3503,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>67</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3453,14 +3519,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>25</v>
+        <v>208</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3470,11 +3536,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>25</v>
@@ -3486,14 +3552,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3503,14 +3569,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3519,14 +3585,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>213</v>
+        <v>25</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3536,11 +3602,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>25</v>
@@ -3552,7 +3618,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3569,14 +3635,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>126</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>127</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>67</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3585,14 +3651,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>216</v>
+        <v>22</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3602,14 +3668,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>126</v>
+        <v>182</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>184</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>25</v>
+        <v>220</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3618,14 +3684,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>218</v>
+        <v>22</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3635,49 +3701,280 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
+        <v>223</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>224</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>225</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>30</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>226</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>227</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>228</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>25</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>30</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>229</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>230</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>231</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
         <v>220</v>
       </c>
-      <c t="s" r="Q77" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="78" ht="24.75" customHeight="1">
-      <c r="P78" s="13">
-        <v>5789.8999999999996</v>
-      </c>
-      <c r="Q78" s="13"/>
-    </row>
-    <row r="79" ht="16.5" customHeight="1">
-      <c t="s" r="A79" s="14">
-        <v>221</v>
-      </c>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c t="s" r="G79" s="15">
-        <v>222</v>
-      </c>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="16"/>
-      <c t="s" r="K79" s="17">
-        <v>223</v>
-      </c>
-      <c r="L79" s="17"/>
-      <c r="M79" s="17"/>
-      <c r="N79" s="17"/>
-      <c r="O79" s="17"/>
-      <c r="P79" s="17"/>
-      <c r="Q79" s="17"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>30</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>232</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>233</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>234</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>235</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>30</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>117</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>236</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>22</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>30</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>141</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>142</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>237</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>238</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>30</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>141</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>199</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>239</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>240</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>30</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>241</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>242</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="P85" s="13">
+        <v>6264.9250000000002</v>
+      </c>
+      <c r="Q85" s="13"/>
+    </row>
+    <row r="86" ht="16.5" customHeight="1">
+      <c t="s" r="A86" s="14">
+        <v>243</v>
+      </c>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c t="s" r="G86" s="15">
+        <v>244</v>
+      </c>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="16"/>
+      <c t="s" r="K86" s="17">
+        <v>245</v>
+      </c>
+      <c r="L86" s="17"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="17"/>
+      <c r="P86" s="17"/>
+      <c r="Q86" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="367">
+  <mergeCells count="402">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4041,10 +4338,45 @@
     <mergeCell ref="H77:K77"/>
     <mergeCell ref="L77:M77"/>
     <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="G79:I79"/>
-    <mergeCell ref="K79:Q79"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="K86:Q86"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -89,6 +89,15 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>CALDIN ZINC SUSP. 120 ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
   </si>
   <si>
@@ -215,9 +224,6 @@
     <t>DIGENORM SYRUP 120 ML</t>
   </si>
   <si>
-    <t>55.00</t>
-  </si>
-  <si>
     <t>110.0000</t>
   </si>
   <si>
@@ -494,6 +500,15 @@
     <t>TELOFILL SUNSCREEN عرض</t>
   </si>
   <si>
+    <t>TOTAL 500MG/5ML SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
     <t>TUSSISTOP 30MG/5ML SYRUP 100 ML</t>
   </si>
   <si>
@@ -740,7 +755,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 4:56 PM</t>
+    <t>Monday, 6 October, 2025 4:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1513,21 +1528,21 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>25</v>
@@ -1539,20 +1554,20 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -1563,7 +1578,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1579,13 +1594,13 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1596,7 +1611,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1612,24 +1627,24 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1638,14 +1653,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1655,14 +1670,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
+        <v>45</v>
+      </c>
+      <c t="s" r="Q15" s="12">
         <v>46</v>
-      </c>
-      <c t="s" r="Q15" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1711,7 +1726,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1728,7 +1743,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1744,7 +1759,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1761,7 +1776,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1777,7 +1792,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1787,14 +1802,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1803,14 +1818,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1820,14 +1835,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1836,14 +1851,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1860,7 +1875,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1876,7 +1891,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1893,7 +1908,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>70</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1902,14 +1917,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1919,14 +1934,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q23" s="12">
         <v>72</v>
-      </c>
-      <c t="s" r="Q23" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1952,14 +1967,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1968,14 +1983,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1985,14 +2000,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2001,7 +2016,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2014,15 +2029,15 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>25</v>
@@ -2034,7 +2049,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2047,15 +2062,15 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>25</v>
@@ -2067,7 +2082,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2080,15 +2095,15 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>25</v>
@@ -2107,13 +2122,13 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -2121,10 +2136,10 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2133,31 +2148,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2166,14 +2181,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2183,14 +2198,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>70</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2199,14 +2214,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2216,14 +2231,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2232,14 +2247,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2249,11 +2264,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>25</v>
@@ -2265,14 +2280,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2282,14 +2297,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2298,14 +2313,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2315,14 +2330,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>70</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2331,14 +2346,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2348,14 +2363,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2364,7 +2379,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2381,11 +2396,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>25</v>
@@ -2397,14 +2412,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2414,11 +2429,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>25</v>
@@ -2430,14 +2445,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2447,11 +2462,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>25</v>
@@ -2470,7 +2485,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2480,11 +2495,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>25</v>
@@ -2496,14 +2511,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2513,11 +2528,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>25</v>
@@ -2529,14 +2544,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2546,14 +2561,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2562,31 +2577,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2595,7 +2610,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2608,15 +2623,15 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>25</v>
@@ -2628,14 +2643,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2645,14 +2660,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>70</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2661,14 +2676,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2678,14 +2693,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2694,14 +2709,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2711,14 +2726,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>70</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2727,14 +2742,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2744,14 +2759,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>66</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2767,13 +2782,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2781,10 +2796,10 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>91</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2793,31 +2808,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2826,31 +2841,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>155</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2859,14 +2874,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2876,14 +2891,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2892,14 +2907,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>22</v>
+        <v>159</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2909,14 +2924,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2925,7 +2940,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2938,15 +2953,15 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>24</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>25</v>
@@ -2958,28 +2973,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>23</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>25</v>
@@ -2991,14 +3006,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3008,14 +3023,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>34</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3031,7 +3046,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3064,24 +3079,24 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>37</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3090,14 +3105,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3107,11 +3122,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>25</v>
@@ -3130,13 +3145,13 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3147,7 +3162,7 @@
         <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3163,7 +3178,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3177,10 +3192,10 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3189,14 +3204,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>181</v>
+        <v>46</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3206,14 +3221,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>184</v>
+        <v>46</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3222,14 +3237,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3239,14 +3254,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3255,14 +3270,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>22</v>
+        <v>186</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3272,14 +3287,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>189</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3288,14 +3303,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>192</v>
+        <v>72</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3305,11 +3320,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>104</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>25</v>
@@ -3321,28 +3336,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>25</v>
@@ -3354,28 +3369,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>25</v>
@@ -3387,28 +3402,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>141</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>25</v>
@@ -3420,28 +3435,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>25</v>
@@ -3453,28 +3468,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>143</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>25</v>
@@ -3493,21 +3508,21 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>22</v>
+        <v>207</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>195</v>
+        <v>143</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>25</v>
@@ -3519,20 +3534,20 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>208</v>
+        <v>72</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
@@ -3559,24 +3574,24 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>212</v>
+        <v>22</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>142</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3585,28 +3600,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>25</v>
+        <v>213</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>80</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>81</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>25</v>
@@ -3618,31 +3633,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>22</v>
+        <v>217</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3651,31 +3666,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>182</v>
+        <v>82</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>220</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3684,7 +3699,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3697,18 +3712,18 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3717,31 +3732,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>225</v>
+        <v>22</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>187</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>70</v>
+        <v>225</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3750,31 +3765,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3783,31 +3798,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3816,28 +3831,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>235</v>
+        <v>25</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>117</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>118</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>25</v>
@@ -3856,24 +3871,24 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>22</v>
+        <v>225</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>141</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>70</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3882,28 +3897,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>25</v>
@@ -3915,66 +3930,132 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>240</v>
+        <v>22</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>143</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
         <v>242</v>
       </c>
-      <c t="s" r="Q84" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="85" ht="24.75" customHeight="1">
-      <c r="P85" s="13">
-        <v>6264.9250000000002</v>
-      </c>
-      <c r="Q85" s="13"/>
-    </row>
-    <row r="86" ht="16.5" customHeight="1">
-      <c t="s" r="A86" s="14">
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
         <v>243</v>
       </c>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c t="s" r="G86" s="15">
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>33</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>143</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>204</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
         <v>244</v>
       </c>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="16"/>
-      <c t="s" r="K86" s="17">
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
         <v>245</v>
       </c>
-      <c r="L86" s="17"/>
-      <c r="M86" s="17"/>
-      <c r="N86" s="17"/>
-      <c r="O86" s="17"/>
-      <c r="P86" s="17"/>
-      <c r="Q86" s="17"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>33</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>246</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>247</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="P87" s="13">
+        <v>6439.9250000000002</v>
+      </c>
+      <c r="Q87" s="13"/>
+    </row>
+    <row r="88" ht="16.5" customHeight="1">
+      <c t="s" r="A88" s="14">
+        <v>248</v>
+      </c>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c t="s" r="G88" s="15">
+        <v>249</v>
+      </c>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="16"/>
+      <c t="s" r="K88" s="17">
+        <v>250</v>
+      </c>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="402">
+  <mergeCells count="412">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4373,10 +4454,20 @@
     <mergeCell ref="H84:K84"/>
     <mergeCell ref="L84:M84"/>
     <mergeCell ref="N84:O84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="K86:Q86"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="K88:Q88"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -74,6 +74,21 @@
     <t>36.6300</t>
   </si>
   <si>
+    <t xml:space="preserve">ANTODINE20    6 AMP</t>
+  </si>
+  <si>
+    <t>2:5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
     <t>BIOVITA 60 GUMMIES</t>
   </si>
   <si>
@@ -110,9 +125,6 @@
     <t>CEFIX HAIR CREAM</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>265.00</t>
   </si>
   <si>
@@ -461,6 +473,15 @@
     <t>54.0000</t>
   </si>
   <si>
+    <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>4.8000</t>
+  </si>
+  <si>
     <t xml:space="preserve">PURE SECCO HAIR  LOTION</t>
   </si>
   <si>
@@ -695,7 +716,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>9.0000</t>
+    <t>12.0000</t>
   </si>
   <si>
     <t>شاش 5سم</t>
@@ -755,7 +776,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 4:58 PM</t>
+    <t>Monday, 6 October, 2025 5:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1468,18 +1489,18 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1495,7 +1516,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1505,14 +1526,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1521,14 +1542,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1538,14 +1559,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1554,31 +1575,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1587,31 +1608,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1620,31 +1641,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1653,20 +1674,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1677,7 +1698,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1686,14 +1707,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1710,7 +1731,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1719,7 +1740,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1736,11 +1757,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1752,14 +1773,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1769,14 +1790,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1785,14 +1806,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1802,14 +1823,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1818,14 +1839,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1835,14 +1856,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1868,14 +1889,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q21" s="12">
         <v>66</v>
-      </c>
-      <c t="s" r="Q21" s="12">
-        <v>62</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1891,7 +1912,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1901,14 +1922,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>25</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1917,14 +1938,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1934,14 +1955,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>72</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1950,14 +1971,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1967,14 +1988,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1983,14 +2004,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2000,14 +2021,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2016,14 +2037,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2033,14 +2054,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2049,31 +2070,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2082,31 +2103,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2115,31 +2136,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2148,31 +2169,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2181,20 +2202,20 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -2205,7 +2226,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2221,7 +2242,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2231,14 +2252,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>72</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2247,14 +2268,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2264,14 +2285,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2280,14 +2301,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2297,14 +2318,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2313,14 +2334,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2330,14 +2351,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>108</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2353,7 +2374,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2370,7 +2391,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>72</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2379,14 +2400,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2396,14 +2417,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2412,14 +2433,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2429,14 +2450,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2445,14 +2466,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2462,14 +2483,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2478,14 +2499,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2495,14 +2516,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2511,14 +2532,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2528,14 +2549,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2544,14 +2565,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2561,14 +2582,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2577,14 +2598,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2594,14 +2615,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2610,31 +2631,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2643,31 +2664,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2676,14 +2697,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2693,14 +2714,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>72</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2709,14 +2730,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2726,14 +2747,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2742,14 +2763,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2759,14 +2780,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>72</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2775,14 +2796,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2792,14 +2813,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>69</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2808,31 +2829,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2841,31 +2862,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2874,14 +2895,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2898,7 +2919,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>157</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2907,31 +2928,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>159</v>
+        <v>27</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2940,14 +2961,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>22</v>
+        <v>161</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2957,14 +2978,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>164</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2973,31 +2994,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>22</v>
+        <v>166</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>23</v>
+        <v>126</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3006,14 +3027,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3023,14 +3044,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3039,31 +3060,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>28</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3072,14 +3093,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3089,14 +3110,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>37</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3105,14 +3126,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3122,14 +3143,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3138,31 +3159,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>41</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3171,14 +3192,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3188,14 +3209,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3204,31 +3225,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3237,14 +3258,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3254,14 +3275,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3270,14 +3291,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>186</v>
+        <v>50</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3294,7 +3315,7 @@
         <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>189</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3303,14 +3324,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3320,14 +3341,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3336,14 +3357,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>22</v>
+        <v>193</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3360,7 +3381,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>25</v>
+        <v>196</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3369,14 +3390,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>197</v>
+        <v>76</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3386,14 +3407,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>106</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3402,31 +3423,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3435,31 +3456,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3468,31 +3489,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>143</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3501,31 +3522,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3534,31 +3555,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>147</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3567,31 +3588,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>22</v>
+        <v>214</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>200</v>
+        <v>147</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3600,31 +3621,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>213</v>
+        <v>76</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3633,31 +3654,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>217</v>
+        <v>27</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>144</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3673,24 +3694,24 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>25</v>
+        <v>220</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>82</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>83</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3699,31 +3720,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>22</v>
+        <v>224</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3732,31 +3753,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>187</v>
+        <v>86</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>225</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3765,31 +3786,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3798,31 +3819,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>230</v>
+        <v>27</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>194</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
+        <v>231</v>
+      </c>
+      <c t="s" r="Q80" s="12">
         <v>232</v>
-      </c>
-      <c t="s" r="Q80" s="12">
-        <v>72</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3838,13 +3859,13 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
@@ -3855,7 +3876,7 @@
         <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3871,24 +3892,24 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>25</v>
+        <v>76</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3897,31 +3918,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>119</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>120</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3930,31 +3951,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>22</v>
+        <v>232</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>143</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>144</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>72</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3963,31 +3984,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>204</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -3996,66 +4017,132 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>245</v>
+        <v>27</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>147</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>25</v>
+        <v>76</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
-      <c r="P87" s="13">
-        <v>6439.9250000000002</v>
-      </c>
-      <c r="Q87" s="13"/>
-    </row>
-    <row r="88" ht="16.5" customHeight="1">
-      <c t="s" r="A88" s="14">
-        <v>248</v>
-      </c>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c t="s" r="G88" s="15">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
         <v>249</v>
       </c>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="16"/>
-      <c t="s" r="K88" s="17">
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
         <v>250</v>
       </c>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="17"/>
-      <c r="P88" s="17"/>
-      <c r="Q88" s="17"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>23</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>147</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>211</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>251</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>252</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>23</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>253</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>254</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="P89" s="13">
+        <v>6460.2049999999999</v>
+      </c>
+      <c r="Q89" s="13"/>
+    </row>
+    <row r="90" ht="16.5" customHeight="1">
+      <c t="s" r="A90" s="14">
+        <v>255</v>
+      </c>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c t="s" r="G90" s="15">
+        <v>256</v>
+      </c>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="16"/>
+      <c t="s" r="K90" s="17">
+        <v>257</v>
+      </c>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="17"/>
+      <c r="P90" s="17"/>
+      <c r="Q90" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="412">
+  <mergeCells count="422">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4464,10 +4551,20 @@
     <mergeCell ref="H86:K86"/>
     <mergeCell ref="L86:M86"/>
     <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="G88:I88"/>
-    <mergeCell ref="K88:Q88"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="K90:Q90"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -776,7 +776,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 5:33 PM</t>
+    <t>Monday, 6 October, 2025 5:38 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -776,7 +776,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 5:38 PM</t>
+    <t>Monday, 6 October, 2025 5:51 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -104,6 +104,18 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>BRUFEN 600MG 30 TAB</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>32.6700</t>
+  </si>
+  <si>
     <t>CALDIN ZINC SUSP. 120 ML</t>
   </si>
   <si>
@@ -239,15 +251,24 @@
     <t>110.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>DIGESTIN 20 TABLETS</t>
   </si>
   <si>
     <t>42.0000</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>5:3</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>DUSPATALIN RETARD 200 MG 30 CAPS.</t>
   </si>
   <si>
@@ -341,9 +362,6 @@
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>79.6800</t>
   </si>
   <si>
@@ -464,6 +482,15 @@
     <t>92.00</t>
   </si>
   <si>
+    <t>PANADOL COLD &amp; FLU DAY 24 F.C. TABS</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
@@ -545,6 +572,9 @@
     <t>21.0000</t>
   </si>
   <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
     <t>VENTAMOR CREAM 60 GM</t>
   </si>
   <si>
@@ -692,6 +722,18 @@
     <t>حمام كريم فاتيكا 900 جم</t>
   </si>
   <si>
+    <t>رول اون ريكسونا25</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -764,19 +806,31 @@
     <t>24:0</t>
   </si>
   <si>
+    <t>مرطب شفاه لونا جوز هند ابيض</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
     <t>مرهم راسب ابيض</t>
   </si>
   <si>
-    <t>13:0</t>
-  </si>
-  <si>
     <t>8.00</t>
   </si>
   <si>
     <t>8.0000</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 5:51 PM</t>
+    <t xml:space="preserve">مناديل جيب مبلله </t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>Monday, 6 October, 2025 5:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1549,7 +1603,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1559,14 +1613,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1575,7 +1629,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1592,11 +1646,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>30</v>
@@ -1608,28 +1662,28 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>30</v>
@@ -1641,31 +1695,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1674,31 +1728,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1707,20 +1761,20 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1731,7 +1785,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1740,14 +1794,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1764,7 +1818,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1773,7 +1827,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1790,11 +1844,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1806,14 +1860,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1823,14 +1877,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1839,14 +1893,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1856,14 +1910,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1872,14 +1926,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1889,14 +1943,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1922,14 +1976,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q22" s="12">
         <v>70</v>
-      </c>
-      <c t="s" r="Q22" s="12">
-        <v>66</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1945,7 +1999,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1955,14 +2009,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1971,14 +2025,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1988,14 +2042,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>76</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2004,14 +2058,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2021,14 +2075,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2037,7 +2091,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2054,14 +2108,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2077,7 +2131,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2087,14 +2141,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2103,31 +2157,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2136,7 +2190,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2149,15 +2203,15 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>30</v>
@@ -2169,7 +2223,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2186,11 +2240,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>30</v>
@@ -2202,14 +2256,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2219,14 +2273,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2235,28 +2289,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>30</v>
@@ -2275,13 +2329,13 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2292,7 +2346,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2308,7 +2362,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2318,11 +2372,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>30</v>
@@ -2334,14 +2388,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2351,14 +2405,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2367,14 +2421,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2384,14 +2438,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>112</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2407,7 +2461,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2424,7 +2478,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>76</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2440,7 +2494,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2450,14 +2504,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q38" s="12">
         <v>118</v>
-      </c>
-      <c t="s" r="Q38" s="12">
-        <v>30</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2473,7 +2527,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2490,7 +2544,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2506,7 +2560,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2539,7 +2593,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2553,7 +2607,7 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>30</v>
@@ -2565,14 +2619,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2582,11 +2636,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>30</v>
@@ -2598,14 +2652,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2615,11 +2669,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>30</v>
@@ -2631,7 +2685,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2652,10 +2706,10 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2677,7 +2731,7 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2704,7 +2758,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2721,7 +2775,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2737,13 +2791,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2754,7 +2808,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>76</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2770,7 +2824,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2803,7 +2857,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2820,7 +2874,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>76</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2836,7 +2890,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2850,10 +2904,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>73</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2862,31 +2916,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>97</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2895,14 +2949,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2912,11 +2966,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2935,13 +2989,13 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -2952,7 +3006,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2968,24 +3022,24 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>161</v>
+        <v>30</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>164</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2994,14 +3048,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>166</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3011,11 +3065,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3027,7 +3081,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3040,15 +3094,15 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>30</v>
@@ -3067,24 +3121,24 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>27</v>
+        <v>170</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>30</v>
+        <v>173</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3093,14 +3147,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>30</v>
+        <v>175</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3110,14 +3164,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3126,14 +3180,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3143,11 +3197,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>30</v>
@@ -3159,31 +3213,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3192,14 +3246,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3209,11 +3263,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>30</v>
@@ -3225,28 +3279,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>30</v>
@@ -3258,14 +3312,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3275,14 +3329,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>45</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3291,14 +3345,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3308,14 +3362,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>14</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3324,14 +3378,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3341,14 +3395,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3357,31 +3411,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>193</v>
+        <v>27</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>196</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3390,14 +3444,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3407,11 +3461,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>30</v>
@@ -3423,14 +3477,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3440,14 +3494,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>30</v>
+        <v>54</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3456,14 +3510,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>204</v>
+        <v>68</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3473,14 +3527,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3489,31 +3543,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>30</v>
+        <v>206</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3522,28 +3576,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>210</v>
+        <v>32</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>30</v>
@@ -3555,28 +3609,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>147</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>30</v>
@@ -3601,15 +3655,15 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>147</v>
+        <v>84</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>30</v>
@@ -3621,14 +3675,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3638,11 +3692,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>30</v>
@@ -3654,14 +3708,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>27</v>
+        <v>220</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3671,11 +3725,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>207</v>
+        <v>153</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>30</v>
@@ -3687,14 +3741,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>220</v>
+        <v>32</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3704,11 +3758,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>153</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>30</v>
@@ -3737,14 +3791,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>153</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>148</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3753,14 +3807,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3770,11 +3824,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>86</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>87</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>30</v>
@@ -3786,7 +3840,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3803,11 +3857,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>30</v>
@@ -3819,14 +3873,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>27</v>
+        <v>230</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3836,14 +3890,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>232</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3859,7 +3913,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>27</v>
+        <v>234</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3869,14 +3923,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3892,7 +3946,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>237</v>
+        <v>30</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3902,14 +3956,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>93</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>76</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3918,14 +3972,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>30</v>
+        <v>238</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3935,11 +3989,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>30</v>
@@ -3951,14 +4005,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>232</v>
+        <v>27</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3968,11 +4022,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>30</v>
@@ -3984,14 +4038,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>247</v>
+        <v>27</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4001,14 +4055,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>123</v>
+        <v>204</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>124</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>30</v>
+        <v>246</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4017,7 +4071,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4034,14 +4088,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>147</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>148</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>76</v>
+        <v>51</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4050,14 +4104,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4067,14 +4121,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>147</v>
+        <v>252</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4083,14 +4137,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>252</v>
+        <v>30</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4100,49 +4154,280 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>30</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
-      <c r="P89" s="13">
-        <v>6460.2049999999999</v>
-      </c>
-      <c r="Q89" s="13"/>
-    </row>
-    <row r="90" ht="16.5" customHeight="1">
-      <c t="s" r="A90" s="14">
-        <v>255</v>
-      </c>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c t="s" r="G90" s="15">
-        <v>256</v>
-      </c>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="16"/>
-      <c t="s" r="K90" s="17">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
         <v>257</v>
       </c>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
-      <c r="N90" s="17"/>
-      <c r="O90" s="17"/>
-      <c r="P90" s="17"/>
-      <c r="Q90" s="17"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>246</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>23</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>258</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>259</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>260</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>261</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>23</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>129</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>262</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>27</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>23</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>153</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>263</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>264</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>23</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>153</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>221</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>265</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>266</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>23</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>231</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>232</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>267</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>238</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>23</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>268</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>269</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>270</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>72</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>23</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>271</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>272</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="P96" s="13">
+        <v>6661.7150000000001</v>
+      </c>
+      <c r="Q96" s="13"/>
+    </row>
+    <row r="97" ht="16.5" customHeight="1">
+      <c t="s" r="A97" s="14">
+        <v>273</v>
+      </c>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c t="s" r="G97" s="15">
+        <v>274</v>
+      </c>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="16"/>
+      <c t="s" r="K97" s="17">
+        <v>275</v>
+      </c>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="17"/>
+      <c r="P97" s="17"/>
+      <c r="Q97" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="422">
+  <mergeCells count="457">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4561,10 +4846,45 @@
     <mergeCell ref="H88:K88"/>
     <mergeCell ref="L88:M88"/>
     <mergeCell ref="N88:O88"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="G90:I90"/>
-    <mergeCell ref="K90:Q90"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="P96:Q96"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="K97:Q97"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -830,7 +830,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 5:52 PM</t>
+    <t>Monday, 6 October, 2025 5:56 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -224,6 +224,9 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
   </si>
   <si>
@@ -341,6 +344,15 @@
     <t>134.0000</t>
   </si>
   <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>L-CARNITINE 300MG/ML SYRUP 30ML</t>
   </si>
   <si>
@@ -503,10 +515,7 @@
     <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
   </si>
   <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>4.8000</t>
+    <t>9.6000</t>
   </si>
   <si>
     <t xml:space="preserve">PURE SECCO HAIR  LOTION</t>
@@ -701,117 +710,117 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>25:0</t>
+    <t>24:0</t>
   </si>
   <si>
     <t>20.00</t>
   </si>
   <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>حلق</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>حمام كريم فاتيكا 900 جم</t>
+  </si>
+  <si>
+    <t>رول اون ريكسونا25</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>شاش 5سم</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>شامبو صانسيك 350مل</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>صابونه دوف SOAP</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>صوفي طويل جدا</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>ماكينه حلاقه جليت فليكتور</t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>مرطب شفاه لونا جوز هند ابيض</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
     <t>20.0000</t>
   </si>
   <si>
-    <t>حلق</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>حمام كريم فاتيكا 900 جم</t>
-  </si>
-  <si>
-    <t>رول اون ريكسونا25</t>
-  </si>
-  <si>
-    <t>13:0</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 10 سم</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>14.0000</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>شاش 5سم</t>
-  </si>
-  <si>
-    <t>14:0</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>شامبو صانسيك 350مل</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>صابونه دوف SOAP</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>صوفي طويل جدا</t>
-  </si>
-  <si>
-    <t>12:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>ماكينه حلاقه جليت فليكتور</t>
-  </si>
-  <si>
-    <t>24:0</t>
-  </si>
-  <si>
-    <t>مرطب شفاه لونا جوز هند ابيض</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>مرهم راسب ابيض</t>
   </si>
   <si>
@@ -830,7 +839,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 5:56 PM</t>
+    <t>Monday, 6 October, 2025 5:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1999,7 +2008,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2009,14 +2018,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2025,14 +2034,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2042,14 +2051,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2058,14 +2067,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2075,14 +2084,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2091,14 +2100,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2108,14 +2117,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2124,14 +2133,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2141,14 +2150,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2157,14 +2166,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2174,11 +2183,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2190,14 +2199,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2207,14 +2216,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2223,7 +2232,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2236,15 +2245,15 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>30</v>
@@ -2256,7 +2265,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2273,11 +2282,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>30</v>
@@ -2289,7 +2298,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2306,11 +2315,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>30</v>
@@ -2322,14 +2331,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2339,14 +2348,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2355,31 +2364,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2388,14 +2397,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2405,14 +2414,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2421,14 +2430,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2438,14 +2447,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2454,14 +2463,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2471,14 +2480,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2487,14 +2496,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2504,14 +2513,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>118</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2520,14 +2529,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2537,14 +2546,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2553,14 +2562,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2570,14 +2579,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>30</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2586,14 +2595,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2603,14 +2612,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2619,14 +2628,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2636,11 +2645,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>30</v>
@@ -2652,14 +2661,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2669,11 +2678,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>30</v>
@@ -2685,14 +2694,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2702,11 +2711,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>30</v>
@@ -2718,14 +2727,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2735,11 +2744,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>30</v>
@@ -2768,14 +2777,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2784,7 +2793,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2797,15 +2806,15 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>30</v>
@@ -2817,14 +2826,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2834,14 +2843,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2850,31 +2859,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2883,14 +2892,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2900,11 +2909,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>30</v>
@@ -2916,14 +2925,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2933,11 +2942,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>32</v>
@@ -2949,14 +2958,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2966,14 +2975,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2982,14 +2991,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2999,14 +3008,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3015,31 +3024,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>104</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3048,7 +3057,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3065,11 +3074,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3081,14 +3090,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3098,14 +3107,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>30</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3114,14 +3123,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>170</v>
+        <v>30</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3131,14 +3140,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>112</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>173</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3147,31 +3156,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>175</v>
+        <v>27</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3180,14 +3189,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>27</v>
+        <v>173</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3197,14 +3206,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>30</v>
+        <v>176</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3213,31 +3222,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>27</v>
+        <v>178</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>29</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3246,14 +3255,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3263,11 +3272,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>30</v>
@@ -3279,28 +3288,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>28</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>30</v>
@@ -3312,14 +3321,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3329,14 +3338,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>45</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3345,14 +3354,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3362,14 +3371,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>14</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3385,7 +3394,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3395,14 +3404,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>45</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3411,7 +3420,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3424,18 +3433,18 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>14</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3444,14 +3453,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3461,11 +3470,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>30</v>
@@ -3477,31 +3486,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>54</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3510,14 +3519,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3527,14 +3536,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3543,14 +3552,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>203</v>
+        <v>54</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3560,14 +3569,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>206</v>
+        <v>54</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3576,14 +3585,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3593,14 +3602,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3609,14 +3618,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>27</v>
+        <v>206</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3626,14 +3635,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>30</v>
+        <v>209</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3642,14 +3651,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>214</v>
+        <v>32</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3659,11 +3668,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>84</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>30</v>
@@ -3675,28 +3684,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>30</v>
@@ -3708,28 +3717,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>153</v>
+        <v>85</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>30</v>
@@ -3741,7 +3750,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3758,7 +3767,7 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>153</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
@@ -3774,14 +3783,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3791,11 +3800,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>30</v>
@@ -3824,11 +3833,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>157</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>30</v>
@@ -3840,14 +3849,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>27</v>
+        <v>227</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3857,11 +3866,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>217</v>
+        <v>157</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>30</v>
@@ -3873,14 +3882,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>230</v>
+        <v>32</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3890,11 +3899,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>30</v>
@@ -3906,14 +3915,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>234</v>
+        <v>27</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3923,14 +3932,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>154</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>54</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3939,14 +3948,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>30</v>
+        <v>233</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3956,14 +3965,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>93</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>94</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3972,14 +3981,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3989,14 +3998,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4005,14 +4014,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4022,11 +4031,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>94</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>30</v>
@@ -4038,14 +4047,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>27</v>
+        <v>240</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4055,14 +4064,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>204</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>246</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4071,7 +4080,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4088,14 +4097,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4104,14 +4113,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>251</v>
+        <v>27</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4121,14 +4130,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>252</v>
+        <v>207</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>32</v>
+        <v>217</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4137,14 +4146,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4154,14 +4163,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>256</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4170,14 +4179,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4187,14 +4196,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4203,14 +4212,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>261</v>
+        <v>30</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4220,11 +4229,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>129</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>130</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>30</v>
@@ -4236,14 +4245,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>27</v>
+        <v>258</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4253,14 +4262,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>153</v>
+        <v>259</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>154</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4269,14 +4278,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4286,11 +4295,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>221</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>30</v>
@@ -4302,14 +4311,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>266</v>
+        <v>27</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4319,14 +4328,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>231</v>
+        <v>157</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4335,14 +4344,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4352,11 +4361,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>268</v>
+        <v>157</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>269</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>30</v>
@@ -4368,14 +4377,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>72</v>
+        <v>233</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4385,49 +4394,148 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>271</v>
+        <v>154</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
+        <v>155</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>267</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>268</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>23</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>234</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>269</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>270</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>240</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>23</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>271</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
         <v>272</v>
       </c>
-      <c t="s" r="Q95" s="12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="96" ht="25.5" customHeight="1">
-      <c r="P96" s="13">
-        <v>6661.7150000000001</v>
-      </c>
-      <c r="Q96" s="13"/>
-    </row>
-    <row r="97" ht="16.5" customHeight="1">
-      <c t="s" r="A97" s="14">
+      <c t="s" r="Q97" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
         <v>273</v>
       </c>
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c t="s" r="G97" s="15">
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>73</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>23</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
         <v>274</v>
       </c>
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
-      <c r="J97" s="16"/>
-      <c t="s" r="K97" s="17">
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
         <v>275</v>
       </c>
-      <c r="L97" s="17"/>
-      <c r="M97" s="17"/>
-      <c r="N97" s="17"/>
-      <c r="O97" s="17"/>
-      <c r="P97" s="17"/>
-      <c r="Q97" s="17"/>
+      <c t="s" r="Q98" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="P99" s="13">
+        <v>6776.3950000000004</v>
+      </c>
+      <c r="Q99" s="13"/>
+    </row>
+    <row r="100" ht="16.5" customHeight="1">
+      <c t="s" r="A100" s="14">
+        <v>276</v>
+      </c>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c t="s" r="G100" s="15">
+        <v>277</v>
+      </c>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="16"/>
+      <c t="s" r="K100" s="17">
+        <v>278</v>
+      </c>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="17"/>
+      <c r="Q100" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="457">
+  <mergeCells count="472">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4881,10 +4989,25 @@
     <mergeCell ref="H95:K95"/>
     <mergeCell ref="L95:M95"/>
     <mergeCell ref="N95:O95"/>
-    <mergeCell ref="P96:Q96"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="K97:Q97"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="K100:Q100"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -839,7 +839,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 5:58 PM</t>
+    <t>Monday, 6 October, 2025 6:08 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>AMEBAZOL 1GM 2 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>AMIPRIDE 50MG 30 TAB</t>
   </si>
   <si>
@@ -101,15 +116,9 @@
     <t>250.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>BRUFEN 600MG 30 TAB</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>99.00</t>
   </si>
   <si>
@@ -143,6 +152,12 @@
     <t>265.0000</t>
   </si>
   <si>
+    <t>CEPOREX 1GM 8 TABLETS</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
     <t>CETAL 1000MG 15 TABS</t>
   </si>
   <si>
@@ -164,84 +179,87 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>COUGHSED PARACETAMOL CHILDREN 12 SUPP</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>29.0000</t>
+  </si>
+  <si>
+    <t>CURAM 1GM 12 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>182.00</t>
+  </si>
+  <si>
+    <t>60.0600</t>
+  </si>
+  <si>
+    <t>CURAM 457MG/5ML PD. FOR ORAL SUSP. 70ML</t>
+  </si>
+  <si>
+    <t>97.00</t>
+  </si>
+  <si>
+    <t>97.0000</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>8:2</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>DIASMECT 20% SUSP. 60ML</t>
+  </si>
+  <si>
     <t>4:0</t>
   </si>
   <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>99.0000</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>COUGHSED PARACETAMOL CHILDREN 12 SUPP</t>
-  </si>
-  <si>
-    <t>58.00</t>
-  </si>
-  <si>
-    <t>29.0000</t>
-  </si>
-  <si>
-    <t>CURAM 1GM 12 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>182.00</t>
-  </si>
-  <si>
-    <t>60.0600</t>
-  </si>
-  <si>
-    <t>CURAM 457MG/5ML PD. FOR ORAL SUSP. 70ML</t>
-  </si>
-  <si>
-    <t>97.00</t>
-  </si>
-  <si>
-    <t>97.0000</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>47.0250</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>8:2</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>DIASMECT 20% SUSP. 60ML</t>
-  </si>
-  <si>
     <t>23.00</t>
   </si>
   <si>
@@ -491,6 +509,9 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
+    <t>3:2</t>
+  </si>
+  <si>
     <t>92.00</t>
   </si>
   <si>
@@ -614,9 +635,6 @@
     <t>26.00</t>
   </si>
   <si>
-    <t>78.0000</t>
-  </si>
-  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -764,9 +782,6 @@
     <t>شاش 5سم</t>
   </si>
   <si>
-    <t>14:0</t>
-  </si>
-  <si>
     <t>5.00</t>
   </si>
   <si>
@@ -839,7 +854,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 6:08 PM</t>
+    <t>Monday, 6 October, 2025 6:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1530,7 +1545,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1539,20 +1554,20 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
@@ -1585,18 +1600,18 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1629,7 +1644,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1645,7 +1660,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1662,7 +1677,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1678,7 +1693,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1695,7 +1710,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1711,13 +1726,13 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1728,7 +1743,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1744,13 +1759,13 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1761,7 +1776,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1777,24 +1792,24 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1803,14 +1818,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1820,14 +1835,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1836,31 +1851,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1869,14 +1884,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1886,14 +1901,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1902,14 +1917,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1919,14 +1934,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1935,14 +1950,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1952,11 +1967,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1968,14 +1983,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1985,14 +2000,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2001,14 +2016,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2018,11 +2033,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -2051,14 +2066,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q24" s="12">
         <v>75</v>
-      </c>
-      <c t="s" r="Q24" s="12">
-        <v>70</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2074,7 +2089,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2084,14 +2099,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2100,14 +2115,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2117,14 +2132,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>32</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2140,7 +2155,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2150,14 +2165,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2166,14 +2181,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2183,14 +2198,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2206,7 +2221,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2216,14 +2231,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2232,14 +2247,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2256,7 +2271,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2272,13 +2287,13 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -2289,7 +2304,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2305,13 +2320,13 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -2322,7 +2337,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2338,13 +2353,13 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2352,10 +2367,10 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2364,31 +2379,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2397,20 +2412,20 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2418,10 +2433,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2430,31 +2445,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2463,14 +2478,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2487,7 +2502,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2503,7 +2518,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2520,7 +2535,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2536,7 +2551,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2553,7 +2568,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2569,7 +2584,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2579,14 +2594,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>122</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2602,7 +2617,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2619,7 +2634,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2635,7 +2650,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2645,14 +2660,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q42" s="12">
         <v>128</v>
-      </c>
-      <c t="s" r="Q42" s="12">
-        <v>30</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2668,7 +2683,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2685,7 +2700,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2701,7 +2716,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2718,7 +2733,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2734,7 +2749,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2748,10 +2763,10 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2760,14 +2775,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2777,14 +2792,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2793,14 +2808,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2810,14 +2825,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2826,14 +2841,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2847,10 +2862,10 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2866,13 +2881,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2883,7 +2898,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2899,7 +2914,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2916,7 +2931,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2932,13 +2947,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2949,7 +2964,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2965,7 +2980,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2982,7 +2997,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2998,7 +3013,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3015,7 +3030,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3031,7 +3046,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3045,10 +3060,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>78</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3057,14 +3072,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3074,14 +3089,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3090,31 +3105,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>30</v>
+        <v>166</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>105</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3123,14 +3138,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3140,14 +3155,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>112</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>105</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3156,31 +3171,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>30</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3189,14 +3204,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>173</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3206,14 +3221,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>118</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>176</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3222,31 +3237,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>178</v>
+        <v>32</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>136</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3255,14 +3270,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>27</v>
+        <v>180</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3272,14 +3287,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>30</v>
+        <v>183</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3288,31 +3303,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>27</v>
+        <v>185</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>28</v>
+        <v>142</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>29</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3321,14 +3336,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3338,14 +3353,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3354,31 +3369,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>33</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3387,14 +3402,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3404,14 +3419,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>45</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3420,14 +3435,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3437,14 +3452,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>14</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3453,14 +3468,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3470,14 +3485,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>50</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3486,31 +3501,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>14</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3519,14 +3534,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3536,14 +3551,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3552,31 +3567,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>54</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3585,14 +3600,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3602,14 +3617,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3618,14 +3633,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>206</v>
+        <v>59</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3639,10 +3654,10 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>209</v>
+        <v>59</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3651,14 +3666,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3668,14 +3683,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3684,14 +3699,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>27</v>
+        <v>212</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3701,14 +3716,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
+        <v>214</v>
+      </c>
+      <c t="s" r="Q74" s="12">
         <v>215</v>
-      </c>
-      <c t="s" r="Q74" s="12">
-        <v>30</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3724,7 +3739,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>217</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3734,14 +3749,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>85</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3757,13 +3772,13 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
@@ -3774,7 +3789,7 @@
         <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3796,18 +3811,18 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>157</v>
+        <v>91</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3823,24 +3838,24 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>157</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3849,31 +3864,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3882,31 +3897,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>163</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3915,31 +3930,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>27</v>
+        <v>233</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>220</v>
+        <v>163</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3948,31 +3963,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>233</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3981,31 +3996,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>209</v>
+        <v>32</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4021,24 +4036,24 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>30</v>
+        <v>239</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>94</v>
+        <v>240</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>95</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4047,31 +4062,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>30</v>
+        <v>82</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4080,31 +4095,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>100</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4113,31 +4128,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>27</v>
+        <v>246</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>207</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>217</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4146,31 +4161,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>113</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4179,31 +4194,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>251</v>
+        <v>32</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>32</v>
+        <v>223</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4219,13 +4234,13 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
@@ -4233,10 +4248,10 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>30</v>
+        <v>82</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4245,31 +4260,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>258</v>
+        <v>56</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4278,31 +4293,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>262</v>
+        <v>21</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>133</v>
+        <v>260</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>134</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4311,31 +4326,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>27</v>
+        <v>263</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>157</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4344,31 +4359,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>224</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4377,31 +4392,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>233</v>
+        <v>32</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>155</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>30</v>
+        <v>82</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4410,31 +4425,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>234</v>
+        <v>163</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4443,31 +4458,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>271</v>
+        <v>160</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>272</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4476,66 +4491,132 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>73</v>
+        <v>273</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>274</v>
+        <v>240</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
+        <v>274</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
         <v>275</v>
       </c>
-      <c t="s" r="Q98" s="12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="99" ht="25.5" customHeight="1">
-      <c r="P99" s="13">
-        <v>6776.3950000000004</v>
-      </c>
-      <c r="Q99" s="13"/>
-    </row>
-    <row r="100" ht="16.5" customHeight="1">
-      <c t="s" r="A100" s="14">
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>246</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>28</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
         <v>276</v>
       </c>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c t="s" r="G100" s="15">
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
         <v>277</v>
       </c>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="16"/>
-      <c t="s" r="K100" s="17">
+      <c t="s" r="Q99" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
         <v>278</v>
       </c>
-      <c r="L100" s="17"/>
-      <c r="M100" s="17"/>
-      <c r="N100" s="17"/>
-      <c r="O100" s="17"/>
-      <c r="P100" s="17"/>
-      <c r="Q100" s="17"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>78</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>28</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>279</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>280</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="P101" s="13">
+        <v>6881.3950000000004</v>
+      </c>
+      <c r="Q101" s="13"/>
+    </row>
+    <row r="102" ht="16.5" customHeight="1">
+      <c t="s" r="A102" s="14">
+        <v>281</v>
+      </c>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c t="s" r="G102" s="15">
+        <v>282</v>
+      </c>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="16"/>
+      <c t="s" r="K102" s="17">
+        <v>283</v>
+      </c>
+      <c r="L102" s="17"/>
+      <c r="M102" s="17"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="17"/>
+      <c r="P102" s="17"/>
+      <c r="Q102" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="472">
+  <mergeCells count="482">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5004,10 +5085,20 @@
     <mergeCell ref="H98:K98"/>
     <mergeCell ref="L98:M98"/>
     <mergeCell ref="N98:O98"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="K100:Q100"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="K102:Q102"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -104,18 +104,45 @@
     <t>12.4800</t>
   </si>
   <si>
+    <t>AZELAST PLUS 125/50 MCG NASAL SPRAY 25 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
+    <t>BETAFOS 1 AMP. 2ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>BIOVITA 60 GUMMIES</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>250.00</t>
   </si>
   <si>
     <t>250.0000</t>
   </si>
   <si>
+    <t>BLINK INTENSIVE TEARS EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>320.00</t>
+  </si>
+  <si>
+    <t>320.0000</t>
+  </si>
+  <si>
     <t>BRUFEN 600MG 30 TAB</t>
   </si>
   <si>
@@ -230,414 +257,432 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
+    <t>8:1</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>DESA 5MG 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>DIASMECT 20% SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>DIGENORM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
+    <t>DIGESTIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>DUSPATALIN RETARD 200 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>EPICOPRED 20 MG 20 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>104.00</t>
+  </si>
+  <si>
+    <t>104.0000</t>
+  </si>
+  <si>
+    <t>GELBLEND ACTIVE GEL</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
+    <t>GELBLEND HYDRA MOIST</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>175.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GET WHITE  CREAM</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>GLYCERIN ADULT 10 SUSP 1.47G</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>11.0000</t>
+  </si>
+  <si>
+    <t>INDERAL 10 MG 50 TABS</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>134.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>L-CARNITINE 300MG/ML SYRUP 30ML</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>LEZBERG PLUS 40/12.5MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>117.0000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>79.6800</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>MEGAMOX 457MG/5ML SUSP. 70ML</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>MELACRYST 3 MG 20 ORO-DISPERSIBLE FILMS</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>MIDODRINE 2.5MG 20 TAB</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
+  </si>
+  <si>
+    <t>NESTOGEN 1 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>255.00</t>
+  </si>
+  <si>
+    <t>255.0000</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>NOMORE ACNE CLEANSER</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>OMEGA P SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>125.0000</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>PANADOL COLD &amp; FLU DAY 24 F.C. TABS</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
+  </si>
+  <si>
+    <t>9.6000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PURE SECCO HAIR  LOTION</t>
+  </si>
+  <si>
+    <t>280.00</t>
+  </si>
+  <si>
+    <t>280.0000</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:10</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>63.4500</t>
+  </si>
+  <si>
+    <t>0:9</t>
+  </si>
+  <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
+    <t>STARVILLE ACNE PRONE SKIN FACIAL CLEANSER 200 ML</t>
+  </si>
+  <si>
+    <t>TELOFILL SUNSCREEN عرض</t>
+  </si>
+  <si>
+    <t>TOTAL 500MG/5ML SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>TUSSISTOP 30MG/5ML SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>URINEX 24 CAPS</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>VENTAMOR CREAM 60 GM</t>
+  </si>
+  <si>
+    <t>195.00</t>
+  </si>
+  <si>
+    <t>195.0000</t>
+  </si>
+  <si>
+    <t>VENTAMOR FACIAL WASH</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
+    <t>VERMIZOLE 200MG 6 TAB</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>VERMIZOLE 200MG/5ML SUSP. 30 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
     <t>8:2</t>
   </si>
   <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>DIASMECT 20% SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>DIGENORM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>110.0000</t>
-  </si>
-  <si>
-    <t>DIGESTIN 20 TABLETS</t>
-  </si>
-  <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>5:3</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>DUSPATALIN RETARD 200 MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>EPICOPRED 20 MG 20 ORODISPERSIBLE TABS.</t>
-  </si>
-  <si>
-    <t>104.00</t>
-  </si>
-  <si>
-    <t>104.0000</t>
-  </si>
-  <si>
-    <t>GELBLEND ACTIVE GEL</t>
-  </si>
-  <si>
-    <t>140.00</t>
-  </si>
-  <si>
-    <t>140.0000</t>
-  </si>
-  <si>
-    <t>GELBLEND HYDRA MOIST</t>
-  </si>
-  <si>
-    <t>175.00</t>
-  </si>
-  <si>
-    <t>175.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GET WHITE  CREAM</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>GLYCERIN ADULT 10 SUSP 1.47G</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>11.0000</t>
-  </si>
-  <si>
-    <t>INDERAL 10 MG 50 TABS</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
-  </si>
-  <si>
-    <t>67.00</t>
-  </si>
-  <si>
-    <t>134.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>L-CARNITINE 300MG/ML SYRUP 30ML</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>LEZBERG PLUS 40/12.5MG 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>117.0000</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>79.6800</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>114.0000</t>
-  </si>
-  <si>
-    <t>MEGAMOX 457MG/5ML SUSP. 70ML</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
-    <t>MELACRYST 3 MG 20 ORO-DISPERSIBLE FILMS</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>MIDODRINE 2.5MG 20 TAB</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
-  </si>
-  <si>
-    <t>NESTOGEN 1 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>255.00</t>
-  </si>
-  <si>
-    <t>255.0000</t>
-  </si>
-  <si>
-    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>152.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>NOMORE ACNE CLEANSER</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
-    <t>OMEGA P SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>125.00</t>
-  </si>
-  <si>
-    <t>125.0000</t>
-  </si>
-  <si>
-    <t>OPLEX-N SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>PANADOL COLD &amp; FLU DAY 24 F.C. TABS</t>
-  </si>
-  <si>
-    <t>76.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
-  </si>
-  <si>
-    <t>9.6000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PURE SECCO HAIR  LOTION</t>
-  </si>
-  <si>
-    <t>280.00</t>
-  </si>
-  <si>
-    <t>280.0000</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
-  </si>
-  <si>
-    <t>0:10</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>63.4500</t>
-  </si>
-  <si>
-    <t>0:9</t>
-  </si>
-  <si>
-    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>12.8700</t>
-  </si>
-  <si>
-    <t>STARVILLE ACNE PRONE SKIN FACIAL CLEANSER 200 ML</t>
-  </si>
-  <si>
-    <t>TELOFILL SUNSCREEN عرض</t>
-  </si>
-  <si>
-    <t>TOTAL 500MG/5ML SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>TUSSISTOP 30MG/5ML SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>URINEX 24 CAPS</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
-  </si>
-  <si>
-    <t>VENTAMOR CREAM 60 GM</t>
-  </si>
-  <si>
-    <t>195.00</t>
-  </si>
-  <si>
-    <t>195.0000</t>
-  </si>
-  <si>
-    <t>VENTAMOR FACIAL WASH</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>190.0000</t>
-  </si>
-  <si>
-    <t>VERMIZOLE 200MG 6 TAB</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>VERMIZOLE 200MG/5ML SUSP. 30 ML</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
     <t>51.00</t>
   </si>
   <si>
@@ -755,9 +800,6 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>35.0000</t>
-  </si>
-  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -770,9 +812,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>16.0000</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -797,18 +836,21 @@
     <t>85.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">شامبو نونو 200ملل </t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>صابونه دوف SOAP</t>
   </si>
   <si>
     <t>7:0</t>
   </si>
   <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
     <t>صوفي طويل جدا</t>
   </si>
   <si>
@@ -854,7 +896,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 6:23 PM</t>
+    <t>Monday, 6 October, 2025 6:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1660,7 +1702,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1677,7 +1719,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1693,7 +1735,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1726,7 +1768,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1759,13 +1801,13 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1776,7 +1818,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1792,7 +1834,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1802,11 +1844,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1818,14 +1860,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1835,14 +1877,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1851,7 +1893,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1868,11 +1910,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
@@ -1884,14 +1926,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1901,14 +1943,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>59</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1917,7 +1959,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1934,11 +1976,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1950,31 +1992,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1983,14 +2025,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2000,14 +2042,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q22" s="12">
         <v>68</v>
-      </c>
-      <c t="s" r="Q22" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2056,7 +2098,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2066,14 +2108,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>75</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2082,14 +2124,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2099,14 +2141,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2115,14 +2157,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2139,7 +2181,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>75</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2165,14 +2207,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2181,14 +2223,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2198,14 +2240,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2221,7 +2263,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2231,14 +2273,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>88</v>
-      </c>
-      <c t="s" r="Q29" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2247,14 +2289,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2264,14 +2306,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2280,14 +2322,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2297,14 +2339,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2313,14 +2355,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2330,14 +2372,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2346,28 +2388,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2379,31 +2421,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2412,31 +2454,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2445,31 +2487,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2478,28 +2520,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2511,31 +2553,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2544,31 +2586,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2577,31 +2619,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2610,14 +2652,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2627,11 +2669,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2643,14 +2685,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2660,14 +2702,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>128</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2676,14 +2718,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2693,14 +2735,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2709,7 +2751,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2726,7 +2768,7 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2749,7 +2791,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2782,7 +2824,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2792,14 +2834,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
+        <v>139</v>
+      </c>
+      <c t="s" r="Q46" s="12">
         <v>140</v>
-      </c>
-      <c t="s" r="Q46" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2815,7 +2857,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2829,10 +2871,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2841,14 +2883,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2858,11 +2900,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2874,7 +2916,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2891,11 +2933,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2907,14 +2949,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2924,14 +2966,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2940,28 +2982,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2973,14 +3015,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2994,7 +3036,7 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -3013,7 +3055,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3030,7 +3072,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3046,7 +3088,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3063,7 +3105,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3079,13 +3121,13 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -3096,7 +3138,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3112,7 +3154,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>166</v>
+        <v>32</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3122,14 +3164,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>84</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3145,7 +3187,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3155,14 +3197,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>36</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3171,31 +3213,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>111</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3204,14 +3246,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3221,14 +3263,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>118</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>111</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3244,24 +3286,24 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>32</v>
+        <v>177</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3277,7 +3319,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>180</v>
+        <v>23</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3287,14 +3329,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>183</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3303,31 +3345,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>185</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3336,14 +3378,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3353,14 +3395,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3369,7 +3411,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3386,11 +3428,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>33</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>34</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3402,14 +3444,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>191</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3419,14 +3461,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>194</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3435,14 +3477,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>21</v>
+        <v>196</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3452,14 +3494,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>154</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3468,14 +3510,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3485,14 +3527,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>50</v>
+        <v>166</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3501,7 +3543,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3514,18 +3556,18 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>173</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3534,14 +3576,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3551,11 +3593,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3567,28 +3609,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3600,14 +3642,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3617,14 +3659,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>59</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>164</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3633,14 +3675,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3650,14 +3692,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>14</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>48</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>59</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3666,14 +3708,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3683,14 +3725,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3699,20 +3741,20 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>212</v>
+        <v>32</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
@@ -3723,7 +3765,7 @@
         <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>215</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3732,14 +3774,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3749,11 +3791,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3765,14 +3807,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3782,14 +3824,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>68</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3798,14 +3840,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3815,11 +3857,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>91</v>
+        <v>218</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3831,31 +3873,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>223</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3864,31 +3906,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>163</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
+        <v>229</v>
+      </c>
+      <c t="s" r="Q79" s="12">
         <v>230</v>
-      </c>
-      <c t="s" r="Q79" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3910,15 +3952,15 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>163</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>21</v>
@@ -3930,28 +3972,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>233</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>163</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -3963,28 +4005,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>238</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>105</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>21</v>
@@ -3996,14 +4038,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4013,11 +4055,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>21</v>
@@ -4029,14 +4071,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4046,14 +4088,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>240</v>
+        <v>174</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4062,14 +4104,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>215</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4079,14 +4121,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>174</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>82</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4095,14 +4137,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>21</v>
+        <v>248</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4112,11 +4154,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>100</v>
+        <v>174</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>101</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4128,14 +4170,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>246</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4145,11 +4187,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>21</v>
@@ -4161,7 +4203,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4178,11 +4220,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4194,14 +4236,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>32</v>
+        <v>254</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4211,14 +4253,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>213</v>
+        <v>255</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>223</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4227,14 +4269,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>32</v>
+        <v>230</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4244,14 +4286,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>119</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>82</v>
+        <v>96</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4260,14 +4302,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4277,14 +4319,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>257</v>
+        <v>114</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>258</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4293,14 +4335,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>21</v>
+        <v>261</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4310,11 +4352,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>21</v>
@@ -4326,14 +4368,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>263</v>
+        <v>32</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4366,7 +4408,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>267</v>
+        <v>32</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4376,14 +4418,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>139</v>
+        <v>228</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>140</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>21</v>
+        <v>230</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4392,7 +4434,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4409,14 +4451,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>163</v>
+        <v>268</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>269</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>82</v>
+        <v>96</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4425,14 +4467,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>239</v>
+        <v>65</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4442,14 +4484,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>163</v>
+        <v>270</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>230</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4458,14 +4500,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>239</v>
+        <v>21</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4475,11 +4517,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>160</v>
+        <v>273</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>161</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>21</v>
@@ -4491,14 +4533,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>273</v>
+        <v>32</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4508,11 +4550,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>21</v>
@@ -4524,14 +4566,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4557,14 +4599,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>78</v>
+        <v>281</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4574,49 +4616,247 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>279</v>
+        <v>151</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>280</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
-      <c r="P101" s="13">
-        <v>6881.3950000000004</v>
-      </c>
-      <c r="Q101" s="13"/>
-    </row>
-    <row r="102" ht="16.5" customHeight="1">
-      <c t="s" r="A102" s="14">
-        <v>281</v>
-      </c>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c t="s" r="G102" s="15">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
         <v>282</v>
       </c>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="16"/>
-      <c t="s" r="K102" s="17">
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>32</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>28</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>174</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
         <v>283</v>
       </c>
-      <c r="L102" s="17"/>
-      <c r="M102" s="17"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="17"/>
-      <c r="P102" s="17"/>
-      <c r="Q102" s="17"/>
+      <c t="s" r="Q101" s="12">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>284</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>254</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>28</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>174</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>245</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>285</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>254</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>28</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>171</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>172</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>286</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>287</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>28</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>255</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>288</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>289</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>261</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>28</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>290</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>291</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>292</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>91</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>28</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>293</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>294</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="P107" s="13">
+        <v>7481.9949999999999</v>
+      </c>
+      <c r="Q107" s="13"/>
+    </row>
+    <row r="108" ht="16.5" customHeight="1">
+      <c t="s" r="A108" s="14">
+        <v>295</v>
+      </c>
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c t="s" r="G108" s="15">
+        <v>296</v>
+      </c>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
+      <c r="J108" s="16"/>
+      <c t="s" r="K108" s="17">
+        <v>297</v>
+      </c>
+      <c r="L108" s="17"/>
+      <c r="M108" s="17"/>
+      <c r="N108" s="17"/>
+      <c r="O108" s="17"/>
+      <c r="P108" s="17"/>
+      <c r="Q108" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="482">
+  <mergeCells count="512">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5095,10 +5335,40 @@
     <mergeCell ref="H100:K100"/>
     <mergeCell ref="L100:M100"/>
     <mergeCell ref="N100:O100"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="K102:Q102"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="P107:Q107"/>
+    <mergeCell ref="A108:F108"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="K108:Q108"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -608,6 +608,15 @@
     <t>STARVILLE ACNE PRONE SKIN FACIAL CLEANSER 200 ML</t>
   </si>
   <si>
+    <t>TAROLIMUS 0.03% TOPICAL OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>129.00</t>
+  </si>
+  <si>
+    <t>129.0000</t>
+  </si>
+  <si>
     <t>TELOFILL SUNSCREEN عرض</t>
   </si>
   <si>
@@ -896,7 +905,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 6:30 PM</t>
+    <t>Monday, 6 October, 2025 6:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3556,15 +3565,15 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>39</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>40</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3576,28 +3585,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>39</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3616,7 +3625,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3649,7 +3658,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3659,14 +3668,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>59</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3675,14 +3684,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3692,14 +3701,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3708,7 +3717,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3725,14 +3734,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>14</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3754,7 +3763,7 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
@@ -3781,13 +3790,13 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
@@ -3795,7 +3804,7 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>175</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3807,14 +3816,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3824,14 +3833,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>57</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>68</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3840,14 +3849,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>220</v>
+        <v>68</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3857,14 +3866,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>68</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3890,14 +3899,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3906,14 +3915,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3923,14 +3932,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>230</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3939,14 +3948,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>230</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3956,14 +3965,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
+        <v>232</v>
+      </c>
+      <c t="s" r="Q80" s="12">
         <v>233</v>
-      </c>
-      <c t="s" r="Q80" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4012,7 +4021,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>238</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4022,7 +4031,7 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>105</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
@@ -4045,17 +4054,17 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>241</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>105</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
@@ -4078,7 +4087,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>244</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4088,7 +4097,7 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>174</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
@@ -4111,7 +4120,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>247</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4125,7 +4134,7 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>21</v>
@@ -4137,14 +4146,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>248</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4158,7 +4167,7 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4170,14 +4179,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>251</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4187,11 +4196,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>174</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>21</v>
@@ -4210,7 +4219,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4220,11 +4229,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4236,14 +4245,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>254</v>
+        <v>32</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4253,14 +4262,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4269,14 +4278,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4290,10 +4299,10 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>96</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4302,14 +4311,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>21</v>
+        <v>233</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4319,14 +4328,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>114</v>
+        <v>261</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>115</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>21</v>
+        <v>96</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4335,14 +4344,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>261</v>
+        <v>21</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4352,11 +4361,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>262</v>
+        <v>114</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>21</v>
@@ -4375,7 +4384,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>32</v>
+        <v>264</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4385,11 +4394,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>265</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>21</v>
@@ -4418,14 +4427,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>228</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>229</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>230</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4434,7 +4443,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4451,14 +4460,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>268</v>
+        <v>231</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>132</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>96</v>
+        <v>233</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4467,14 +4476,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4484,14 +4493,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>271</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>18</v>
+        <v>96</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4507,7 +4516,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4524,7 +4533,7 @@
         <v>274</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4540,7 +4549,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4573,7 +4582,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>279</v>
+        <v>32</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4583,11 +4592,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>21</v>
@@ -4599,14 +4608,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4616,11 +4625,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>151</v>
+        <v>279</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>152</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>21</v>
@@ -4632,14 +4641,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>32</v>
+        <v>284</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4649,14 +4658,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>283</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>96</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4665,14 +4674,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>254</v>
+        <v>32</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4686,10 +4695,10 @@
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>245</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>21</v>
+        <v>96</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4698,14 +4707,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4715,11 +4724,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>172</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>21</v>
@@ -4731,14 +4740,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4748,11 +4757,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>255</v>
+        <v>171</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>288</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>21</v>
@@ -4771,7 +4780,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4781,7 +4790,7 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
@@ -4804,7 +4813,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>91</v>
+        <v>264</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4825,38 +4834,71 @@
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
-      <c r="P107" s="13">
-        <v>7481.9949999999999</v>
-      </c>
-      <c r="Q107" s="13"/>
-    </row>
-    <row r="108" ht="16.5" customHeight="1">
-      <c t="s" r="A108" s="14">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
         <v>295</v>
       </c>
-      <c r="B108" s="14"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
-      <c t="s" r="G108" s="15">
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>91</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>28</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
         <v>296</v>
       </c>
-      <c r="H108" s="15"/>
-      <c r="I108" s="15"/>
-      <c r="J108" s="16"/>
-      <c t="s" r="K108" s="17">
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
         <v>297</v>
       </c>
-      <c r="L108" s="17"/>
-      <c r="M108" s="17"/>
-      <c r="N108" s="17"/>
-      <c r="O108" s="17"/>
-      <c r="P108" s="17"/>
-      <c r="Q108" s="17"/>
+      <c t="s" r="Q107" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="P108" s="13">
+        <v>7610.9949999999999</v>
+      </c>
+      <c r="Q108" s="13"/>
+    </row>
+    <row r="109" ht="16.5" customHeight="1">
+      <c t="s" r="A109" s="14">
+        <v>298</v>
+      </c>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c t="s" r="G109" s="15">
+        <v>299</v>
+      </c>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="16"/>
+      <c t="s" r="K109" s="17">
+        <v>300</v>
+      </c>
+      <c r="L109" s="17"/>
+      <c r="M109" s="17"/>
+      <c r="N109" s="17"/>
+      <c r="O109" s="17"/>
+      <c r="P109" s="17"/>
+      <c r="Q109" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="512">
+  <mergeCells count="517">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5365,10 +5407,15 @@
     <mergeCell ref="H106:K106"/>
     <mergeCell ref="L106:M106"/>
     <mergeCell ref="N106:O106"/>
-    <mergeCell ref="P107:Q107"/>
-    <mergeCell ref="A108:F108"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="K108:Q108"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="P108:Q108"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="K109:Q109"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -350,6 +350,18 @@
     <t>104.0000</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>7:5</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>7.9200</t>
+  </si>
+  <si>
     <t>GELBLEND ACTIVE GEL</t>
   </si>
   <si>
@@ -524,9 +536,6 @@
     <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t>24.0000</t>
   </si>
   <si>
@@ -905,7 +914,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 6:42 PM</t>
+    <t>Monday, 6 October, 2025 6:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2536,24 +2545,24 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2562,7 +2571,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2579,11 +2588,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2595,7 +2604,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2612,11 +2621,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2628,14 +2637,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2645,14 +2654,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2661,31 +2670,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2694,14 +2703,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2711,14 +2720,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2727,14 +2736,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2744,14 +2753,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2760,14 +2769,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2777,14 +2786,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2793,14 +2802,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2810,11 +2819,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2826,14 +2835,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2843,14 +2852,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>140</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2859,14 +2868,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2876,14 +2885,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>18</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2892,14 +2901,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2909,14 +2918,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2925,7 +2934,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2942,11 +2951,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2958,14 +2967,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2975,11 +2984,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2991,14 +3000,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3008,11 +3017,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -3024,14 +3033,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3041,7 +3050,7 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
@@ -3057,14 +3066,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3074,11 +3083,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -3090,14 +3099,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3107,14 +3116,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3123,31 +3132,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3156,7 +3165,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3169,15 +3178,15 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -3189,14 +3198,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3206,14 +3215,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>36</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3222,14 +3231,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3239,14 +3248,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>36</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3255,7 +3264,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3272,14 +3281,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>115</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3295,7 +3304,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>177</v>
+        <v>96</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3305,14 +3314,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>98</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3328,7 +3337,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>23</v>
+        <v>180</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3338,11 +3347,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3361,13 +3370,13 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3378,7 +3387,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>88</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3400,15 +3409,15 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>131</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>88</v>
@@ -3420,31 +3429,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>135</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3460,24 +3469,24 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>191</v>
+        <v>32</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>194</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3486,14 +3495,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3503,14 +3512,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>154</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
+        <v>196</v>
+      </c>
+      <c t="s" r="Q66" s="12">
         <v>197</v>
-      </c>
-      <c t="s" r="Q66" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3526,7 +3535,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>32</v>
+        <v>199</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3536,14 +3545,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3552,7 +3561,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3569,11 +3578,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3598,15 +3607,15 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>39</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>40</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3618,28 +3627,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>39</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3658,7 +3667,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3691,7 +3700,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3701,14 +3710,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>59</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3717,14 +3726,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3734,14 +3743,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3750,7 +3759,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3767,14 +3776,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>14</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3796,7 +3805,7 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
@@ -3823,13 +3832,13 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
@@ -3837,7 +3846,7 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>175</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -3849,14 +3858,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3866,14 +3875,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>57</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>68</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3882,14 +3891,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>223</v>
+        <v>68</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3899,14 +3908,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3932,14 +3941,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3948,14 +3957,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3965,14 +3974,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>233</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3981,14 +3990,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>233</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3998,14 +4007,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
+        <v>235</v>
+      </c>
+      <c t="s" r="Q81" s="12">
         <v>236</v>
-      </c>
-      <c t="s" r="Q81" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4054,7 +4063,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>241</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4064,7 +4073,7 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>105</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
@@ -4087,17 +4096,17 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>244</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>105</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
@@ -4120,7 +4129,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>247</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4130,7 +4139,7 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>174</v>
+        <v>247</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
@@ -4153,7 +4162,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>18</v>
+        <v>250</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4163,11 +4172,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4179,14 +4188,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>251</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4196,11 +4205,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>21</v>
@@ -4212,14 +4221,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>254</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4229,11 +4238,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>253</v>
+        <v>177</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4252,7 +4261,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4262,11 +4271,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>21</v>
@@ -4278,14 +4287,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>257</v>
+        <v>32</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4295,14 +4304,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4311,14 +4320,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4332,10 +4341,10 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>96</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4344,14 +4353,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>21</v>
+        <v>236</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4361,14 +4370,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>114</v>
+        <v>264</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>115</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>21</v>
+        <v>96</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4377,14 +4386,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>264</v>
+        <v>21</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4394,11 +4403,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>265</v>
+        <v>118</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>21</v>
@@ -4417,7 +4426,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>32</v>
+        <v>267</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4427,11 +4436,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>21</v>
@@ -4460,14 +4469,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>231</v>
+        <v>270</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>233</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4476,7 +4485,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4493,14 +4502,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>96</v>
+        <v>236</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4509,14 +4518,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4526,14 +4535,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>274</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>18</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4549,7 +4558,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4566,7 +4575,7 @@
         <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4582,7 +4591,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4615,7 +4624,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>282</v>
+        <v>32</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4625,11 +4634,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>21</v>
@@ -4641,14 +4650,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4658,11 +4667,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>151</v>
+        <v>282</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>152</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>21</v>
@@ -4674,14 +4683,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>32</v>
+        <v>287</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4691,14 +4700,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>286</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>96</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4707,14 +4716,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>257</v>
+        <v>32</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4724,14 +4733,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>248</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>21</v>
+        <v>96</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4740,14 +4749,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4757,11 +4766,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>172</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>21</v>
@@ -4773,14 +4782,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4790,11 +4799,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>258</v>
+        <v>115</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>291</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>21</v>
@@ -4813,7 +4822,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4823,7 +4832,7 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
@@ -4846,7 +4855,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>91</v>
+        <v>267</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4867,38 +4876,71 @@
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
-      <c r="P108" s="13">
-        <v>7610.9949999999999</v>
-      </c>
-      <c r="Q108" s="13"/>
-    </row>
-    <row r="109" ht="16.5" customHeight="1">
-      <c t="s" r="A109" s="14">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
         <v>298</v>
       </c>
-      <c r="B109" s="14"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
-      <c t="s" r="G109" s="15">
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>91</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>28</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
         <v>299</v>
       </c>
-      <c r="H109" s="15"/>
-      <c r="I109" s="15"/>
-      <c r="J109" s="16"/>
-      <c t="s" r="K109" s="17">
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
         <v>300</v>
       </c>
-      <c r="L109" s="17"/>
-      <c r="M109" s="17"/>
-      <c r="N109" s="17"/>
-      <c r="O109" s="17"/>
-      <c r="P109" s="17"/>
-      <c r="Q109" s="17"/>
+      <c t="s" r="Q108" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="P109" s="13">
+        <v>7618.915</v>
+      </c>
+      <c r="Q109" s="13"/>
+    </row>
+    <row r="110" ht="16.5" customHeight="1">
+      <c t="s" r="A110" s="14">
+        <v>301</v>
+      </c>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c t="s" r="G110" s="15">
+        <v>302</v>
+      </c>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="16"/>
+      <c t="s" r="K110" s="17">
+        <v>303</v>
+      </c>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="17"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="517">
+  <mergeCells count="522">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5412,10 +5454,15 @@
     <mergeCell ref="H107:K107"/>
     <mergeCell ref="L107:M107"/>
     <mergeCell ref="N107:O107"/>
-    <mergeCell ref="P108:Q108"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="K109:Q109"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="K110:Q110"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -77,6 +77,18 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>AMIGRAINE ADCO 30 TABLETS</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
     <t>AMIPRIDE 50MG 30 TAB</t>
   </si>
   <si>
@@ -282,9 +294,6 @@
   </si>
   <si>
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>5:0</t>
   </si>
   <si>
     <t>65.00</t>
@@ -1660,15 +1669,15 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1680,20 +1689,20 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -1704,7 +1713,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1720,7 +1729,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1730,11 +1739,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>21</v>
@@ -1746,14 +1755,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1763,11 +1772,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>21</v>
@@ -1779,14 +1788,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1796,11 +1805,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>21</v>
@@ -1812,14 +1821,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1829,14 +1838,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1845,14 +1854,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1862,14 +1871,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1878,7 +1887,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1895,11 +1904,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1911,28 +1920,28 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
@@ -1944,28 +1953,28 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1977,14 +1986,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1994,14 +2003,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2010,31 +2019,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2043,20 +2052,20 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -2067,7 +2076,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>68</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2076,14 +2085,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2100,7 +2109,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2109,14 +2118,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2126,11 +2135,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -2142,14 +2151,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2159,14 +2168,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2175,14 +2184,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2192,14 +2201,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2208,14 +2217,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2225,14 +2234,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2241,14 +2250,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2258,14 +2267,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2274,14 +2283,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2291,14 +2300,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>88</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2307,14 +2316,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2324,14 +2333,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2340,14 +2349,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2357,14 +2366,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2373,14 +2382,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2390,14 +2399,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2406,14 +2415,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2423,14 +2432,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2439,14 +2448,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2456,14 +2465,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>88</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2472,14 +2481,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2496,7 +2505,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2512,7 +2521,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2529,7 +2538,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2545,7 +2554,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2555,14 +2564,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>88</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2571,20 +2580,20 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2595,7 +2604,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2611,13 +2620,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2644,13 +2653,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2658,7 +2667,7 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2670,31 +2679,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2710,13 +2719,13 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2727,7 +2736,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2743,7 +2752,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2760,7 +2769,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2776,7 +2785,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2793,7 +2802,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2809,7 +2818,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2819,14 +2828,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>85</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2835,14 +2844,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2852,7 +2861,7 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>89</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
@@ -2875,7 +2884,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2885,14 +2894,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>144</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2908,7 +2917,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2918,14 +2927,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
+        <v>146</v>
+      </c>
+      <c t="s" r="Q48" s="12">
         <v>147</v>
-      </c>
-      <c t="s" r="Q48" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2941,7 +2950,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2958,7 +2967,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2974,7 +2983,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3007,7 +3016,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3040,7 +3049,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3054,7 +3063,7 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -3066,14 +3075,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3083,11 +3092,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -3099,14 +3108,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3120,7 +3129,7 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -3139,7 +3148,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3156,7 +3165,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3172,13 +3181,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -3189,7 +3198,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3205,13 +3214,13 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -3238,7 +3247,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3248,14 +3257,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>36</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3264,14 +3273,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3281,14 +3290,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3297,14 +3306,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3314,14 +3323,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>118</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3337,7 +3346,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>180</v>
+        <v>99</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3347,14 +3356,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>98</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3370,7 +3379,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>23</v>
+        <v>183</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3380,11 +3389,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3403,13 +3412,13 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3420,7 +3429,7 @@
         <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>88</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3442,18 +3451,18 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>135</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3462,31 +3471,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>138</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>92</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3502,24 +3511,24 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>194</v>
+        <v>36</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>197</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3528,14 +3537,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3545,14 +3554,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>158</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
+        <v>199</v>
+      </c>
+      <c t="s" r="Q67" s="12">
         <v>200</v>
-      </c>
-      <c t="s" r="Q67" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3568,7 +3577,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>32</v>
+        <v>202</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3578,14 +3587,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3594,14 +3603,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3611,11 +3620,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3634,21 +3643,21 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>39</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>40</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3660,28 +3669,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>43</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3700,7 +3709,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3733,7 +3742,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3743,14 +3752,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>59</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3759,14 +3768,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3776,14 +3785,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3792,14 +3801,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3809,14 +3818,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>14</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3832,13 +3841,13 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
@@ -3865,13 +3874,13 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
@@ -3879,7 +3888,7 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3891,14 +3900,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3908,14 +3917,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>57</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>68</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3924,14 +3933,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>226</v>
+        <v>72</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3941,14 +3950,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>72</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3974,14 +3983,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3990,14 +3999,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4007,14 +4016,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>236</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4023,14 +4032,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>236</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4040,14 +4049,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
+        <v>238</v>
+      </c>
+      <c t="s" r="Q82" s="12">
         <v>239</v>
-      </c>
-      <c t="s" r="Q82" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4096,7 +4105,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>244</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4106,7 +4115,7 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>105</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
@@ -4129,17 +4138,17 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>247</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>247</v>
+        <v>108</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
@@ -4162,17 +4171,17 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>250</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>177</v>
+        <v>250</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
@@ -4195,21 +4204,21 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>253</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>21</v>
@@ -4221,28 +4230,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>254</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4254,28 +4263,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>18</v>
+        <v>257</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>256</v>
+        <v>180</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>21</v>
@@ -4294,21 +4303,21 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>21</v>
@@ -4320,31 +4329,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>260</v>
+        <v>36</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4353,20 +4362,20 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
@@ -4374,10 +4383,10 @@
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>96</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4386,31 +4395,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>21</v>
+        <v>239</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>118</v>
+        <v>267</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>119</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>21</v>
+        <v>99</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4419,28 +4428,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>267</v>
+        <v>21</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>268</v>
+        <v>121</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>21</v>
@@ -4459,21 +4468,21 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>32</v>
+        <v>270</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>271</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>21</v>
@@ -4492,24 +4501,24 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>234</v>
+        <v>273</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>235</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>236</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4518,31 +4527,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>274</v>
+        <v>237</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>136</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>96</v>
+        <v>239</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4551,31 +4560,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>18</v>
+        <v>99</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4591,13 +4600,13 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
@@ -4608,7 +4617,7 @@
         <v>280</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4624,13 +4633,13 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
@@ -4657,21 +4666,21 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>285</v>
+        <v>36</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>21</v>
@@ -4683,28 +4692,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>155</v>
+        <v>285</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>156</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>21</v>
@@ -4716,31 +4725,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>32</v>
+        <v>290</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>289</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>96</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4749,31 +4758,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>260</v>
+        <v>36</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>251</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>21</v>
+        <v>99</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4782,28 +4791,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>115</v>
+        <v>180</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>175</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>21</v>
@@ -4815,28 +4824,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>293</v>
+        <v>263</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>261</v>
+        <v>118</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>294</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>21</v>
@@ -4855,17 +4864,17 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
@@ -4888,13 +4897,13 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>91</v>
+        <v>270</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
@@ -4909,38 +4918,71 @@
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
-      <c r="P109" s="13">
-        <v>7618.915</v>
-      </c>
-      <c r="Q109" s="13"/>
-    </row>
-    <row r="110" ht="16.5" customHeight="1">
-      <c t="s" r="A110" s="14">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
         <v>301</v>
       </c>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c t="s" r="G110" s="15">
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>23</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>32</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
         <v>302</v>
       </c>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="16"/>
-      <c t="s" r="K110" s="17">
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
         <v>303</v>
       </c>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="17"/>
-      <c r="O110" s="17"/>
-      <c r="P110" s="17"/>
-      <c r="Q110" s="17"/>
+      <c t="s" r="Q109" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="P110" s="13">
+        <v>7649.6049999999996</v>
+      </c>
+      <c r="Q110" s="13"/>
+    </row>
+    <row r="111" ht="16.5" customHeight="1">
+      <c t="s" r="A111" s="14">
+        <v>304</v>
+      </c>
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+      <c t="s" r="G111" s="15">
+        <v>305</v>
+      </c>
+      <c r="H111" s="15"/>
+      <c r="I111" s="15"/>
+      <c r="J111" s="16"/>
+      <c t="s" r="K111" s="17">
+        <v>306</v>
+      </c>
+      <c r="L111" s="17"/>
+      <c r="M111" s="17"/>
+      <c r="N111" s="17"/>
+      <c r="O111" s="17"/>
+      <c r="P111" s="17"/>
+      <c r="Q111" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="522">
+  <mergeCells count="527">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5459,10 +5501,15 @@
     <mergeCell ref="H108:K108"/>
     <mergeCell ref="L108:M108"/>
     <mergeCell ref="N108:O108"/>
-    <mergeCell ref="P109:Q109"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="K110:Q110"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="P110:Q110"/>
+    <mergeCell ref="A111:F111"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="K111:Q111"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -407,6 +407,9 @@
     <t>INDERAL 10 MG 50 TABS</t>
   </si>
   <si>
+    <t>1:2</t>
+  </si>
+  <si>
     <t>75.00</t>
   </si>
   <si>
@@ -452,9 +455,6 @@
     <t>79.6800</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
   </si>
   <si>
@@ -602,7 +602,7 @@
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
-    <t>0:10</t>
+    <t>1:10</t>
   </si>
   <si>
     <t>141.00</t>
@@ -923,7 +923,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 6:43 PM</t>
+    <t>Monday, 6 October, 2025 6:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2752,7 +2752,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2762,11 +2762,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2778,7 +2778,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2795,11 +2795,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>18</v>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2828,11 +2828,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2844,7 +2844,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2894,11 +2894,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2910,7 +2910,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2931,10 +2931,10 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>147</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2983,7 +2983,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3148,7 +3148,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3247,7 +3247,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3488,7 +3488,7 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -4581,7 +4581,7 @@
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>99</v>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ALKAPRESS 5MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>AMEBAZOL 1GM 2 F.C. TABS.</t>
   </si>
   <si>
@@ -74,9 +86,6 @@
     <t>27.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>AMIGRAINE ADCO 30 TABLETS</t>
   </si>
   <si>
@@ -233,9 +242,6 @@
     <t>COUGHSED PARACETAMOL CHILDREN 12 SUPP</t>
   </si>
   <si>
-    <t>58.00</t>
-  </si>
-  <si>
     <t>29.0000</t>
   </si>
   <si>
@@ -371,6 +377,24 @@
     <t>7.9200</t>
   </si>
   <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>GELBLEND ACTIVE GEL</t>
   </si>
   <si>
@@ -398,9 +422,6 @@
     <t>GLYCERIN ADULT 10 SUSP 1.47G</t>
   </si>
   <si>
-    <t>22.00</t>
-  </si>
-  <si>
     <t>11.0000</t>
   </si>
   <si>
@@ -692,18 +713,12 @@
     <t>VERMIZOLE 200MG/5ML SUSP. 30 ML</t>
   </si>
   <si>
-    <t>26.00</t>
-  </si>
-  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
     <t>10:0</t>
   </si>
   <si>
-    <t>26.0000</t>
-  </si>
-  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -827,6 +842,9 @@
     <t>35.00</t>
   </si>
   <si>
+    <t>زولا ركبه</t>
+  </si>
+  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -923,7 +941,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 6:50 PM</t>
+    <t>Monday, 6 October, 2025 7:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1597,7 +1615,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1607,14 +1625,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1623,14 +1641,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1640,14 +1658,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1656,14 +1674,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1673,11 +1691,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1689,28 +1707,28 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1722,31 +1740,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1755,14 +1773,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1779,7 +1797,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1795,7 +1813,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1812,7 +1830,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1828,7 +1846,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1845,7 +1863,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1861,7 +1879,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1878,7 +1896,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1894,7 +1912,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1911,7 +1929,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1927,7 +1945,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1944,7 +1962,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1960,13 +1978,13 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1977,7 +1995,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1993,24 +2011,24 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2019,14 +2037,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2036,14 +2054,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2059,13 +2077,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -2076,7 +2094,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2092,24 +2110,24 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>72</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2118,14 +2136,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2135,14 +2153,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q24" s="12">
         <v>75</v>
-      </c>
-      <c t="s" r="Q24" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2158,7 +2176,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2168,11 +2186,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -2184,14 +2202,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2201,14 +2219,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2217,14 +2235,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2234,14 +2252,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2250,14 +2268,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2267,14 +2285,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2283,14 +2301,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2300,14 +2318,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2316,14 +2334,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2333,14 +2351,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>92</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2349,14 +2367,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2366,14 +2384,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2382,14 +2400,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2399,14 +2417,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2415,14 +2433,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2432,14 +2450,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2455,7 +2473,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2465,14 +2483,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2488,7 +2506,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2498,14 +2516,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>92</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2514,14 +2532,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2531,14 +2549,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2547,14 +2565,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2564,14 +2582,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2580,14 +2598,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>39</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2597,14 +2615,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>92</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2613,31 +2631,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2646,31 +2664,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2679,31 +2697,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2719,13 +2737,13 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2736,7 +2754,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2752,24 +2770,24 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>39</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2778,31 +2796,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2811,28 +2829,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2844,14 +2862,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>36</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2861,14 +2879,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2877,14 +2895,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2894,14 +2912,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2910,14 +2928,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2927,14 +2945,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>132</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2950,7 +2968,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2960,14 +2978,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>91</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2976,14 +2994,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2993,14 +3011,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3009,14 +3027,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3026,14 +3044,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>139</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3042,14 +3060,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3059,14 +3077,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3075,14 +3093,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3092,14 +3110,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3108,14 +3126,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3125,14 +3143,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>96</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3141,14 +3159,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3158,14 +3176,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3174,14 +3192,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3191,14 +3209,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3214,24 +3232,24 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3240,14 +3258,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3257,14 +3275,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3273,14 +3291,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3290,14 +3308,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>40</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3306,31 +3324,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>118</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3346,7 +3364,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3363,7 +3381,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3379,7 +3397,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>183</v>
+        <v>75</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3389,14 +3407,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>43</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>101</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3405,14 +3423,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3422,14 +3440,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>120</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3438,31 +3456,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>92</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3471,14 +3489,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>190</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3488,14 +3506,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>139</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>92</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3504,31 +3522,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3537,31 +3555,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>197</v>
+        <v>20</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>200</v>
+        <v>94</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3570,14 +3588,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>202</v>
+        <v>20</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3587,14 +3605,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3603,31 +3621,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3636,14 +3654,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>36</v>
+        <v>204</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3653,14 +3671,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
+        <v>206</v>
+      </c>
+      <c t="s" r="Q70" s="12">
         <v>207</v>
-      </c>
-      <c t="s" r="Q70" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3676,24 +3694,24 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>36</v>
+        <v>209</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>43</v>
+        <v>168</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>44</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3702,14 +3720,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3719,14 +3737,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3742,7 +3760,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3759,7 +3777,7 @@
         <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3775,24 +3793,24 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3801,14 +3819,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3818,14 +3836,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>14</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3834,14 +3852,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3851,14 +3869,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3867,31 +3885,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>66</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3907,7 +3925,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3917,14 +3935,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>14</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3933,14 +3951,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3950,14 +3968,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>61</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>72</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3973,24 +3991,24 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>229</v>
+        <v>39</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4006,7 +4024,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>232</v>
+        <v>20</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4016,14 +4034,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4032,14 +4050,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>236</v>
+        <v>75</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4049,14 +4067,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>123</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>239</v>
+        <v>75</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4065,14 +4083,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>235</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4082,14 +4100,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>123</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4098,14 +4116,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>237</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4115,14 +4133,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4131,14 +4149,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4148,14 +4166,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>108</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>244</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4164,31 +4182,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4197,31 +4215,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>253</v>
+        <v>22</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>180</v>
+        <v>249</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4230,31 +4248,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>252</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4263,31 +4281,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>257</v>
+        <v>22</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>180</v>
+        <v>255</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4296,31 +4314,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>18</v>
+        <v>258</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>259</v>
+        <v>187</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4329,31 +4347,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>250</v>
+        <v>187</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4362,31 +4380,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>264</v>
+        <v>187</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4395,31 +4413,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>239</v>
+        <v>22</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
         <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>99</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4428,31 +4446,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>121</v>
+        <v>255</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>122</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4461,31 +4479,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4494,31 +4512,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>36</v>
+        <v>244</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>21</v>
+        <v>101</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4527,31 +4545,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>237</v>
+        <v>129</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>238</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>239</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4560,31 +4578,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>36</v>
+        <v>275</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>140</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>99</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4593,31 +4611,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>279</v>
+        <v>165</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>280</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4626,31 +4644,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4659,31 +4677,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>285</v>
+        <v>242</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>286</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>21</v>
+        <v>244</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4692,31 +4710,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>288</v>
+        <v>39</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>286</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>21</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4725,31 +4743,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>290</v>
+        <v>72</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>158</v>
+        <v>285</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>159</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4758,31 +4776,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>180</v>
+        <v>288</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>99</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4791,31 +4809,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>263</v>
+        <v>39</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>180</v>
+        <v>291</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>254</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4824,31 +4842,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>118</v>
+        <v>291</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>178</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4870,18 +4888,18 @@
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>264</v>
+        <v>165</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>297</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4890,31 +4908,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>270</v>
+        <v>39</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>299</v>
+        <v>187</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>21</v>
+        <v>101</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4923,66 +4941,198 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>23</v>
+        <v>268</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>302</v>
+        <v>187</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
+        <v>259</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>300</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>268</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>35</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>120</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>185</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>301</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>302</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>35</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>269</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
         <v>303</v>
       </c>
-      <c t="s" r="Q109" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="110" ht="24.75" customHeight="1">
-      <c r="P110" s="13">
-        <v>7649.6049999999996</v>
-      </c>
-      <c r="Q110" s="13"/>
-    </row>
-    <row r="111" ht="16.5" customHeight="1">
-      <c t="s" r="A111" s="14">
+      <c t="s" r="Q111" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
         <v>304</v>
       </c>
-      <c r="B111" s="14"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
-      <c t="s" r="G111" s="15">
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>275</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>35</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
         <v>305</v>
       </c>
-      <c r="H111" s="15"/>
-      <c r="I111" s="15"/>
-      <c r="J111" s="16"/>
-      <c t="s" r="K111" s="17">
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
         <v>306</v>
       </c>
-      <c r="L111" s="17"/>
-      <c r="M111" s="17"/>
-      <c r="N111" s="17"/>
-      <c r="O111" s="17"/>
-      <c r="P111" s="17"/>
-      <c r="Q111" s="17"/>
+      <c t="s" r="Q112" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>307</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>26</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>35</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>308</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>309</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="P114" s="13">
+        <v>7805.6049999999996</v>
+      </c>
+      <c r="Q114" s="13"/>
+    </row>
+    <row r="115" ht="16.5" customHeight="1">
+      <c t="s" r="A115" s="14">
+        <v>310</v>
+      </c>
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c t="s" r="G115" s="15">
+        <v>311</v>
+      </c>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="16"/>
+      <c t="s" r="K115" s="17">
+        <v>312</v>
+      </c>
+      <c r="L115" s="17"/>
+      <c r="M115" s="17"/>
+      <c r="N115" s="17"/>
+      <c r="O115" s="17"/>
+      <c r="P115" s="17"/>
+      <c r="Q115" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="527">
+  <mergeCells count="547">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5506,10 +5656,30 @@
     <mergeCell ref="H109:K109"/>
     <mergeCell ref="L109:M109"/>
     <mergeCell ref="N109:O109"/>
-    <mergeCell ref="P110:Q110"/>
-    <mergeCell ref="A111:F111"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="K111:Q111"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="P114:Q114"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="G115:I115"/>
+    <mergeCell ref="K115:Q115"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -677,6 +677,15 @@
     <t>49.0000</t>
   </si>
   <si>
+    <t>UNICTAM 750 MG I.M/I.V VIAL</t>
+  </si>
+  <si>
+    <t>234.0000</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
     <t>URINEX 24 CAPS</t>
   </si>
   <si>
@@ -797,7 +806,7 @@
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
-    <t>18:0</t>
+    <t>17:0</t>
   </si>
   <si>
     <t>بيبي جوي رقم 1</t>
@@ -857,6 +866,9 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -905,9 +917,6 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>60.0000</t>
-  </si>
-  <si>
     <t>ماكينه حلاقه جليت فليكتور</t>
   </si>
   <si>
@@ -917,12 +926,6 @@
     <t>مرطب شفاه لونا جوز هند ابيض</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>مرهم راسب ابيض</t>
   </si>
   <si>
@@ -941,7 +944,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 7:10 PM</t>
+    <t>Monday, 6 October, 2025 7:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3892,7 +3895,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3902,14 +3905,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>66</v>
+        <v>168</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>224</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3918,14 +3921,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3935,14 +3938,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3951,7 +3954,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3968,14 +3971,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>14</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3997,7 +4000,7 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
@@ -4024,13 +4027,13 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
@@ -4038,7 +4041,7 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>188</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>20</v>
@@ -4050,14 +4053,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4067,14 +4070,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>123</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>64</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4083,14 +4086,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>235</v>
+        <v>75</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4104,10 +4107,10 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>75</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4116,14 +4119,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4133,14 +4136,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>238</v>
+        <v>123</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4149,14 +4152,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4166,14 +4169,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>244</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4182,14 +4185,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>22</v>
+        <v>244</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4199,14 +4202,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
+        <v>246</v>
+      </c>
+      <c t="s" r="Q86" s="12">
         <v>247</v>
-      </c>
-      <c t="s" r="Q86" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4255,7 +4258,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>252</v>
+        <v>22</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4265,7 +4268,7 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>110</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
@@ -4288,17 +4291,17 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>22</v>
+        <v>255</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>255</v>
+        <v>110</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
@@ -4321,7 +4324,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4331,7 +4334,7 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>187</v>
+        <v>258</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
@@ -4354,7 +4357,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>22</v>
+        <v>261</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4368,7 +4371,7 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>20</v>
@@ -4380,14 +4383,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>262</v>
+        <v>22</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4401,7 +4404,7 @@
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>20</v>
@@ -4413,14 +4416,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>22</v>
+        <v>265</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4430,14 +4433,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>264</v>
+        <v>187</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>265</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4453,7 +4456,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4463,11 +4466,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>20</v>
@@ -4479,14 +4482,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>268</v>
+        <v>39</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4496,14 +4499,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4512,14 +4515,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4533,10 +4536,10 @@
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>101</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4545,14 +4548,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>20</v>
+        <v>247</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4562,14 +4565,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>129</v>
+        <v>275</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>130</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>20</v>
+        <v>101</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4578,14 +4581,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>275</v>
+        <v>20</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4595,11 +4598,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>129</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>20</v>
@@ -4618,7 +4621,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>22</v>
+        <v>278</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4628,11 +4631,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>165</v>
+        <v>279</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>166</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>20</v>
@@ -4644,14 +4647,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4661,11 +4664,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>279</v>
+        <v>165</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>280</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>20</v>
@@ -4694,14 +4697,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>242</v>
+        <v>282</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>243</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>244</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4710,7 +4713,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4727,14 +4730,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>283</v>
+        <v>245</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>147</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>101</v>
+        <v>238</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4743,14 +4746,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4760,14 +4763,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>286</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>22</v>
+        <v>238</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4776,14 +4779,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4793,14 +4796,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4809,14 +4812,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4826,11 +4829,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>20</v>
@@ -4842,14 +4845,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>294</v>
+        <v>39</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4859,11 +4862,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>20</v>
@@ -4875,14 +4878,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4892,11 +4895,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>165</v>
+        <v>295</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>166</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>20</v>
@@ -4908,14 +4911,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>39</v>
+        <v>300</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4925,14 +4928,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>298</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>101</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4941,14 +4944,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>268</v>
+        <v>39</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4962,10 +4965,10 @@
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>259</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4974,14 +4977,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4991,11 +4994,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>120</v>
+        <v>187</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>185</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>20</v>
@@ -5007,14 +5010,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5024,11 +5027,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>269</v>
+        <v>120</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>303</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>20</v>
@@ -5047,7 +5050,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>275</v>
+        <v>224</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5057,11 +5060,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>305</v>
+        <v>272</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>20</v>
@@ -5073,14 +5076,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>26</v>
+        <v>278</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5090,49 +5093,82 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
+        <v>307</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>308</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>26</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>35</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
         <v>309</v>
       </c>
-      <c t="s" r="Q113" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="114" ht="25.5" customHeight="1">
-      <c r="P114" s="13">
-        <v>7805.6049999999996</v>
-      </c>
-      <c r="Q114" s="13"/>
-    </row>
-    <row r="115" ht="16.5" customHeight="1">
-      <c t="s" r="A115" s="14">
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
         <v>310</v>
       </c>
-      <c r="B115" s="14"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
-      <c t="s" r="G115" s="15">
+      <c t="s" r="Q114" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="P115" s="13">
+        <v>8089.6049999999996</v>
+      </c>
+      <c r="Q115" s="13"/>
+    </row>
+    <row r="116" ht="16.5" customHeight="1">
+      <c t="s" r="A116" s="14">
         <v>311</v>
       </c>
-      <c r="H115" s="15"/>
-      <c r="I115" s="15"/>
-      <c r="J115" s="16"/>
-      <c t="s" r="K115" s="17">
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c t="s" r="G116" s="15">
         <v>312</v>
       </c>
-      <c r="L115" s="17"/>
-      <c r="M115" s="17"/>
-      <c r="N115" s="17"/>
-      <c r="O115" s="17"/>
-      <c r="P115" s="17"/>
-      <c r="Q115" s="17"/>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="16"/>
+      <c t="s" r="K116" s="17">
+        <v>313</v>
+      </c>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17"/>
+      <c r="N116" s="17"/>
+      <c r="O116" s="17"/>
+      <c r="P116" s="17"/>
+      <c r="Q116" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="547">
+  <mergeCells count="552">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5676,10 +5712,15 @@
     <mergeCell ref="H113:K113"/>
     <mergeCell ref="L113:M113"/>
     <mergeCell ref="N113:O113"/>
-    <mergeCell ref="P114:Q114"/>
-    <mergeCell ref="A115:F115"/>
-    <mergeCell ref="G115:I115"/>
-    <mergeCell ref="K115:Q115"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="P115:Q115"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="G116:I116"/>
+    <mergeCell ref="K116:Q116"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -743,97 +743,97 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8190:0</t>
+    <t>8184:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>18.0000</t>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>XILONE 5MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>XITHRONE 500MG 3 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
+    <t>ZINOL 1GM I.M./I.V. VIAL</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>املاح افونا</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>امواس لورد</t>
+  </si>
+  <si>
+    <t>21:0</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>ايفا كريم 20 جم</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
+    <t>بيبي جوي رقم 1</t>
+  </si>
+  <si>
+    <t>285.00</t>
+  </si>
+  <si>
+    <t>285.0000</t>
+  </si>
+  <si>
+    <t>جل صبار برطمان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>24:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>حلق</t>
   </si>
   <si>
     <t>9:0</t>
-  </si>
-  <si>
-    <t>XILONE 5MG/5ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>XITHRONE 500MG 3 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>63.0000</t>
-  </si>
-  <si>
-    <t>ZINOL 1GM I.M./I.V. VIAL</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>املاح افونا</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>امواس لورد</t>
-  </si>
-  <si>
-    <t>21:0</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>ايفا كريم 20 جم</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
-    <t>17:0</t>
-  </si>
-  <si>
-    <t>بيبي جوي رقم 1</t>
-  </si>
-  <si>
-    <t>285.00</t>
-  </si>
-  <si>
-    <t>285.0000</t>
-  </si>
-  <si>
-    <t>جل صبار برطمان</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>24:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>حلق</t>
   </si>
   <si>
     <t>10.00</t>
@@ -4206,10 +4206,10 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
+        <v>188</v>
+      </c>
+      <c t="s" r="Q86" s="12">
         <v>246</v>
-      </c>
-      <c t="s" r="Q86" s="12">
-        <v>247</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4218,7 +4218,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4235,11 +4235,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>20</v>
@@ -4251,7 +4251,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4268,11 +4268,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>20</v>
@@ -4284,14 +4284,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4305,7 +4305,7 @@
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>20</v>
@@ -4317,7 +4317,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4334,11 +4334,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>20</v>
@@ -4350,14 +4350,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4371,7 +4371,7 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>20</v>
@@ -4383,7 +4383,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4404,7 +4404,7 @@
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>20</v>
@@ -4416,14 +4416,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4449,7 +4449,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4466,11 +4466,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>20</v>
@@ -4482,7 +4482,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4499,11 +4499,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>20</v>
@@ -4515,14 +4515,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4532,11 +4532,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>22</v>
@@ -4548,14 +4548,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4569,7 +4569,7 @@
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>101</v>
@@ -4984,7 +4984,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4998,7 +4998,7 @@
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>20</v>
@@ -5017,7 +5017,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5060,7 +5060,7 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
@@ -5138,7 +5138,7 @@
     </row>
     <row r="115" ht="24.75" customHeight="1">
       <c r="P115" s="13">
-        <v>8089.6049999999996</v>
+        <v>8101.6049999999996</v>
       </c>
       <c r="Q115" s="13"/>
     </row>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -944,7 +944,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 7:12 PM</t>
+    <t>Monday, 6 October, 2025 7:13 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -446,6 +446,15 @@
     <t>134.0000</t>
   </si>
   <si>
+    <t>KETOLAC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -944,7 +953,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 7:13 PM</t>
+    <t>Monday, 6 October, 2025 7:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2971,7 +2980,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2981,14 +2990,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>91</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2997,14 +3006,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3014,7 +3023,7 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>91</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -3037,7 +3046,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3047,14 +3056,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>139</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3063,14 +3072,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3080,14 +3089,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>22</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3103,7 +3112,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3120,7 +3129,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3136,7 +3145,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3169,7 +3178,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3202,7 +3211,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3216,7 +3225,7 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>98</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
@@ -3228,14 +3237,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3245,7 +3254,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -3261,7 +3270,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3282,7 +3291,7 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -3318,7 +3327,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3334,13 +3343,13 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3351,7 +3360,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3367,13 +3376,13 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3400,7 +3409,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3410,14 +3419,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>43</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3426,14 +3435,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3443,14 +3452,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3459,7 +3468,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3476,14 +3485,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>120</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3499,7 +3508,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>190</v>
+        <v>101</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3509,14 +3518,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>103</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3532,7 +3541,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>30</v>
+        <v>193</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3542,11 +3551,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3565,13 +3574,13 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
@@ -3582,7 +3591,7 @@
         <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3604,15 +3613,15 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>146</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>94</v>
@@ -3624,31 +3633,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>149</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3664,24 +3673,24 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>204</v>
+        <v>39</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>207</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3690,14 +3699,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3707,14 +3716,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>168</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
+        <v>209</v>
+      </c>
+      <c t="s" r="Q71" s="12">
         <v>210</v>
-      </c>
-      <c t="s" r="Q71" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3730,7 +3739,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>39</v>
+        <v>212</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3740,14 +3749,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3756,7 +3765,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3773,11 +3782,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>20</v>
@@ -3802,15 +3811,15 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>46</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>47</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>20</v>
@@ -3822,28 +3831,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>46</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>20</v>
@@ -3862,7 +3871,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3895,7 +3904,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3905,14 +3914,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>168</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>224</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3928,7 +3937,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3938,14 +3947,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>66</v>
+        <v>171</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>227</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3954,14 +3963,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3971,14 +3980,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3987,7 +3996,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4004,14 +4013,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>14</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4033,7 +4042,7 @@
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
@@ -4060,13 +4069,13 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
@@ -4074,7 +4083,7 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>188</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>20</v>
@@ -4086,14 +4095,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4103,14 +4112,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>123</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>64</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4119,14 +4128,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>238</v>
+        <v>75</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4140,10 +4149,10 @@
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>75</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4152,14 +4161,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4169,14 +4178,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>123</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4185,14 +4194,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4202,14 +4211,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>188</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>246</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4218,14 +4227,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>22</v>
+        <v>247</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4239,10 +4248,10 @@
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
+        <v>191</v>
+      </c>
+      <c t="s" r="Q87" s="12">
         <v>249</v>
-      </c>
-      <c t="s" r="Q87" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4291,7 +4300,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>254</v>
+        <v>22</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4301,7 +4310,7 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>110</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
@@ -4324,17 +4333,17 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>22</v>
+        <v>257</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>110</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
@@ -4357,7 +4366,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>260</v>
+        <v>22</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4367,7 +4376,7 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>187</v>
+        <v>260</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
@@ -4390,7 +4399,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>22</v>
+        <v>263</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4400,11 +4409,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>20</v>
@@ -4416,14 +4425,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>264</v>
+        <v>22</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4433,14 +4442,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>188</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4449,14 +4458,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>22</v>
+        <v>267</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4466,14 +4475,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>266</v>
+        <v>190</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>267</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4489,7 +4498,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4499,11 +4508,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>20</v>
@@ -4515,14 +4524,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>270</v>
+        <v>39</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4532,14 +4541,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4548,14 +4557,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4565,14 +4574,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>101</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4588,7 +4597,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>20</v>
+        <v>277</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4598,14 +4607,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>129</v>
+        <v>278</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>130</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>20</v>
+        <v>101</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4614,14 +4623,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>278</v>
+        <v>20</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4631,11 +4640,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>279</v>
+        <v>129</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>20</v>
@@ -4654,7 +4663,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>22</v>
+        <v>281</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4664,11 +4673,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>165</v>
+        <v>282</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>166</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>20</v>
@@ -4680,14 +4689,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4697,11 +4706,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>282</v>
+        <v>168</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>20</v>
@@ -4730,14 +4739,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>245</v>
+        <v>285</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>238</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4746,7 +4755,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4763,14 +4772,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>188</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4779,14 +4788,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4796,14 +4805,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>290</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>22</v>
+        <v>241</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4819,7 +4828,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4836,7 +4845,7 @@
         <v>293</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4852,7 +4861,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4885,7 +4894,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>298</v>
+        <v>39</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4895,11 +4904,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>20</v>
@@ -4911,14 +4920,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4928,11 +4937,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>165</v>
+        <v>298</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>166</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>20</v>
@@ -4944,14 +4953,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>39</v>
+        <v>303</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4961,14 +4970,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4977,14 +4986,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>270</v>
+        <v>39</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4994,14 +5003,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>261</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5010,14 +5019,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5027,11 +5036,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>185</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>20</v>
@@ -5043,14 +5052,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>224</v>
+        <v>273</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5060,11 +5069,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>271</v>
+        <v>120</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>285</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>20</v>
@@ -5076,14 +5085,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>278</v>
+        <v>227</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5093,11 +5102,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>20</v>
@@ -5116,7 +5125,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>26</v>
+        <v>281</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5137,38 +5146,71 @@
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
-      <c r="P115" s="13">
-        <v>8101.6049999999996</v>
-      </c>
-      <c r="Q115" s="13"/>
-    </row>
-    <row r="116" ht="16.5" customHeight="1">
-      <c t="s" r="A116" s="14">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
         <v>311</v>
       </c>
-      <c r="B116" s="14"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c t="s" r="G116" s="15">
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>26</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>35</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
         <v>312</v>
       </c>
-      <c r="H116" s="15"/>
-      <c r="I116" s="15"/>
-      <c r="J116" s="16"/>
-      <c t="s" r="K116" s="17">
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
         <v>313</v>
       </c>
-      <c r="L116" s="17"/>
-      <c r="M116" s="17"/>
-      <c r="N116" s="17"/>
-      <c r="O116" s="17"/>
-      <c r="P116" s="17"/>
-      <c r="Q116" s="17"/>
+      <c t="s" r="Q115" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="P116" s="13">
+        <v>8120.6049999999996</v>
+      </c>
+      <c r="Q116" s="13"/>
+    </row>
+    <row r="117" ht="16.5" customHeight="1">
+      <c t="s" r="A117" s="14">
+        <v>314</v>
+      </c>
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c t="s" r="G117" s="15">
+        <v>315</v>
+      </c>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="16"/>
+      <c t="s" r="K117" s="17">
+        <v>316</v>
+      </c>
+      <c r="L117" s="17"/>
+      <c r="M117" s="17"/>
+      <c r="N117" s="17"/>
+      <c r="O117" s="17"/>
+      <c r="P117" s="17"/>
+      <c r="Q117" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="552">
+  <mergeCells count="557">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5717,10 +5759,15 @@
     <mergeCell ref="H114:K114"/>
     <mergeCell ref="L114:M114"/>
     <mergeCell ref="N114:O114"/>
-    <mergeCell ref="P115:Q115"/>
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="G116:I116"/>
-    <mergeCell ref="K116:Q116"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="G117:I117"/>
+    <mergeCell ref="K117:Q117"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -137,6 +137,18 @@
     <t>102.0000</t>
   </si>
   <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>7.6800</t>
+  </si>
+  <si>
     <t>BETAFOS 1 AMP. 2ML</t>
   </si>
   <si>
@@ -302,231 +314,240 @@
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
   </si>
   <si>
+    <t>4:4</t>
+  </si>
+  <si>
     <t>65.00</t>
   </si>
   <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>DIASMECT 20% SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>DIGENORM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
+    <t>DIGESTIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>DUSPATALIN RETARD 200 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>EPICOPRED 20 MG 20 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>104.00</t>
+  </si>
+  <si>
+    <t>104.0000</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>7:5</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>7.9200</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>GELBLEND ACTIVE GEL</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
+    <t>GELBLEND HYDRA MOIST</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>175.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GET WHITE  CREAM</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>GLYCERIN ADULT 10 SUSP 1.47G</t>
+  </si>
+  <si>
+    <t>11.0000</t>
+  </si>
+  <si>
+    <t>INDERAL 10 MG 50 TABS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>201.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>L-CARNITINE 300MG/ML SYRUP 30ML</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>LEZBERG PLUS 40/12.5MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>117.0000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>79.6800</t>
+  </si>
+  <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>MEGAMOX 457MG/5ML SUSP. 70ML</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>MELACRYST 3 MG 20 ORO-DISPERSIBLE FILMS</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>MIDODRINE 2.5MG 20 TAB</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
     <t>39.0000</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>DIASMECT 20% SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>DIGENORM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>110.0000</t>
-  </si>
-  <si>
-    <t>DIGESTIN 20 TABLETS</t>
-  </si>
-  <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>DUSPATALIN RETARD 200 MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>EPICOPRED 20 MG 20 ORODISPERSIBLE TABS.</t>
-  </si>
-  <si>
-    <t>104.00</t>
-  </si>
-  <si>
-    <t>104.0000</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>7:5</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>7.9200</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>GELBLEND ACTIVE GEL</t>
-  </si>
-  <si>
-    <t>140.00</t>
-  </si>
-  <si>
-    <t>140.0000</t>
-  </si>
-  <si>
-    <t>GELBLEND HYDRA MOIST</t>
-  </si>
-  <si>
-    <t>175.00</t>
-  </si>
-  <si>
-    <t>175.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GET WHITE  CREAM</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>GLYCERIN ADULT 10 SUSP 1.47G</t>
-  </si>
-  <si>
-    <t>11.0000</t>
-  </si>
-  <si>
-    <t>INDERAL 10 MG 50 TABS</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
-  </si>
-  <si>
-    <t>67.00</t>
-  </si>
-  <si>
-    <t>134.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>L-CARNITINE 300MG/ML SYRUP 30ML</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>LEZBERG PLUS 40/12.5MG 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>117.0000</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>79.6800</t>
-  </si>
-  <si>
-    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>114.0000</t>
-  </si>
-  <si>
-    <t>MEGAMOX 457MG/5ML SUSP. 70ML</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
-    <t>MELACRYST 3 MG 20 ORO-DISPERSIBLE FILMS</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>MIDODRINE 2.5MG 20 TAB</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
     <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
   </si>
   <si>
@@ -575,9 +596,6 @@
     <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
   </si>
   <si>
@@ -830,111 +848,120 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
+    <t>23:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>حلق</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>حمام كريم فاتيكا 900 جم</t>
+  </si>
+  <si>
+    <t>رول اون ريكسونا25</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>زولا ركبه</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>شاش 5سم</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>شامبو صانسيك 350مل</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شامبو نونو 200ملل </t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>صابونه دوف SOAP</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>صوفي طويل جدا</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>ماكينه حلاقه جليت فليكتور</t>
+  </si>
+  <si>
     <t>24:0</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>حلق</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>حمام كريم فاتيكا 900 جم</t>
-  </si>
-  <si>
-    <t>رول اون ريكسونا25</t>
-  </si>
-  <si>
-    <t>13:0</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>زولا ركبه</t>
-  </si>
-  <si>
-    <t>سرنجات 10 سم</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>مرطب شفاه لونا جوز هند ابيض</t>
   </si>
   <si>
     <t>20.0000</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>شاش 5سم</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>شامبو صانسيك 350مل</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شامبو نونو 200ملل </t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>صابونه دوف SOAP</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>صوفي طويل جدا</t>
-  </si>
-  <si>
-    <t>12:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>ماكينه حلاقه جليت فليكتور</t>
-  </si>
-  <si>
-    <t>محلول ملح</t>
-  </si>
-  <si>
-    <t>مرطب شفاه لونا جوز هند ابيض</t>
-  </si>
-  <si>
     <t>مرهم راسب ابيض</t>
   </si>
   <si>
@@ -953,7 +980,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 7:17 PM</t>
+    <t>Monday, 6 October, 2025 7:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1825,7 +1852,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1835,14 +1862,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1851,14 +1878,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1868,11 +1895,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>20</v>
@@ -1884,7 +1911,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1901,11 +1928,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>20</v>
@@ -1917,14 +1944,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1934,14 +1961,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1950,14 +1977,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1967,14 +1994,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1983,7 +2010,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -2000,11 +2027,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>20</v>
@@ -2016,28 +2043,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>20</v>
@@ -2049,28 +2076,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>20</v>
@@ -2082,14 +2109,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2099,14 +2126,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2115,31 +2142,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2148,20 +2175,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -2172,7 +2199,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2181,14 +2208,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2198,14 +2225,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2214,7 +2241,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2231,11 +2258,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2247,14 +2274,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2264,14 +2291,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2280,14 +2307,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2297,14 +2324,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2313,14 +2340,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2330,14 +2357,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2346,14 +2373,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2363,14 +2390,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2379,14 +2406,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2396,14 +2423,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2412,14 +2439,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2429,14 +2456,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q32" s="12">
         <v>98</v>
-      </c>
-      <c t="s" r="Q32" s="12">
-        <v>99</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2469,7 +2496,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2478,14 +2505,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2495,14 +2522,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2511,14 +2538,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2528,14 +2555,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2544,14 +2571,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2561,14 +2588,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>94</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2577,14 +2604,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2594,14 +2621,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2610,14 +2637,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2627,14 +2654,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2643,14 +2670,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2667,7 +2694,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>94</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2683,7 +2710,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2693,14 +2720,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2709,14 +2736,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2726,11 +2753,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2742,28 +2769,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>20</v>
@@ -2775,7 +2802,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2792,11 +2819,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2808,7 +2835,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2825,11 +2852,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>20</v>
@@ -2841,14 +2868,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2858,14 +2885,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2874,31 +2901,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2914,7 +2941,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2924,14 +2951,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2940,14 +2967,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2957,14 +2984,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2973,7 +3000,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2990,11 +3017,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -3006,14 +3033,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>39</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3023,14 +3050,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>91</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3039,14 +3066,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3056,11 +3083,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>95</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -3072,14 +3099,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3089,14 +3116,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>110</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>139</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3105,14 +3132,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>75</v>
+        <v>162</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3122,14 +3149,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>44</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>22</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3138,14 +3165,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3155,14 +3182,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3171,14 +3198,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3188,11 +3215,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>20</v>
@@ -3204,14 +3231,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3221,11 +3248,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
@@ -3237,14 +3264,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3254,11 +3281,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>98</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -3270,14 +3297,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3287,11 +3314,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>98</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -3303,7 +3330,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3320,11 +3347,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -3336,7 +3363,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3353,14 +3380,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3369,31 +3396,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3402,28 +3429,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>20</v>
@@ -3435,14 +3462,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3452,14 +3479,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>43</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3468,14 +3495,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3485,14 +3512,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>120</v>
+        <v>47</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3501,14 +3528,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3518,14 +3545,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>124</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3534,14 +3561,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>193</v>
+        <v>106</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3551,14 +3578,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>103</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3567,14 +3594,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>30</v>
+        <v>199</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3584,11 +3611,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3600,31 +3627,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3633,7 +3660,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3646,18 +3673,18 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>149</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3666,31 +3693,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>154</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>98</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3699,31 +3726,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>207</v>
+        <v>39</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>210</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3732,14 +3759,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3749,14 +3776,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>171</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3765,14 +3792,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>39</v>
+        <v>218</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3782,14 +3809,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>184</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3798,7 +3825,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3815,11 +3842,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>20</v>
@@ -3831,7 +3858,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3844,15 +3871,15 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>46</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>47</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>20</v>
@@ -3864,28 +3891,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>20</v>
@@ -3897,14 +3924,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3914,11 +3941,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>20</v>
@@ -3930,14 +3957,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3947,14 +3974,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>171</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>227</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3963,14 +3990,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3980,14 +4007,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>66</v>
+        <v>177</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>233</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3996,14 +4023,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4013,14 +4040,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4029,7 +4056,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4046,14 +4073,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>14</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4062,7 +4089,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4075,15 +4102,15 @@
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>20</v>
@@ -4095,28 +4122,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>20</v>
@@ -4128,14 +4155,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4145,14 +4172,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>123</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>64</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4161,14 +4188,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4178,14 +4205,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>20</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4194,14 +4221,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4211,14 +4238,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>127</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4227,14 +4254,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4244,14 +4271,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>191</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>249</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4260,14 +4287,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>22</v>
+        <v>253</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4277,14 +4304,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>20</v>
+        <v>255</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4293,7 +4320,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4310,11 +4337,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>20</v>
@@ -4326,14 +4353,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>257</v>
+        <v>22</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4343,11 +4370,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>110</v>
+        <v>260</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>20</v>
@@ -4359,28 +4386,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>22</v>
+        <v>263</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>260</v>
+        <v>44</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>20</v>
@@ -4392,14 +4419,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>263</v>
+        <v>22</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4409,11 +4436,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>190</v>
+        <v>266</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>20</v>
@@ -4425,14 +4452,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>22</v>
+        <v>269</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4442,11 +4469,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>20</v>
@@ -4458,14 +4485,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>267</v>
+        <v>22</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4475,14 +4502,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>191</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4491,14 +4518,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>22</v>
+        <v>273</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4508,14 +4535,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>269</v>
+        <v>196</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>270</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4524,14 +4551,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4541,11 +4568,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>20</v>
@@ -4557,14 +4584,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>273</v>
+        <v>39</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4574,14 +4601,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4590,14 +4617,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4607,14 +4634,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>101</v>
+        <v>79</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4623,14 +4650,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>20</v>
+        <v>283</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4640,14 +4667,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>129</v>
+        <v>284</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>130</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>20</v>
+        <v>106</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4656,14 +4683,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>281</v>
+        <v>20</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4673,11 +4700,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>282</v>
+        <v>133</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>20</v>
@@ -4689,14 +4716,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>22</v>
+        <v>288</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4706,11 +4733,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>168</v>
+        <v>289</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>169</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>20</v>
@@ -4722,14 +4749,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4739,11 +4766,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>285</v>
+        <v>174</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>286</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>20</v>
@@ -4755,7 +4782,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4772,14 +4799,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>248</v>
+        <v>292</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>241</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4788,7 +4815,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4805,14 +4832,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>290</v>
+        <v>254</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>191</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>241</v>
+        <v>295</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4821,14 +4848,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4838,14 +4865,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>293</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>22</v>
+        <v>247</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4854,14 +4881,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4871,14 +4898,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4887,14 +4914,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4904,11 +4931,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>20</v>
@@ -4920,14 +4947,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>301</v>
+        <v>39</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4937,11 +4964,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>20</v>
@@ -4953,14 +4980,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4970,11 +4997,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>168</v>
+        <v>305</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>169</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>20</v>
@@ -4986,14 +5013,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>39</v>
+        <v>310</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5003,14 +5030,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5019,14 +5046,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>273</v>
+        <v>39</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5036,14 +5063,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>264</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>20</v>
+        <v>233</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5052,14 +5079,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>273</v>
+        <v>313</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5069,11 +5096,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>120</v>
+        <v>196</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>188</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>20</v>
@@ -5085,14 +5112,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>227</v>
+        <v>279</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5102,14 +5129,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>274</v>
+        <v>124</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5118,14 +5145,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>281</v>
+        <v>233</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5135,11 +5162,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>309</v>
+        <v>280</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>20</v>
@@ -5151,14 +5178,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>26</v>
+        <v>288</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5168,49 +5195,82 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
-      <c r="P116" s="13">
-        <v>8120.6049999999996</v>
-      </c>
-      <c r="Q116" s="13"/>
-    </row>
-    <row r="117" ht="16.5" customHeight="1">
-      <c t="s" r="A117" s="14">
-        <v>314</v>
-      </c>
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c t="s" r="G117" s="15">
-        <v>315</v>
-      </c>
-      <c r="H117" s="15"/>
-      <c r="I117" s="15"/>
-      <c r="J117" s="16"/>
-      <c t="s" r="K117" s="17">
-        <v>316</v>
-      </c>
-      <c r="L117" s="17"/>
-      <c r="M117" s="17"/>
-      <c r="N117" s="17"/>
-      <c r="O117" s="17"/>
-      <c r="P117" s="17"/>
-      <c r="Q117" s="17"/>
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>320</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>26</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>35</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>321</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>322</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="P117" s="13">
+        <v>8281.2849999999999</v>
+      </c>
+      <c r="Q117" s="13"/>
+    </row>
+    <row r="118" ht="16.5" customHeight="1">
+      <c t="s" r="A118" s="14">
+        <v>323</v>
+      </c>
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c t="s" r="G118" s="15">
+        <v>324</v>
+      </c>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="16"/>
+      <c t="s" r="K118" s="17">
+        <v>325</v>
+      </c>
+      <c r="L118" s="17"/>
+      <c r="M118" s="17"/>
+      <c r="N118" s="17"/>
+      <c r="O118" s="17"/>
+      <c r="P118" s="17"/>
+      <c r="Q118" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="557">
+  <mergeCells count="562">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5764,10 +5824,15 @@
     <mergeCell ref="H115:K115"/>
     <mergeCell ref="L115:M115"/>
     <mergeCell ref="N115:O115"/>
-    <mergeCell ref="P116:Q116"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="G117:I117"/>
-    <mergeCell ref="K117:Q117"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="P117:Q117"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="G118:I118"/>
+    <mergeCell ref="K118:Q118"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -254,9 +254,6 @@
     <t>COUGHSED PARACETAMOL CHILDREN 12 SUPP</t>
   </si>
   <si>
-    <t>29.0000</t>
-  </si>
-  <si>
     <t>CURAM 1GM 12 F.C. TABS.</t>
   </si>
   <si>
@@ -578,6 +575,9 @@
     <t>180.0000</t>
   </si>
   <si>
+    <t>NORHINOSE 50MCG/DOSE NASAL SPRAY 120 DOSES</t>
+  </si>
+  <si>
     <t>OMEGA P SYRUP 120 ML</t>
   </si>
   <si>
@@ -980,7 +980,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 7:19 PM</t>
+    <t>Monday, 6 October, 2025 7:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2248,7 +2248,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2262,10 +2262,10 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2274,7 +2274,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2291,11 +2291,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2324,11 +2324,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>20</v>
@@ -2340,7 +2340,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2357,11 +2357,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2373,14 +2373,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2394,7 +2394,7 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>30</v>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2423,11 +2423,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2439,14 +2439,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2460,10 +2460,10 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2472,14 +2472,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2489,14 +2489,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q33" s="12">
         <v>103</v>
-      </c>
-      <c t="s" r="Q33" s="12">
-        <v>104</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2505,14 +2505,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2522,11 +2522,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>20</v>
@@ -2538,7 +2538,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2559,7 +2559,7 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>22</v>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2592,7 +2592,7 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>20</v>
@@ -2604,14 +2604,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2625,10 +2625,10 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2637,7 +2637,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2654,11 +2654,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2670,7 +2670,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2687,11 +2687,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>20</v>
@@ -2703,14 +2703,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2720,14 +2720,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2736,14 +2736,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2753,11 +2753,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2769,7 +2769,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2786,11 +2786,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>20</v>
@@ -2802,7 +2802,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2819,11 +2819,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2852,11 +2852,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>20</v>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2885,11 +2885,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>20</v>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2918,11 +2918,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2934,14 +2934,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2951,11 +2951,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>20</v>
@@ -2967,7 +2967,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2984,11 +2984,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>79</v>
@@ -3000,7 +3000,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -3017,11 +3017,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -3033,14 +3033,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3050,14 +3050,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3066,7 +3066,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3083,11 +3083,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -3099,14 +3099,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3116,11 +3116,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>20</v>
@@ -3132,14 +3132,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3153,10 +3153,10 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3165,7 +3165,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3182,11 +3182,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>22</v>
@@ -3198,7 +3198,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3215,11 +3215,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>20</v>
@@ -3231,7 +3231,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3248,11 +3248,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3281,11 +3281,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3314,11 +3314,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -3330,7 +3330,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3347,11 +3347,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -3363,7 +3363,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3380,11 +3380,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -3396,7 +3396,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3413,11 +3413,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3446,11 +3446,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>20</v>
@@ -3462,14 +3462,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3479,11 +3479,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>20</v>
@@ -3495,14 +3495,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3512,14 +3512,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>47</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3528,14 +3528,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3545,14 +3545,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>124</v>
+        <v>47</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>155</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3561,14 +3561,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3578,14 +3578,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>123</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3594,14 +3594,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>199</v>
+        <v>105</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3611,14 +3611,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>108</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3627,14 +3627,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>30</v>
+        <v>199</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3644,11 +3644,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3660,31 +3660,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3693,7 +3693,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3706,18 +3706,18 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>154</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3726,31 +3726,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>153</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>97</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3759,31 +3759,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>213</v>
+        <v>39</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>216</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3792,14 +3792,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3809,14 +3809,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>177</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>216</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3825,14 +3825,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>39</v>
+        <v>218</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3842,14 +3842,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3858,7 +3858,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3875,11 +3875,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>190</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>20</v>
@@ -3891,7 +3891,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3904,15 +3904,15 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>50</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>51</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>20</v>
@@ -3924,28 +3924,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>226</v>
+        <v>50</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>20</v>
@@ -3957,14 +3957,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3974,11 +3974,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>20</v>
@@ -3990,14 +3990,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4007,14 +4007,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>177</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>233</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4023,14 +4023,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4040,14 +4040,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>70</v>
+        <v>176</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>233</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4056,14 +4056,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4073,14 +4073,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4089,7 +4089,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4106,14 +4106,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4122,7 +4122,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4135,15 +4135,15 @@
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>20</v>
@@ -4155,28 +4155,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>197</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>20</v>
@@ -4188,14 +4188,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4205,14 +4205,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>127</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>68</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4221,14 +4221,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>247</v>
+        <v>79</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4238,14 +4238,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>20</v>
+        <v>79</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4254,14 +4254,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4271,14 +4271,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>126</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>251</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4287,14 +4287,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4304,14 +4304,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>197</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>255</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4320,14 +4320,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>22</v>
+        <v>253</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4337,14 +4337,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>258</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>20</v>
+        <v>255</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4353,7 +4353,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4370,11 +4370,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>20</v>
@@ -4386,14 +4386,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>263</v>
+        <v>22</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4403,11 +4403,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>44</v>
+        <v>260</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>20</v>
@@ -4419,28 +4419,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>22</v>
+        <v>263</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>266</v>
+        <v>44</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>20</v>
@@ -4452,14 +4452,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>269</v>
+        <v>22</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4469,11 +4469,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>20</v>
@@ -4485,14 +4485,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>22</v>
+        <v>269</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4518,14 +4518,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>273</v>
+        <v>22</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4539,10 +4539,10 @@
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>197</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4551,14 +4551,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>22</v>
+        <v>273</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4568,14 +4568,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>275</v>
+        <v>196</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>276</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4584,14 +4584,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4601,11 +4601,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>20</v>
@@ -4617,14 +4617,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>279</v>
+        <v>39</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4634,14 +4634,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4650,14 +4650,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4667,14 +4667,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>106</v>
+        <v>79</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4683,14 +4683,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>20</v>
+        <v>283</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4700,14 +4700,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>133</v>
+        <v>284</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>134</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>20</v>
+        <v>105</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4716,14 +4716,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>288</v>
+        <v>20</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4733,11 +4733,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>289</v>
+        <v>132</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>20</v>
@@ -4749,14 +4749,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>22</v>
+        <v>288</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4766,11 +4766,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>174</v>
+        <v>289</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>175</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>20</v>
@@ -4782,14 +4782,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4799,11 +4799,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>292</v>
+        <v>173</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>293</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>20</v>
@@ -4815,7 +4815,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4832,14 +4832,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>254</v>
+        <v>292</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>131</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>295</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4848,7 +4848,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4865,14 +4865,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>297</v>
+        <v>254</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>197</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>247</v>
+        <v>295</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4881,14 +4881,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4898,14 +4898,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>300</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>22</v>
+        <v>247</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4914,14 +4914,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4931,14 +4931,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4947,14 +4947,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4964,11 +4964,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>20</v>
@@ -4980,14 +4980,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>308</v>
+        <v>39</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5013,14 +5013,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5030,11 +5030,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>174</v>
+        <v>305</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>175</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>20</v>
@@ -5046,14 +5046,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>39</v>
+        <v>310</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5063,14 +5063,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>233</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5079,14 +5079,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>313</v>
+        <v>39</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5100,10 +5100,10 @@
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>270</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>20</v>
+        <v>233</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5112,14 +5112,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5129,14 +5129,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>124</v>
+        <v>196</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5145,14 +5145,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>233</v>
+        <v>279</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5162,14 +5162,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>280</v>
+        <v>123</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>316</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5178,14 +5178,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>288</v>
+        <v>233</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5195,11 +5195,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>318</v>
+        <v>280</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>20</v>
@@ -5211,14 +5211,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>26</v>
+        <v>288</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5228,49 +5228,82 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
+        <v>319</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>320</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>26</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>35</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>321</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
         <v>322</v>
       </c>
-      <c t="s" r="Q116" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="117" ht="25.5" customHeight="1">
-      <c r="P117" s="13">
-        <v>8281.2849999999999</v>
-      </c>
-      <c r="Q117" s="13"/>
-    </row>
-    <row r="118" ht="16.5" customHeight="1">
-      <c t="s" r="A118" s="14">
+      <c t="s" r="Q117" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="P118" s="13">
+        <v>8400.2849999999999</v>
+      </c>
+      <c r="Q118" s="13"/>
+    </row>
+    <row r="119" ht="16.5" customHeight="1">
+      <c t="s" r="A119" s="14">
         <v>323</v>
       </c>
-      <c r="B118" s="14"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
-      <c t="s" r="G118" s="15">
+      <c r="B119" s="14"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
+      <c t="s" r="G119" s="15">
         <v>324</v>
       </c>
-      <c r="H118" s="15"/>
-      <c r="I118" s="15"/>
-      <c r="J118" s="16"/>
-      <c t="s" r="K118" s="17">
+      <c r="H119" s="15"/>
+      <c r="I119" s="15"/>
+      <c r="J119" s="16"/>
+      <c t="s" r="K119" s="17">
         <v>325</v>
       </c>
-      <c r="L118" s="17"/>
-      <c r="M118" s="17"/>
-      <c r="N118" s="17"/>
-      <c r="O118" s="17"/>
-      <c r="P118" s="17"/>
-      <c r="Q118" s="17"/>
+      <c r="L119" s="17"/>
+      <c r="M119" s="17"/>
+      <c r="N119" s="17"/>
+      <c r="O119" s="17"/>
+      <c r="P119" s="17"/>
+      <c r="Q119" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="562">
+  <mergeCells count="567">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5829,10 +5862,15 @@
     <mergeCell ref="H116:K116"/>
     <mergeCell ref="L116:M116"/>
     <mergeCell ref="N116:O116"/>
-    <mergeCell ref="P117:Q117"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="G118:I118"/>
-    <mergeCell ref="K118:Q118"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="P118:Q118"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="G119:I119"/>
+    <mergeCell ref="K119:Q119"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -212,6 +212,15 @@
     <t>265.0000</t>
   </si>
   <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
     <t>CEPOREX 1GM 8 TABLETS</t>
   </si>
   <si>
@@ -941,9 +950,6 @@
     <t>صوفي طويل جدا</t>
   </si>
   <si>
-    <t>12:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -980,7 +986,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 7:39 PM</t>
+    <t>Monday, 6 October, 2025 7:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2116,7 +2122,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2126,14 +2132,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2142,14 +2148,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2159,14 +2165,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2182,13 +2188,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -2199,7 +2205,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2215,24 +2221,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2241,14 +2247,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2258,14 +2264,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2274,14 +2280,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2291,14 +2297,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2314,7 +2320,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2331,7 +2337,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2347,7 +2353,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2364,7 +2370,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2380,7 +2386,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2390,14 +2396,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2413,7 +2419,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2423,14 +2429,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2446,7 +2452,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2456,14 +2462,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2489,14 +2495,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2505,14 +2511,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2522,14 +2528,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2538,14 +2544,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2555,14 +2561,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2571,14 +2577,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2588,14 +2594,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2604,14 +2610,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2621,14 +2627,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>97</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2644,7 +2650,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2654,14 +2660,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2677,7 +2683,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2694,7 +2700,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2710,7 +2716,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2720,14 +2726,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>97</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2736,14 +2742,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2760,7 +2766,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2776,7 +2782,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2809,13 +2815,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2889,7 +2895,7 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>20</v>
@@ -2901,14 +2907,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2918,14 +2924,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2934,31 +2940,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2967,14 +2973,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>39</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2991,7 +2997,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3007,7 +3013,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3024,7 +3030,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3040,7 +3046,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3050,14 +3056,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3066,14 +3072,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>39</v>
+        <v>155</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3083,14 +3089,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>94</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3099,14 +3105,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3116,7 +3122,7 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>97</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
@@ -3139,7 +3145,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>161</v>
+        <v>100</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3149,14 +3155,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>142</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3172,7 +3178,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3182,14 +3188,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>44</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>22</v>
+        <v>145</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3205,7 +3211,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3222,7 +3228,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3238,7 +3244,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3271,7 +3277,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3304,7 +3310,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3337,7 +3343,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3347,11 +3353,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -3363,7 +3369,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3380,11 +3386,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -3420,7 +3426,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3436,13 +3442,13 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3453,7 +3459,7 @@
         <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3475,15 +3481,15 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>20</v>
@@ -3495,14 +3501,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3512,11 +3518,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>20</v>
@@ -3535,7 +3541,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3545,14 +3551,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>47</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3561,14 +3567,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3578,14 +3584,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>154</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3594,14 +3600,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3611,14 +3617,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>126</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3634,7 +3640,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>199</v>
+        <v>108</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3644,14 +3650,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>107</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3667,7 +3673,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>30</v>
+        <v>202</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3677,11 +3683,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3700,13 +3706,13 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
@@ -3717,7 +3723,7 @@
         <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3739,18 +3745,18 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>153</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3759,31 +3765,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>156</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3799,24 +3805,24 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>213</v>
+        <v>39</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>216</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3825,14 +3831,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3842,14 +3848,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>176</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
+        <v>218</v>
+      </c>
+      <c t="s" r="Q74" s="12">
         <v>219</v>
-      </c>
-      <c t="s" r="Q74" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3865,7 +3871,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>39</v>
+        <v>221</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3875,14 +3881,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3891,7 +3897,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3908,11 +3914,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>20</v>
@@ -3937,15 +3943,15 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>50</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>51</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>20</v>
@@ -3957,28 +3963,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>50</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>20</v>
@@ -3997,7 +4003,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4030,7 +4036,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4040,14 +4046,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>176</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>233</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4063,7 +4069,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4073,14 +4079,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>70</v>
+        <v>179</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>236</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4089,14 +4095,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4106,14 +4112,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4122,7 +4128,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4139,14 +4145,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4168,7 +4174,7 @@
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
@@ -4195,13 +4201,13 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
@@ -4209,7 +4215,7 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>197</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>20</v>
@@ -4221,14 +4227,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4238,14 +4244,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>126</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>68</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4254,14 +4260,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>247</v>
+        <v>82</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4271,14 +4277,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>82</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4287,14 +4293,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4304,14 +4310,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>129</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4320,14 +4326,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4337,14 +4343,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>197</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>255</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4353,14 +4359,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>22</v>
+        <v>256</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4374,10 +4380,10 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
+        <v>200</v>
+      </c>
+      <c t="s" r="Q90" s="12">
         <v>258</v>
-      </c>
-      <c t="s" r="Q90" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4426,7 +4432,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>263</v>
+        <v>22</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4436,7 +4442,7 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>44</v>
+        <v>263</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
@@ -4459,17 +4465,17 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>22</v>
+        <v>266</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>266</v>
+        <v>44</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
@@ -4492,7 +4498,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>269</v>
+        <v>22</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4502,7 +4508,7 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>196</v>
+        <v>269</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
@@ -4525,7 +4531,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4535,11 +4541,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>20</v>
@@ -4551,14 +4557,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>273</v>
+        <v>22</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4568,14 +4574,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>197</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4584,14 +4590,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>22</v>
+        <v>276</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4601,14 +4607,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>275</v>
+        <v>199</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>276</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4624,7 +4630,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4634,11 +4640,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>20</v>
@@ -4650,14 +4656,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>279</v>
+        <v>39</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4667,14 +4673,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4683,14 +4689,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4700,14 +4706,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>105</v>
+        <v>82</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4716,14 +4722,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>20</v>
+        <v>286</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4733,14 +4739,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>132</v>
+        <v>287</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>133</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>20</v>
+        <v>108</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4749,14 +4755,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>288</v>
+        <v>20</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4766,11 +4772,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>289</v>
+        <v>135</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>20</v>
@@ -4789,7 +4795,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>22</v>
+        <v>291</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4799,11 +4805,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>173</v>
+        <v>292</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>174</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>20</v>
@@ -4815,14 +4821,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4832,11 +4838,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>292</v>
+        <v>176</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>293</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>20</v>
@@ -4865,14 +4871,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>254</v>
+        <v>295</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>130</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>295</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4881,7 +4887,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4898,14 +4904,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>297</v>
+        <v>257</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>197</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>247</v>
+        <v>298</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4914,14 +4920,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4931,14 +4937,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>22</v>
+        <v>250</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4954,7 +4960,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4971,7 +4977,7 @@
         <v>303</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4987,7 +4993,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5020,7 +5026,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>308</v>
+        <v>39</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5030,11 +5036,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>20</v>
@@ -5046,14 +5052,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5063,11 +5069,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>173</v>
+        <v>308</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>174</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>20</v>
@@ -5079,14 +5085,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5096,14 +5102,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>233</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5112,14 +5118,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>313</v>
+        <v>39</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5129,14 +5135,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>270</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>20</v>
+        <v>236</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5152,7 +5158,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5162,14 +5168,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>123</v>
+        <v>199</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5178,14 +5184,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5195,14 +5201,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>280</v>
+        <v>126</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>316</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5218,7 +5224,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>288</v>
+        <v>236</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5228,11 +5234,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>318</v>
+        <v>283</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>20</v>
@@ -5244,14 +5250,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>26</v>
+        <v>291</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5261,49 +5267,82 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
+        <v>321</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
         <v>322</v>
       </c>
-      <c t="s" r="Q117" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="118" ht="24.75" customHeight="1">
-      <c r="P118" s="13">
-        <v>8400.2849999999999</v>
-      </c>
-      <c r="Q118" s="13"/>
-    </row>
-    <row r="119" ht="16.5" customHeight="1">
-      <c t="s" r="A119" s="14">
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>26</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>35</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
         <v>323</v>
       </c>
-      <c r="B119" s="14"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="14"/>
-      <c t="s" r="G119" s="15">
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
         <v>324</v>
       </c>
-      <c r="H119" s="15"/>
-      <c r="I119" s="15"/>
-      <c r="J119" s="16"/>
-      <c t="s" r="K119" s="17">
+      <c t="s" r="Q118" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="P119" s="13">
+        <v>8486.2849999999999</v>
+      </c>
+      <c r="Q119" s="13"/>
+    </row>
+    <row r="120" ht="16.5" customHeight="1">
+      <c t="s" r="A120" s="14">
         <v>325</v>
       </c>
-      <c r="L119" s="17"/>
-      <c r="M119" s="17"/>
-      <c r="N119" s="17"/>
-      <c r="O119" s="17"/>
-      <c r="P119" s="17"/>
-      <c r="Q119" s="17"/>
+      <c r="B120" s="14"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c t="s" r="G120" s="15">
+        <v>326</v>
+      </c>
+      <c r="H120" s="15"/>
+      <c r="I120" s="15"/>
+      <c r="J120" s="16"/>
+      <c t="s" r="K120" s="17">
+        <v>327</v>
+      </c>
+      <c r="L120" s="17"/>
+      <c r="M120" s="17"/>
+      <c r="N120" s="17"/>
+      <c r="O120" s="17"/>
+      <c r="P120" s="17"/>
+      <c r="Q120" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="567">
+  <mergeCells count="572">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5867,10 +5906,15 @@
     <mergeCell ref="H117:K117"/>
     <mergeCell ref="L117:M117"/>
     <mergeCell ref="N117:O117"/>
-    <mergeCell ref="P118:Q118"/>
-    <mergeCell ref="A119:F119"/>
-    <mergeCell ref="G119:I119"/>
-    <mergeCell ref="K119:Q119"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="P119:Q119"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="G120:I120"/>
+    <mergeCell ref="K120:Q120"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -359,10 +359,10 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>31.6800</t>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>0:3</t>
   </si>
   <si>
     <t>DUSPATALIN RETARD 200 MG 30 CAPS.</t>
@@ -443,6 +443,15 @@
     <t>11.0000</t>
   </si>
   <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
     <t>INDERAL 10 MG 50 TABS</t>
   </si>
   <si>
@@ -503,9 +512,6 @@
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>79.6800</t>
   </si>
   <si>
@@ -587,6 +593,12 @@
     <t>NORHINOSE 50MCG/DOSE NASAL SPRAY 120 DOSES</t>
   </si>
   <si>
+    <t>OLFEN 100MG S.R. 10 DEPOCAPS.</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>OMEGA P SYRUP 120 ML</t>
   </si>
   <si>
@@ -617,12 +629,12 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>3:2</t>
-  </si>
-  <si>
     <t>92.00</t>
   </si>
   <si>
+    <t>46.0000</t>
+  </si>
+  <si>
     <t>PANADOL COLD &amp; FLU DAY 24 F.C. TABS</t>
   </si>
   <si>
@@ -986,7 +998,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 7:40 PM</t>
+    <t>Monday, 6 October, 2025 7:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2664,10 +2676,10 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q38" s="12">
         <v>117</v>
-      </c>
-      <c t="s" r="Q38" s="12">
-        <v>100</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2980,7 +2992,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>30</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2990,14 +3002,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3006,14 +3018,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>39</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3030,7 +3042,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>82</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3046,7 +3058,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3063,7 +3075,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3079,7 +3091,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>155</v>
+        <v>22</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3089,14 +3101,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3105,14 +3117,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>39</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3122,14 +3134,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>97</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3138,14 +3150,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3155,7 +3167,7 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>97</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
@@ -3178,7 +3190,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>164</v>
+        <v>100</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3188,14 +3200,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>44</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>145</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3211,7 +3223,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3221,14 +3233,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>44</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>22</v>
+        <v>148</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3237,14 +3249,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3254,14 +3266,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3270,14 +3282,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3287,11 +3299,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -3303,14 +3315,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3320,11 +3332,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -3336,14 +3348,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3353,11 +3365,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -3369,14 +3381,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3386,11 +3398,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -3402,7 +3414,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3419,11 +3431,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -3435,7 +3447,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3452,14 +3464,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3468,31 +3480,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3501,7 +3513,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3514,15 +3526,15 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>20</v>
@@ -3534,14 +3546,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3551,11 +3563,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>20</v>
@@ -3567,14 +3579,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3584,14 +3596,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3600,14 +3612,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3617,11 +3629,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>126</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>157</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>20</v>
@@ -3633,14 +3645,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3650,7 +3662,7 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>47</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3673,7 +3685,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>202</v>
+        <v>108</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3683,14 +3695,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>126</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3699,14 +3711,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3716,14 +3728,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3732,28 +3744,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>100</v>
@@ -3765,14 +3777,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3782,14 +3794,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>156</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3798,14 +3810,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3815,14 +3827,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3831,14 +3843,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>216</v>
+        <v>20</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3848,14 +3860,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>159</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>219</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3864,31 +3876,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>221</v>
+        <v>39</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3897,14 +3909,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>39</v>
+        <v>220</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3914,14 +3926,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>223</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3937,7 +3949,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>39</v>
+        <v>225</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3947,14 +3959,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>181</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3976,15 +3988,15 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>51</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>20</v>
@@ -4003,7 +4015,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4036,21 +4048,21 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>50</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>20</v>
@@ -4062,14 +4074,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>108</v>
+        <v>22</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4079,14 +4091,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>179</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>236</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4095,14 +4107,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4112,14 +4124,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>73</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4128,14 +4140,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4145,14 +4157,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>14</v>
+        <v>181</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>30</v>
+        <v>240</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4161,14 +4173,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4178,14 +4190,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>73</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
         <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4207,18 +4219,18 @@
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>14</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4227,14 +4239,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4244,11 +4256,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>20</v>
@@ -4260,31 +4272,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>129</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>71</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>82</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4293,14 +4305,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4310,11 +4322,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>129</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>130</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>20</v>
@@ -4326,14 +4338,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>252</v>
+        <v>82</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4343,14 +4355,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>253</v>
+        <v>129</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4359,14 +4371,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4376,14 +4388,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>129</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>258</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4392,14 +4404,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>22</v>
+        <v>256</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4409,14 +4421,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4425,14 +4437,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>22</v>
+        <v>260</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4442,14 +4454,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>264</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>20</v>
+        <v>262</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4458,14 +4470,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>266</v>
+        <v>22</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4475,11 +4487,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>44</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>20</v>
@@ -4491,7 +4503,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4504,15 +4516,15 @@
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>20</v>
@@ -4524,28 +4536,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>199</v>
+        <v>44</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>20</v>
@@ -4557,7 +4569,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4574,11 +4586,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>199</v>
+        <v>273</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>20</v>
@@ -4607,14 +4619,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>200</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4623,7 +4635,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4640,11 +4652,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>278</v>
+        <v>203</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>20</v>
@@ -4656,14 +4668,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>39</v>
+        <v>280</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4673,14 +4685,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>269</v>
+        <v>203</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>270</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4696,7 +4708,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>282</v>
+        <v>22</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4706,14 +4718,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>82</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4722,14 +4734,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>286</v>
+        <v>39</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4739,14 +4751,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>108</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4755,14 +4767,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>20</v>
+        <v>286</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4772,14 +4784,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>135</v>
+        <v>287</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>136</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>20</v>
+        <v>82</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4788,14 +4800,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4805,14 +4817,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>98</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>20</v>
+        <v>108</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4828,7 +4840,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4838,11 +4850,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>177</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>20</v>
@@ -4861,7 +4873,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>39</v>
+        <v>295</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4871,11 +4883,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>296</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>20</v>
@@ -4894,7 +4906,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4904,14 +4916,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>257</v>
+        <v>178</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>298</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4920,7 +4932,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4937,14 +4949,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>250</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4960,7 +4972,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4970,14 +4982,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>302</v>
+        <v>261</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>303</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>22</v>
+        <v>302</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4986,14 +4998,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5003,14 +5015,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>306</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>20</v>
+        <v>254</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5019,14 +5031,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5036,14 +5048,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5052,14 +5064,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>311</v>
+        <v>20</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5069,11 +5081,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>20</v>
@@ -5085,14 +5097,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5102,11 +5114,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>176</v>
+        <v>312</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>177</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>20</v>
@@ -5118,14 +5130,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>39</v>
+        <v>315</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5135,14 +5147,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>199</v>
+        <v>312</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>174</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>236</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5151,14 +5163,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>315</v>
+        <v>68</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5168,11 +5180,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>273</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>20</v>
@@ -5184,14 +5196,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>282</v>
+        <v>39</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5201,14 +5213,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>126</v>
+        <v>203</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>267</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>22</v>
+        <v>240</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5217,14 +5229,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>236</v>
+        <v>319</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5234,11 +5246,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>283</v>
+        <v>203</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>318</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>20</v>
@@ -5250,14 +5262,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5267,14 +5279,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>320</v>
+        <v>126</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>321</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5283,14 +5295,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>26</v>
+        <v>240</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5300,49 +5312,115 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>323</v>
+        <v>287</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
+        <v>322</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>323</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>295</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>35</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
         <v>324</v>
       </c>
-      <c t="s" r="Q118" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="119" ht="25.5" customHeight="1">
-      <c r="P119" s="13">
-        <v>8486.2849999999999</v>
-      </c>
-      <c r="Q119" s="13"/>
-    </row>
-    <row r="120" ht="16.5" customHeight="1">
-      <c t="s" r="A120" s="14">
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
         <v>325</v>
       </c>
-      <c r="B120" s="14"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-      <c t="s" r="G120" s="15">
+      <c t="s" r="Q119" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
         <v>326</v>
       </c>
-      <c r="H120" s="15"/>
-      <c r="I120" s="15"/>
-      <c r="J120" s="16"/>
-      <c t="s" r="K120" s="17">
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>26</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>35</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
         <v>327</v>
       </c>
-      <c r="L120" s="17"/>
-      <c r="M120" s="17"/>
-      <c r="N120" s="17"/>
-      <c r="O120" s="17"/>
-      <c r="P120" s="17"/>
-      <c r="Q120" s="17"/>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>328</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="P121" s="13">
+        <v>8647.625</v>
+      </c>
+      <c r="Q121" s="13"/>
+    </row>
+    <row r="122" ht="16.5" customHeight="1">
+      <c t="s" r="A122" s="14">
+        <v>329</v>
+      </c>
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c t="s" r="G122" s="15">
+        <v>330</v>
+      </c>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="16"/>
+      <c t="s" r="K122" s="17">
+        <v>331</v>
+      </c>
+      <c r="L122" s="17"/>
+      <c r="M122" s="17"/>
+      <c r="N122" s="17"/>
+      <c r="O122" s="17"/>
+      <c r="P122" s="17"/>
+      <c r="Q122" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="572">
+  <mergeCells count="582">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5911,10 +5989,20 @@
     <mergeCell ref="H118:K118"/>
     <mergeCell ref="L118:M118"/>
     <mergeCell ref="N118:O118"/>
-    <mergeCell ref="P119:Q119"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="G120:I120"/>
-    <mergeCell ref="K120:Q120"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="P121:Q121"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="G122:I122"/>
+    <mergeCell ref="K122:Q122"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -452,6 +452,15 @@
     <t>86.5000</t>
   </si>
   <si>
+    <t>HISTAZINE-1 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
     <t>INDERAL 10 MG 50 TABS</t>
   </si>
   <si>
@@ -593,6 +602,9 @@
     <t>NORHINOSE 50MCG/DOSE NASAL SPRAY 120 DOSES</t>
   </si>
   <si>
+    <t>O.Z TOPICAL LOTION 120ML</t>
+  </si>
+  <si>
     <t>OLFEN 100MG S.R. 10 DEPOCAPS.</t>
   </si>
   <si>
@@ -998,7 +1010,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 7:59 PM</t>
+    <t>Monday, 6 October, 2025 8:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3025,7 +3037,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>39</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3035,11 +3047,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -3051,14 +3063,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3075,7 +3087,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>82</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3091,7 +3103,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3108,7 +3120,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3124,7 +3136,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>22</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3134,14 +3146,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3150,14 +3162,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>39</v>
+        <v>161</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3167,14 +3179,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>97</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3183,14 +3195,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3200,7 +3212,7 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>97</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -3223,7 +3235,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3233,14 +3245,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>44</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>148</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3249,14 +3261,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3266,14 +3278,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>44</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>22</v>
+        <v>151</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3289,7 +3301,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3306,7 +3318,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3322,7 +3334,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3355,7 +3367,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3388,7 +3400,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3421,7 +3433,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3431,11 +3443,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -3447,7 +3459,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3464,11 +3476,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>20</v>
@@ -3504,7 +3516,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3520,13 +3532,13 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3537,7 +3549,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3559,15 +3571,15 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>20</v>
@@ -3579,14 +3591,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3596,11 +3608,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>14</v>
+        <v>178</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>20</v>
@@ -3612,14 +3624,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3629,11 +3641,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>59</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>20</v>
@@ -3645,14 +3657,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3662,14 +3674,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3678,14 +3690,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3695,11 +3707,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>20</v>
@@ -3711,14 +3723,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3728,7 +3740,7 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>47</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
@@ -3751,7 +3763,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3761,14 +3773,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3777,14 +3789,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3794,14 +3806,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3810,28 +3822,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>100</v>
@@ -3843,14 +3855,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3860,14 +3872,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3876,14 +3888,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3893,14 +3905,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3909,14 +3921,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>220</v>
+        <v>20</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3926,14 +3938,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>162</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>223</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3942,31 +3954,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>225</v>
+        <v>39</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>181</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3975,14 +3987,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>39</v>
+        <v>224</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3992,14 +4004,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>198</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>227</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4015,7 +4027,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>39</v>
+        <v>229</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4025,14 +4037,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>184</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4054,15 +4066,15 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>50</v>
+        <v>201</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>51</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>20</v>
@@ -4081,7 +4093,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4114,21 +4126,21 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>50</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>20</v>
@@ -4140,14 +4152,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>108</v>
+        <v>22</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4157,14 +4169,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>181</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>240</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4173,14 +4185,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4190,14 +4202,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>73</v>
+        <v>240</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4206,14 +4218,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4223,14 +4235,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>14</v>
+        <v>184</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>30</v>
+        <v>244</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4239,14 +4251,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4256,14 +4268,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>73</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
         <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4285,18 +4297,18 @@
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>14</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4305,14 +4317,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4322,11 +4334,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>204</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>20</v>
@@ -4338,31 +4350,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>129</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>71</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>82</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4371,14 +4383,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>254</v>
+        <v>20</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4388,11 +4400,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>129</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>130</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>20</v>
@@ -4404,14 +4416,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>256</v>
+        <v>82</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4421,14 +4433,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>257</v>
+        <v>129</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>258</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4437,14 +4449,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4454,14 +4466,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>261</v>
+        <v>129</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>204</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>262</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4470,14 +4482,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>22</v>
+        <v>260</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4487,14 +4499,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4503,14 +4515,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>22</v>
+        <v>264</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4520,14 +4532,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>20</v>
+        <v>266</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4536,14 +4548,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>270</v>
+        <v>22</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4553,11 +4565,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>44</v>
+        <v>268</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>20</v>
@@ -4569,7 +4581,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4582,15 +4594,15 @@
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>20</v>
@@ -4602,28 +4614,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>203</v>
+        <v>44</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>20</v>
@@ -4635,7 +4647,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4652,11 +4664,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>203</v>
+        <v>277</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>20</v>
@@ -4685,14 +4697,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>204</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4701,7 +4713,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4718,11 +4730,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>282</v>
+        <v>207</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>20</v>
@@ -4734,14 +4746,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>39</v>
+        <v>284</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4751,14 +4763,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>273</v>
+        <v>207</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>274</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4774,7 +4786,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>286</v>
+        <v>22</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4784,14 +4796,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>82</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4800,14 +4812,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>290</v>
+        <v>39</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4817,14 +4829,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>108</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4833,14 +4845,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>20</v>
+        <v>290</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4850,14 +4862,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>135</v>
+        <v>291</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>136</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>20</v>
+        <v>82</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4866,14 +4878,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4883,14 +4895,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>98</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>20</v>
+        <v>108</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4906,7 +4918,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4916,11 +4928,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>178</v>
+        <v>135</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>179</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>20</v>
@@ -4939,7 +4951,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>39</v>
+        <v>299</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4949,11 +4961,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>300</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>20</v>
@@ -4972,7 +4984,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4982,14 +4994,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>261</v>
+        <v>181</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>302</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4998,7 +5010,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5015,14 +5027,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>204</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>254</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5038,7 +5050,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5048,14 +5060,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>306</v>
+        <v>265</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>307</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>22</v>
+        <v>306</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5064,14 +5076,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5081,14 +5093,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>310</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>20</v>
+        <v>258</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5097,14 +5109,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5114,14 +5126,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5130,14 +5142,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>315</v>
+        <v>20</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5147,11 +5159,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>20</v>
@@ -5163,14 +5175,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5180,11 +5192,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>178</v>
+        <v>316</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>179</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>20</v>
@@ -5196,14 +5208,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>39</v>
+        <v>319</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5213,14 +5225,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>203</v>
+        <v>316</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>176</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>240</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5229,14 +5241,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>319</v>
+        <v>68</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5246,11 +5258,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>277</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>20</v>
@@ -5262,14 +5274,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>286</v>
+        <v>39</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5279,14 +5291,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>126</v>
+        <v>207</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>271</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>22</v>
+        <v>244</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5295,14 +5307,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>240</v>
+        <v>323</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5312,11 +5324,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>287</v>
+        <v>207</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>322</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>20</v>
@@ -5328,14 +5340,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5345,14 +5357,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>324</v>
+        <v>126</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>325</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5361,14 +5373,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>26</v>
+        <v>244</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5378,49 +5390,115 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>327</v>
+        <v>291</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
+        <v>326</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>327</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>299</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>35</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
         <v>328</v>
       </c>
-      <c t="s" r="Q120" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="121" ht="25.5" customHeight="1">
-      <c r="P121" s="13">
-        <v>8647.625</v>
-      </c>
-      <c r="Q121" s="13"/>
-    </row>
-    <row r="122" ht="16.5" customHeight="1">
-      <c t="s" r="A122" s="14">
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
         <v>329</v>
       </c>
-      <c r="B122" s="14"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c t="s" r="G122" s="15">
+      <c t="s" r="Q121" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
         <v>330</v>
       </c>
-      <c r="H122" s="15"/>
-      <c r="I122" s="15"/>
-      <c r="J122" s="16"/>
-      <c t="s" r="K122" s="17">
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>26</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>35</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
         <v>331</v>
       </c>
-      <c r="L122" s="17"/>
-      <c r="M122" s="17"/>
-      <c r="N122" s="17"/>
-      <c r="O122" s="17"/>
-      <c r="P122" s="17"/>
-      <c r="Q122" s="17"/>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>332</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="P123" s="13">
+        <v>8770.625</v>
+      </c>
+      <c r="Q123" s="13"/>
+    </row>
+    <row r="124" ht="16.5" customHeight="1">
+      <c t="s" r="A124" s="14">
+        <v>333</v>
+      </c>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c t="s" r="G124" s="15">
+        <v>334</v>
+      </c>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="16"/>
+      <c t="s" r="K124" s="17">
+        <v>335</v>
+      </c>
+      <c r="L124" s="17"/>
+      <c r="M124" s="17"/>
+      <c r="N124" s="17"/>
+      <c r="O124" s="17"/>
+      <c r="P124" s="17"/>
+      <c r="Q124" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="582">
+  <mergeCells count="592">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5999,10 +6077,20 @@
     <mergeCell ref="H120:K120"/>
     <mergeCell ref="L120:M120"/>
     <mergeCell ref="N120:O120"/>
-    <mergeCell ref="P121:Q121"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="G122:I122"/>
-    <mergeCell ref="K122:Q122"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="P123:Q123"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="G124:I124"/>
+    <mergeCell ref="K124:Q124"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -47,600 +47,624 @@
     <t>ADOLOR 30 MG 3 AMPS.</t>
   </si>
   <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>47.8800</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>ALKAPRESS 5MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>AMEBAZOL 1GM 2 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>AMIGRAINE ADCO 30 TABLETS</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
+    <t>AMIPRIDE 50MG 30 TAB</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>36.6300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTODINE20    6 AMP</t>
+  </si>
+  <si>
+    <t>2:5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
+    <t>AZELAST PLUS 125/50 MCG NASAL SPRAY 25 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>7.6800</t>
+  </si>
+  <si>
+    <t>BETAFOS 1 AMP. 2ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>BIOVITA 60 GUMMIES</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>250.0000</t>
+  </si>
+  <si>
+    <t>BLINK INTENSIVE TEARS EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>320.00</t>
+  </si>
+  <si>
+    <t>320.0000</t>
+  </si>
+  <si>
+    <t>BRUFEN 600MG 30 TAB</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>32.6700</t>
+  </si>
+  <si>
+    <t>CALDIN ZINC SUSP. 120 ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
+    <t>CEFIX HAIR CREAM</t>
+  </si>
+  <si>
+    <t>265.00</t>
+  </si>
+  <si>
+    <t>265.0000</t>
+  </si>
+  <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>CEPOREX 1GM 8 TABLETS</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>CETAL 1000MG 15 TABS</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>13.8600</t>
+  </si>
+  <si>
+    <t>CLARY HAIR MASK</t>
+  </si>
+  <si>
+    <t>360.00</t>
+  </si>
+  <si>
+    <t>360.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>COUGHSED PARACETAMOL CHILDREN 12 SUPP</t>
+  </si>
+  <si>
+    <t>CURAM 1GM 12 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>182.00</t>
+  </si>
+  <si>
+    <t>60.0600</t>
+  </si>
+  <si>
+    <t>CURAM 457MG/5ML PD. FOR ORAL SUSP. 70ML</t>
+  </si>
+  <si>
+    <t>97.00</t>
+  </si>
+  <si>
+    <t>97.0000</t>
+  </si>
+  <si>
+    <t>CYSTONE 60 TAB</t>
+  </si>
+  <si>
+    <t>98.00</t>
+  </si>
+  <si>
+    <t>98.0000</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>8:1</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>DESA 5MG 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>4:4</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>DIASMECT 20% SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>DIGENORM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
+    <t>DIGESTIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>DUSPATALIN RETARD 200 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>EPICOPRED 20 MG 20 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>104.00</t>
+  </si>
+  <si>
+    <t>104.0000</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>7:5</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>7.9200</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>GELBLEND ACTIVE GEL</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
+    <t>GELBLEND HYDRA MOIST</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>175.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GET WHITE  CREAM</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>GLYCERIN ADULT 10 SUSP 1.47G</t>
+  </si>
+  <si>
+    <t>11.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t>HISTAZINE-1 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>INDERAL 10 MG 50 TABS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>201.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>L-CARNITINE 300MG/ML SYRUP 30ML</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>LEZBERG PLUS 40/12.5MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>117.0000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>79.6800</t>
+  </si>
+  <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>MEGAMOX 457MG/5ML SUSP. 70ML</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>MELACRYST 3 MG 20 ORO-DISPERSIBLE FILMS</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>MIDODRINE 2.5MG 20 TAB</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
+  </si>
+  <si>
+    <t>NESTOGEN 1 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>255.00</t>
+  </si>
+  <si>
+    <t>255.0000</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>NOMORE ACNE CLEANSER</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>NORHINOSE 50MCG/DOSE NASAL SPRAY 120 DOSES</t>
+  </si>
+  <si>
+    <t>O.Z TOPICAL LOTION 120ML</t>
+  </si>
+  <si>
+    <t>OLFEN 100MG S.R. 10 DEPOCAPS.</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>OMEGA P SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>125.0000</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
     <t>3:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>ALKAPRESS 5MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>58.00</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>AMEBAZOL 1GM 2 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>27.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>AMIGRAINE ADCO 30 TABLETS</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>30.6900</t>
-  </si>
-  <si>
-    <t>AMIPRIDE 50MG 30 TAB</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>111.00</t>
-  </si>
-  <si>
-    <t>36.6300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANTODINE20    6 AMP</t>
-  </si>
-  <si>
-    <t>2:5</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>12.4800</t>
-  </si>
-  <si>
-    <t>AZELAST PLUS 125/50 MCG NASAL SPRAY 25 ML</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>102.0000</t>
-  </si>
-  <si>
-    <t>B-COM I.M./I.V. 6 AMP</t>
-  </si>
-  <si>
-    <t>0:6</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>7.6800</t>
-  </si>
-  <si>
-    <t>BETAFOS 1 AMP. 2ML</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>BIOVITA 60 GUMMIES</t>
-  </si>
-  <si>
-    <t>250.00</t>
-  </si>
-  <si>
-    <t>250.0000</t>
-  </si>
-  <si>
-    <t>BLINK INTENSIVE TEARS EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>320.00</t>
-  </si>
-  <si>
-    <t>320.0000</t>
-  </si>
-  <si>
-    <t>BRUFEN 600MG 30 TAB</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>32.6700</t>
-  </si>
-  <si>
-    <t>CALDIN ZINC SUSP. 120 ML</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>86.0000</t>
-  </si>
-  <si>
-    <t>CEFIX HAIR CREAM</t>
-  </si>
-  <si>
-    <t>265.00</t>
-  </si>
-  <si>
-    <t>265.0000</t>
-  </si>
-  <si>
-    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
-  </si>
-  <si>
-    <t>12:0</t>
-  </si>
-  <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>CEPOREX 1GM 8 TABLETS</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>CETAL 1000MG 15 TABS</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>13.8600</t>
-  </si>
-  <si>
-    <t>CLARY HAIR MASK</t>
-  </si>
-  <si>
-    <t>360.00</t>
-  </si>
-  <si>
-    <t>360.0000</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>14:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>99.0000</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>COUGHSED PARACETAMOL CHILDREN 12 SUPP</t>
-  </si>
-  <si>
-    <t>CURAM 1GM 12 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>182.00</t>
-  </si>
-  <si>
-    <t>60.0600</t>
-  </si>
-  <si>
-    <t>CURAM 457MG/5ML PD. FOR ORAL SUSP. 70ML</t>
-  </si>
-  <si>
-    <t>97.00</t>
-  </si>
-  <si>
-    <t>97.0000</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>47.0250</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>8:1</t>
-  </si>
-  <si>
-    <t>47.5200</t>
-  </si>
-  <si>
-    <t>DESA 5MG 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>4:4</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>DIASMECT 20% SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>DIGENORM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>110.0000</t>
-  </si>
-  <si>
-    <t>DIGESTIN 20 TABLETS</t>
-  </si>
-  <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>5:1</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>DUSPATALIN RETARD 200 MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>EPICOPRED 20 MG 20 ORODISPERSIBLE TABS.</t>
-  </si>
-  <si>
-    <t>104.00</t>
-  </si>
-  <si>
-    <t>104.0000</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>7:5</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>7.9200</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>GELBLEND ACTIVE GEL</t>
-  </si>
-  <si>
-    <t>140.00</t>
-  </si>
-  <si>
-    <t>140.0000</t>
-  </si>
-  <si>
-    <t>GELBLEND HYDRA MOIST</t>
-  </si>
-  <si>
-    <t>175.00</t>
-  </si>
-  <si>
-    <t>175.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GET WHITE  CREAM</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>GLYCERIN ADULT 10 SUSP 1.47G</t>
-  </si>
-  <si>
-    <t>11.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>86.5000</t>
-  </si>
-  <si>
-    <t>HISTAZINE-1 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>68.0000</t>
-  </si>
-  <si>
-    <t>INDERAL 10 MG 50 TABS</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
-  </si>
-  <si>
-    <t>67.00</t>
-  </si>
-  <si>
-    <t>201.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>1:4</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>L-CARNITINE 300MG/ML SYRUP 30ML</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>LEZBERG PLUS 40/12.5MG 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>117.0000</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>79.6800</t>
-  </si>
-  <si>
-    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>114.0000</t>
-  </si>
-  <si>
-    <t>MEGAMOX 457MG/5ML SUSP. 70ML</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
-    <t>MELACRYST 3 MG 20 ORO-DISPERSIBLE FILMS</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>MIDODRINE 2.5MG 20 TAB</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
-  </si>
-  <si>
-    <t>NESTOGEN 1 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>255.00</t>
-  </si>
-  <si>
-    <t>255.0000</t>
-  </si>
-  <si>
-    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>152.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>NOMORE ACNE CLEANSER</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
-    <t>NORHINOSE 50MCG/DOSE NASAL SPRAY 120 DOSES</t>
-  </si>
-  <si>
-    <t>O.Z TOPICAL LOTION 120ML</t>
-  </si>
-  <si>
-    <t>OLFEN 100MG S.R. 10 DEPOCAPS.</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>OMEGA P SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>125.00</t>
-  </si>
-  <si>
-    <t>125.0000</t>
-  </si>
-  <si>
-    <t>OPLEX-N SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
     <t>92.00</t>
   </si>
   <si>
@@ -698,15 +722,18 @@
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>12.8700</t>
   </si>
   <si>
     <t>STARVILLE ACNE PRONE SKIN FACIAL CLEANSER 200 ML</t>
   </si>
   <si>
+    <t>TAMSULIN 0.4MG 28 CAPS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
     <t>TAROLIMUS 0.03% TOPICAL OINT. 15 GM</t>
   </si>
   <si>
@@ -929,7 +956,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>11:0</t>
+    <t>28.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1010,7 +1037,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 8:01 PM</t>
+    <t>Monday, 6 October, 2025 8:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1684,7 +1711,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1694,14 +1721,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1710,14 +1737,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1727,14 +1754,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1743,14 +1770,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1760,14 +1787,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1776,14 +1803,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1793,14 +1820,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1809,31 +1836,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1842,20 +1869,20 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1866,7 +1893,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1899,7 +1926,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1915,7 +1942,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1925,14 +1952,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1941,14 +1968,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1958,14 +1985,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1974,14 +2001,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1991,14 +2018,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2007,14 +2034,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2024,14 +2051,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2040,14 +2067,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2057,14 +2084,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2073,14 +2100,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2090,14 +2117,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2106,31 +2133,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2139,20 +2166,20 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -2160,10 +2187,10 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2172,14 +2199,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2189,14 +2216,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2205,14 +2232,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2222,14 +2249,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2238,31 +2265,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2271,20 +2298,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -2295,7 +2322,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>82</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2304,14 +2331,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2321,14 +2348,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2337,14 +2364,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2354,14 +2381,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2370,14 +2397,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2387,14 +2414,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2403,14 +2430,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2420,14 +2447,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2436,14 +2463,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2453,14 +2480,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2469,14 +2496,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2486,14 +2513,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2502,14 +2529,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2523,10 +2550,10 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2535,14 +2562,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2559,7 +2586,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>106</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2568,14 +2595,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2585,14 +2612,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2601,14 +2628,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2618,14 +2645,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>22</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2634,14 +2661,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2651,14 +2678,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2667,14 +2694,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>31</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2684,14 +2711,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>117</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2700,14 +2727,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2717,14 +2744,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2733,14 +2760,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>39</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2750,14 +2777,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2766,14 +2793,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2790,7 +2817,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>100</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2806,7 +2833,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2823,7 +2850,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2839,7 +2866,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>22</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2849,14 +2876,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2865,31 +2892,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2898,31 +2925,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2931,31 +2958,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2964,31 +2991,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2997,31 +3024,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3030,31 +3057,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3063,14 +3090,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>151</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3087,7 +3114,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3103,7 +3130,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3120,7 +3147,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>82</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3136,7 +3163,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>22</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3146,14 +3173,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3162,14 +3189,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>161</v>
+        <v>43</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3186,7 +3213,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3202,7 +3229,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3212,14 +3239,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3228,14 +3255,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3245,14 +3272,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3261,14 +3288,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3278,14 +3305,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>151</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3294,14 +3321,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3311,14 +3338,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3327,14 +3354,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3344,14 +3371,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>48</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>158</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3360,14 +3387,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3377,14 +3404,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3393,14 +3420,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3410,14 +3437,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3426,14 +3453,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3443,14 +3470,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3459,14 +3486,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3476,14 +3503,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3492,14 +3519,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3509,14 +3536,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3525,14 +3552,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3549,7 +3576,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3558,31 +3585,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3591,14 +3618,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3608,14 +3635,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3624,31 +3651,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>59</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>60</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3657,14 +3684,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3674,14 +3701,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>14</v>
+        <v>185</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3690,14 +3717,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3707,14 +3734,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>63</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3723,14 +3750,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3740,14 +3767,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3756,14 +3783,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3773,14 +3800,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>126</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>163</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3789,14 +3816,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3806,14 +3833,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>51</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3822,14 +3849,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3839,14 +3866,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>133</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>100</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3855,14 +3882,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3872,14 +3899,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3888,31 +3915,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>20</v>
+        <v>217</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3921,14 +3948,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3938,14 +3965,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>162</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>100</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3954,31 +3981,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>20</v>
+        <v>107</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3987,14 +4014,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>224</v>
+        <v>21</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4004,14 +4031,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>169</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>227</v>
+        <v>107</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4027,24 +4054,24 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>229</v>
+        <v>43</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>184</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4060,7 +4087,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>39</v>
+        <v>232</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4070,14 +4097,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>235</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4086,14 +4113,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4103,14 +4130,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>191</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4119,31 +4146,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>50</v>
+        <v>208</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>51</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4152,14 +4179,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4169,14 +4196,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4185,14 +4212,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4202,14 +4229,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4218,31 +4245,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>184</v>
+        <v>54</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>244</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4258,7 +4285,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4268,14 +4295,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>73</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4284,14 +4311,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4301,14 +4328,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>14</v>
+        <v>249</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>217</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4317,14 +4344,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4334,14 +4361,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>191</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>20</v>
+        <v>253</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4350,31 +4377,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>77</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4383,14 +4410,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4400,14 +4427,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>14</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4416,14 +4443,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4433,14 +4460,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>129</v>
+        <v>258</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>71</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>82</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4449,31 +4476,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>258</v>
+        <v>43</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>129</v>
+        <v>261</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>130</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4482,14 +4509,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>260</v>
+        <v>21</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4499,14 +4526,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>262</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4515,14 +4542,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>264</v>
+        <v>86</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4532,14 +4559,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>265</v>
+        <v>136</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>208</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>266</v>
+        <v>86</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4548,14 +4575,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>22</v>
+        <v>267</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4565,14 +4592,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>268</v>
+        <v>136</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>269</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4581,14 +4608,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>22</v>
+        <v>269</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4598,14 +4625,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4614,14 +4641,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4631,14 +4658,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>44</v>
+        <v>274</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
+        <v>215</v>
+      </c>
+      <c t="s" r="Q97" s="12">
         <v>275</v>
-      </c>
-      <c t="s" r="Q97" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4654,13 +4681,13 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
@@ -4671,7 +4698,7 @@
         <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4687,24 +4714,24 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>280</v>
+        <v>27</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>207</v>
+        <v>280</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
         <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4720,24 +4747,24 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>22</v>
+        <v>283</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>207</v>
+        <v>48</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4746,31 +4773,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>284</v>
+        <v>27</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>207</v>
+        <v>286</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>208</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4779,31 +4806,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>22</v>
+        <v>289</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>286</v>
+        <v>214</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4812,31 +4839,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>277</v>
+        <v>214</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4845,31 +4872,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>291</v>
+        <v>214</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>292</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>82</v>
+        <v>27</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4878,20 +4905,20 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>294</v>
+        <v>27</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
@@ -4902,7 +4929,7 @@
         <v>296</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>108</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4918,24 +4945,24 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>135</v>
+        <v>286</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>136</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4957,7 +4984,7 @@
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
@@ -4965,10 +4992,10 @@
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>98</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>20</v>
+        <v>86</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4977,31 +5004,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>22</v>
+        <v>303</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>181</v>
+        <v>304</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>182</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>20</v>
+        <v>115</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5010,31 +5037,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>303</v>
+        <v>142</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>304</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5043,31 +5070,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>39</v>
+        <v>308</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>306</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5076,31 +5103,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>308</v>
+        <v>188</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>258</v>
+        <v>21</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5109,31 +5136,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5142,31 +5169,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>20</v>
+        <v>83</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5175,31 +5202,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>317</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>20</v>
+        <v>267</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5215,24 +5242,24 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>319</v>
+        <v>83</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5241,31 +5268,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>181</v>
+        <v>322</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>182</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5274,31 +5301,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>207</v>
+        <v>325</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>179</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>244</v>
+        <v>21</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5307,31 +5334,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>207</v>
+        <v>325</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>281</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5340,31 +5367,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>290</v>
+        <v>72</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>126</v>
+        <v>188</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>275</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5373,31 +5400,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>244</v>
+        <v>43</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>291</v>
+        <v>214</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>326</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>20</v>
+        <v>253</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5406,31 +5433,31 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>328</v>
+        <v>214</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>329</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5439,66 +5466,165 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>26</v>
+        <v>299</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>331</v>
+        <v>133</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>332</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
-      <c r="P123" s="13">
-        <v>8770.625</v>
-      </c>
-      <c r="Q123" s="13"/>
-    </row>
-    <row r="124" ht="16.5" customHeight="1">
-      <c t="s" r="A124" s="14">
-        <v>333</v>
-      </c>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
-      <c t="s" r="G124" s="15">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
         <v>334</v>
       </c>
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
-      <c r="J124" s="16"/>
-      <c t="s" r="K124" s="17">
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>253</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>39</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>300</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
         <v>335</v>
       </c>
-      <c r="L124" s="17"/>
-      <c r="M124" s="17"/>
-      <c r="N124" s="17"/>
-      <c r="O124" s="17"/>
-      <c r="P124" s="17"/>
-      <c r="Q124" s="17"/>
+      <c t="s" r="Q123" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>336</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>308</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>39</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>337</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>338</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>339</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>31</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>39</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>340</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>341</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="P126" s="13">
+        <v>9001.3349999999991</v>
+      </c>
+      <c r="Q126" s="13"/>
+    </row>
+    <row r="127" ht="16.5" customHeight="1">
+      <c t="s" r="A127" s="14">
+        <v>342</v>
+      </c>
+      <c r="B127" s="14"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="14"/>
+      <c t="s" r="G127" s="15">
+        <v>343</v>
+      </c>
+      <c r="H127" s="15"/>
+      <c r="I127" s="15"/>
+      <c r="J127" s="16"/>
+      <c t="s" r="K127" s="17">
+        <v>344</v>
+      </c>
+      <c r="L127" s="17"/>
+      <c r="M127" s="17"/>
+      <c r="N127" s="17"/>
+      <c r="O127" s="17"/>
+      <c r="P127" s="17"/>
+      <c r="Q127" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="592">
+  <mergeCells count="607">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6087,10 +6213,25 @@
     <mergeCell ref="H122:K122"/>
     <mergeCell ref="L122:M122"/>
     <mergeCell ref="N122:O122"/>
-    <mergeCell ref="P123:Q123"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="G124:I124"/>
-    <mergeCell ref="K124:Q124"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="P126:Q126"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="G127:I127"/>
+    <mergeCell ref="K127:Q127"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -395,6 +395,15 @@
     <t>69.0000</t>
   </si>
   <si>
+    <t>E-MOXCLAV 642.9MG/5ML SUSP. 75 ML</t>
+  </si>
+  <si>
+    <t>73.00</t>
+  </si>
+  <si>
+    <t>73.0000</t>
+  </si>
+  <si>
     <t>EPICOPRED 20 MG 20 ORODISPERSIBLE TABS.</t>
   </si>
   <si>
@@ -764,258 +773,252 @@
     <t>49.0000</t>
   </si>
   <si>
-    <t>UNICTAM 750 MG I.M/I.V VIAL</t>
-  </si>
-  <si>
-    <t>234.0000</t>
+    <t>URINEX 24 CAPS</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>VENTAMOR CREAM 60 GM</t>
+  </si>
+  <si>
+    <t>195.00</t>
+  </si>
+  <si>
+    <t>195.0000</t>
+  </si>
+  <si>
+    <t>VENTAMOR FACIAL WASH</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
+    <t>VERMIZOLE 200MG 6 TAB</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>VERMIZOLE 200MG/5ML SUSP. 30 ML</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>8:2</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8188:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>XILONE 5MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>XITHRONE 500MG 3 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
+    <t>ZINOL 1GM I.M./I.V. VIAL</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>املاح افونا</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>امواس لورد</t>
+  </si>
+  <si>
+    <t>21:0</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>ايفا كريم 20 جم</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t>بيبي جوي رقم 1</t>
+  </si>
+  <si>
+    <t>285.00</t>
+  </si>
+  <si>
+    <t>285.0000</t>
+  </si>
+  <si>
+    <t>جل صبار برطمان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>23:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>حلق</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>حمام كريم فاتيكا 900 جم</t>
+  </si>
+  <si>
+    <t>رول اون ريكسونا25</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>زولا ركبه</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>شاش 5سم</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>شامبو صانسيك 350مل</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شامبو نونو 200ملل </t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>صابونه دوف SOAP</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>صوفي طويل جدا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>ماكينه حلاقه جليت فليكتور</t>
+  </si>
+  <si>
+    <t>24:0</t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>مرطب شفاه لونا جوز هند ابيض</t>
   </si>
   <si>
     <t>6:0</t>
   </si>
   <si>
-    <t>URINEX 24 CAPS</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
-  </si>
-  <si>
-    <t>VENTAMOR CREAM 60 GM</t>
-  </si>
-  <si>
-    <t>195.00</t>
-  </si>
-  <si>
-    <t>195.0000</t>
-  </si>
-  <si>
-    <t>VENTAMOR FACIAL WASH</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>190.0000</t>
-  </si>
-  <si>
-    <t>VERMIZOLE 200MG 6 TAB</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>VERMIZOLE 200MG/5ML SUSP. 30 ML</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>8:2</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8184:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>XILONE 5MG/5ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>XITHRONE 500MG 3 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>63.0000</t>
-  </si>
-  <si>
-    <t>ZINOL 1GM I.M./I.V. VIAL</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>املاح افونا</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>امواس لورد</t>
-  </si>
-  <si>
-    <t>21:0</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>ايفا كريم 20 جم</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
-    <t>17:0</t>
-  </si>
-  <si>
-    <t>بيبي جوي رقم 1</t>
-  </si>
-  <si>
-    <t>285.00</t>
-  </si>
-  <si>
-    <t>285.0000</t>
-  </si>
-  <si>
-    <t>جل صبار برطمان</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>23:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>حلق</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>حمام كريم فاتيكا 900 جم</t>
-  </si>
-  <si>
-    <t>رول اون ريكسونا25</t>
-  </si>
-  <si>
-    <t>13:0</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>زولا ركبه</t>
-  </si>
-  <si>
-    <t>سرنجات 10 سم</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>شاش 5سم</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>شامبو صانسيك 350مل</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شامبو نونو 200ملل </t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>صابونه دوف SOAP</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>صوفي طويل جدا</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>ماكينه حلاقه جليت فليكتور</t>
-  </si>
-  <si>
-    <t>24:0</t>
-  </si>
-  <si>
-    <t>محلول ملح</t>
-  </si>
-  <si>
-    <t>مرطب شفاه لونا جوز هند ابيض</t>
-  </si>
-  <si>
     <t>20.0000</t>
   </si>
   <si>
@@ -1037,7 +1040,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 8:03 PM</t>
+    <t>Monday, 6 October, 2025 8:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2833,7 +2836,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2866,7 +2869,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2876,14 +2879,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>107</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2892,14 +2895,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2916,7 +2919,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2932,7 +2935,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2965,13 +2968,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -3045,7 +3048,7 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -3057,14 +3060,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3074,14 +3077,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3090,24 +3093,24 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -3130,7 +3133,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3147,7 +3150,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3163,7 +3166,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>43</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3173,11 +3176,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -3189,14 +3192,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>43</v>
+        <v>161</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3213,7 +3216,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>86</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3229,7 +3232,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3246,7 +3249,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3262,7 +3265,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>168</v>
+        <v>27</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3272,14 +3275,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>107</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3288,14 +3291,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>43</v>
+        <v>171</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3305,14 +3308,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>104</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3321,14 +3324,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3338,7 +3341,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>104</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -3361,7 +3364,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3371,14 +3374,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>48</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>158</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3387,14 +3390,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3404,14 +3407,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>48</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>27</v>
+        <v>161</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3427,7 +3430,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3444,7 +3447,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3460,7 +3463,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3493,7 +3496,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3526,7 +3529,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3559,7 +3562,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3569,11 +3572,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3585,7 +3588,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3602,11 +3605,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3642,7 +3645,7 @@
         <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3658,13 +3661,13 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
@@ -3675,7 +3678,7 @@
         <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3697,15 +3700,15 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3717,7 +3720,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3734,11 +3737,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>63</v>
+        <v>188</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>64</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3750,14 +3753,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3767,11 +3770,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3783,7 +3786,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3800,7 +3803,7 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>14</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
@@ -3823,7 +3826,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3833,14 +3836,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>51</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3849,14 +3852,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3866,14 +3869,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>133</v>
+        <v>51</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>170</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3882,7 +3885,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3899,14 +3902,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>136</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3922,7 +3925,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>217</v>
+        <v>115</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3932,14 +3935,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>107</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3948,14 +3951,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3972,7 +3975,7 @@
         <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>18</v>
+        <v>107</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3988,13 +3991,13 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
@@ -4005,7 +4008,7 @@
         <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>107</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4027,15 +4030,15 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>169</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>107</v>
@@ -4047,31 +4050,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>172</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>107</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4087,24 +4090,24 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>232</v>
+        <v>43</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>235</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4113,14 +4116,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>235</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4130,14 +4133,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>191</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>18</v>
+        <v>238</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4146,14 +4149,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4163,14 +4166,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4179,14 +4182,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4196,14 +4199,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4212,14 +4215,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4229,14 +4232,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4258,15 +4261,15 @@
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>54</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>55</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>21</v>
@@ -4278,28 +4281,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>54</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4318,7 +4321,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4351,7 +4354,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4361,14 +4364,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>191</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>253</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4431,7 +4434,7 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4530,7 +4533,7 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>21</v>
@@ -4559,7 +4562,7 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
@@ -4592,11 +4595,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>21</v>
@@ -4662,7 +4665,7 @@
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>215</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>275</v>
@@ -4823,7 +4826,7 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
@@ -4856,7 +4859,7 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
@@ -4889,14 +4892,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>215</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -5054,11 +5057,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>21</v>
@@ -5120,11 +5123,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>21</v>
@@ -5190,10 +5193,10 @@
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>315</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>83</v>
+        <v>308</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5202,7 +5205,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5219,14 +5222,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>215</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>267</v>
+        <v>115</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5384,11 +5387,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>21</v>
@@ -5417,14 +5420,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>253</v>
+        <v>31</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5450,7 +5453,7 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
@@ -5483,7 +5486,7 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
@@ -5506,7 +5509,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>253</v>
+        <v>335</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5520,7 +5523,7 @@
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>21</v>
@@ -5532,7 +5535,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5549,11 +5552,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>21</v>
@@ -5565,7 +5568,7 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -5582,11 +5585,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>21</v>
@@ -5594,13 +5597,13 @@
     </row>
     <row r="126" ht="25.5" customHeight="1">
       <c r="P126" s="13">
-        <v>9001.3349999999991</v>
+        <v>8782.3349999999991</v>
       </c>
       <c r="Q126" s="13"/>
     </row>
     <row r="127" ht="16.5" customHeight="1">
       <c t="s" r="A127" s="14">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B127" s="14"/>
       <c r="C127" s="14"/>
@@ -5608,13 +5611,13 @@
       <c r="E127" s="14"/>
       <c r="F127" s="14"/>
       <c t="s" r="G127" s="15">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H127" s="15"/>
       <c r="I127" s="15"/>
       <c r="J127" s="16"/>
       <c t="s" r="K127" s="17">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L127" s="17"/>
       <c r="M127" s="17"/>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -299,7 +299,7 @@
     <t>98.00</t>
   </si>
   <si>
-    <t>98.0000</t>
+    <t>196.0000</t>
   </si>
   <si>
     <t>DANSET 8MG/4ML 3 AMP.</t>
@@ -413,6 +413,15 @@
     <t>104.0000</t>
   </si>
   <si>
+    <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -428,12 +437,6 @@
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -728,6 +731,12 @@
     <t>0:9</t>
   </si>
   <si>
+    <t>ROWATINEX 45 CAPSULES</t>
+  </si>
+  <si>
+    <t>186.0000</t>
+  </si>
+  <si>
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
   </si>
   <si>
@@ -1040,7 +1049,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 8:05 PM</t>
+    <t>Monday, 6 October, 2025 8:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2473,7 +2482,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2490,7 +2499,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2902,7 +2911,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2912,14 +2921,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>107</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2928,14 +2937,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2952,7 +2961,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2968,7 +2977,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2978,11 +2987,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2994,28 +3003,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -3027,7 +3036,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -3044,11 +3053,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -3060,7 +3069,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -3077,11 +3086,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -3093,14 +3102,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3110,14 +3119,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3126,28 +3135,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>18</v>
@@ -3159,14 +3168,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3176,14 +3185,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3192,14 +3201,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>161</v>
+        <v>43</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3209,11 +3218,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -3225,14 +3234,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>43</v>
+        <v>162</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3242,14 +3251,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>86</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3258,14 +3267,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3275,14 +3284,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3291,14 +3300,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>171</v>
+        <v>27</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3308,14 +3317,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>107</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3324,14 +3333,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>43</v>
+        <v>172</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3341,14 +3350,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>104</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3357,14 +3366,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3374,11 +3383,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3390,14 +3399,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3407,14 +3416,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>48</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>161</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3423,14 +3432,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3440,14 +3449,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>48</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>27</v>
+        <v>162</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3456,14 +3465,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3473,14 +3482,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3489,14 +3498,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3506,11 +3515,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3522,14 +3531,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3539,11 +3548,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3555,14 +3564,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3572,11 +3581,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3588,14 +3597,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3605,11 +3614,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3638,11 +3647,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3654,7 +3663,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3671,14 +3680,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3687,31 +3696,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3720,7 +3729,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3733,15 +3742,15 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3770,11 +3779,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>63</v>
+        <v>189</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>64</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3793,7 +3802,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3803,11 +3812,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3819,7 +3828,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3836,11 +3845,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>14</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3852,14 +3861,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3869,14 +3878,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>51</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3885,14 +3894,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3902,14 +3911,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>136</v>
+        <v>51</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>173</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3935,14 +3944,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>139</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3951,14 +3960,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>220</v>
+        <v>115</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3968,14 +3977,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>107</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3984,14 +3993,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4001,14 +4010,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>18</v>
+        <v>107</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4017,31 +4026,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>107</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4050,7 +4059,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4063,15 +4072,15 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>172</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>107</v>
@@ -4083,31 +4092,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>173</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>107</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4116,31 +4125,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>235</v>
+        <v>43</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>238</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4149,14 +4158,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>236</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4166,14 +4175,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>194</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>18</v>
+        <v>239</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4182,14 +4191,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4199,14 +4208,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>211</v>
+        <v>32</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4222,7 +4231,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4232,11 +4241,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>195</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>18</v>
@@ -4265,11 +4274,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>21</v>
@@ -4281,31 +4290,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>54</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>55</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4314,14 +4323,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4331,11 +4340,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>21</v>
@@ -4347,28 +4356,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>54</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4380,7 +4389,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4397,14 +4406,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>77</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4413,14 +4422,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4430,14 +4439,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>14</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4453,7 +4462,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4463,14 +4472,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>258</v>
+        <v>77</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4479,7 +4488,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4492,18 +4501,18 @@
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>261</v>
+        <v>14</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4512,14 +4521,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4529,11 +4538,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>218</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>21</v>
@@ -4545,31 +4554,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>139</v>
+        <v>264</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>75</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>86</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4585,7 +4594,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>267</v>
+        <v>21</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4595,11 +4604,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>139</v>
+        <v>267</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>140</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>21</v>
@@ -4618,7 +4627,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>269</v>
+        <v>86</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4628,14 +4637,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>270</v>
+        <v>135</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>271</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>18</v>
+        <v>86</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4644,14 +4653,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4661,14 +4670,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>274</v>
+        <v>135</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>275</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4677,14 +4686,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>27</v>
+        <v>272</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4694,14 +4703,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4710,14 +4719,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>27</v>
+        <v>276</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4727,14 +4736,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>281</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>21</v>
+        <v>278</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4743,14 +4752,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>283</v>
+        <v>27</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4760,11 +4769,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>48</v>
+        <v>280</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>21</v>
@@ -4776,7 +4785,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4789,15 +4798,15 @@
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>21</v>
@@ -4809,28 +4818,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>217</v>
+        <v>48</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>21</v>
@@ -4842,7 +4851,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4859,7 +4868,7 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>217</v>
+        <v>289</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
@@ -4875,14 +4884,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4892,11 +4901,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>21</v>
@@ -4925,11 +4934,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>295</v>
+        <v>218</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>21</v>
@@ -4941,14 +4950,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>43</v>
+        <v>296</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4958,11 +4967,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>286</v>
+        <v>218</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>21</v>
@@ -4974,14 +4983,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>299</v>
+        <v>27</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4991,14 +5000,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>86</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5007,14 +5016,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>303</v>
+        <v>43</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5024,14 +5033,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>115</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5040,14 +5049,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>21</v>
+        <v>302</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5057,14 +5066,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>145</v>
+        <v>303</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>146</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>21</v>
+        <v>86</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5073,14 +5082,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5090,14 +5099,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>105</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>21</v>
+        <v>115</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5106,14 +5115,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5123,11 +5132,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>191</v>
+        <v>146</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>21</v>
@@ -5139,14 +5148,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>43</v>
+        <v>311</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5160,7 +5169,7 @@
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>313</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>21</v>
@@ -5172,14 +5181,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5189,14 +5198,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>274</v>
+        <v>192</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>140</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>308</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5205,7 +5214,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5222,14 +5231,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>115</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5238,14 +5247,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5255,14 +5264,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>319</v>
+        <v>277</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>320</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>27</v>
+        <v>311</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5271,14 +5280,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5288,14 +5297,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>21</v>
+        <v>115</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5304,14 +5313,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5321,14 +5330,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5337,14 +5346,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>328</v>
+        <v>21</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5370,14 +5379,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5387,11 +5396,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>191</v>
+        <v>328</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>192</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>21</v>
@@ -5410,7 +5419,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>43</v>
+        <v>331</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5420,14 +5429,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>217</v>
+        <v>328</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>163</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5436,14 +5445,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>332</v>
+        <v>72</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5453,11 +5462,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>290</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>21</v>
@@ -5476,7 +5485,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>299</v>
+        <v>43</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5486,14 +5495,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>136</v>
+        <v>218</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>284</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5519,11 +5528,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>300</v>
+        <v>218</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>336</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>21</v>
@@ -5535,14 +5544,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5552,14 +5561,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>338</v>
+        <v>139</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>339</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5568,14 +5577,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>31</v>
+        <v>338</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5585,49 +5594,115 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>341</v>
+        <v>303</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
+        <v>339</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>340</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>311</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>39</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>341</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
         <v>342</v>
       </c>
-      <c t="s" r="Q125" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="126" ht="25.5" customHeight="1">
-      <c r="P126" s="13">
-        <v>8782.3349999999991</v>
-      </c>
-      <c r="Q126" s="13"/>
-    </row>
-    <row r="127" ht="16.5" customHeight="1">
-      <c t="s" r="A127" s="14">
+      <c t="s" r="Q126" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
         <v>343</v>
       </c>
-      <c r="B127" s="14"/>
-      <c r="C127" s="14"/>
-      <c r="D127" s="14"/>
-      <c r="E127" s="14"/>
-      <c r="F127" s="14"/>
-      <c t="s" r="G127" s="15">
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>31</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>39</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
         <v>344</v>
       </c>
-      <c r="H127" s="15"/>
-      <c r="I127" s="15"/>
-      <c r="J127" s="16"/>
-      <c t="s" r="K127" s="17">
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
         <v>345</v>
       </c>
-      <c r="L127" s="17"/>
-      <c r="M127" s="17"/>
-      <c r="N127" s="17"/>
-      <c r="O127" s="17"/>
-      <c r="P127" s="17"/>
-      <c r="Q127" s="17"/>
+      <c t="s" r="Q127" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="P128" s="13">
+        <v>9092.3349999999991</v>
+      </c>
+      <c r="Q128" s="13"/>
+    </row>
+    <row r="129" ht="16.5" customHeight="1">
+      <c t="s" r="A129" s="14">
+        <v>346</v>
+      </c>
+      <c r="B129" s="14"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+      <c t="s" r="G129" s="15">
+        <v>347</v>
+      </c>
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
+      <c r="J129" s="16"/>
+      <c t="s" r="K129" s="17">
+        <v>348</v>
+      </c>
+      <c r="L129" s="17"/>
+      <c r="M129" s="17"/>
+      <c r="N129" s="17"/>
+      <c r="O129" s="17"/>
+      <c r="P129" s="17"/>
+      <c r="Q129" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="607">
+  <mergeCells count="617">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6231,10 +6306,20 @@
     <mergeCell ref="H125:K125"/>
     <mergeCell ref="L125:M125"/>
     <mergeCell ref="N125:O125"/>
-    <mergeCell ref="P126:Q126"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="G127:I127"/>
-    <mergeCell ref="K127:Q127"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="P128:Q128"/>
+    <mergeCell ref="A129:F129"/>
+    <mergeCell ref="G129:I129"/>
+    <mergeCell ref="K129:Q129"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -122,6 +122,15 @@
     <t>36.6300</t>
   </si>
   <si>
+    <t>ANGIOSARTAN PLUS 40/25MG 28 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">ANTODINE20    6 AMP</t>
   </si>
   <si>
@@ -422,6 +431,15 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>EXAMIDE 10 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -545,9 +563,6 @@
     <t>LEZBERG PLUS 40/12.5MG 30 F.C.TAB</t>
   </si>
   <si>
-    <t>117.00</t>
-  </si>
-  <si>
     <t>117.0000</t>
   </si>
   <si>
@@ -695,12 +710,18 @@
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
-    <t>108.00</t>
-  </si>
-  <si>
     <t>54.0000</t>
   </si>
   <si>
+    <t>POLYFRESH 0.2% EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
     <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
   </si>
   <si>
@@ -860,12 +881,6 @@
     <t>XITHRONE 500MG 3 F.C.TAB.</t>
   </si>
   <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>63.0000</t>
-  </si>
-  <si>
     <t>ZINOL 1GM I.M./I.V. VIAL</t>
   </si>
   <si>
@@ -875,6 +890,18 @@
     <t>48.0000</t>
   </si>
   <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
     <t>املاح افونا</t>
   </si>
   <si>
@@ -1025,9 +1052,6 @@
     <t>مرطب شفاه لونا جوز هند ابيض</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>20.0000</t>
   </si>
   <si>
@@ -1049,7 +1073,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 8:08 PM</t>
+    <t>Monday, 6 October, 2025 8:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1888,24 +1912,24 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1914,31 +1938,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1947,14 +1971,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1964,14 +1988,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1980,14 +2004,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -2004,7 +2028,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -2020,7 +2044,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2053,7 +2077,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2086,7 +2110,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2103,7 +2127,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2119,7 +2143,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2136,7 +2160,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2185,13 +2209,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -2218,24 +2242,24 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2251,7 +2275,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2261,14 +2285,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2277,14 +2301,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2294,14 +2318,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2317,13 +2341,13 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -2334,7 +2358,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2350,24 +2374,24 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>86</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2376,14 +2400,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2393,14 +2417,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2409,14 +2433,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2426,14 +2450,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2449,7 +2473,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2466,7 +2490,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2482,7 +2506,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2499,7 +2523,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2515,7 +2539,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2532,7 +2556,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2548,7 +2572,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2558,14 +2582,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2581,7 +2605,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2591,14 +2615,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2614,7 +2638,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2624,14 +2648,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>107</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2657,14 +2681,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2673,14 +2697,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2690,14 +2714,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2706,14 +2730,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2723,14 +2747,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2739,14 +2763,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2756,14 +2780,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2772,14 +2796,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2789,14 +2813,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>124</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2812,7 +2836,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2822,14 +2846,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q41" s="12">
         <v>127</v>
-      </c>
-      <c t="s" r="Q41" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2862,7 +2886,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2878,7 +2902,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2911,7 +2935,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2944,7 +2968,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>46</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2954,14 +2978,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>107</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2970,14 +2994,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2987,14 +3011,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3003,14 +3027,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>27</v>
+        <v>144</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3020,14 +3044,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3036,28 +3060,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -3076,13 +3100,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -3109,13 +3133,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -3123,7 +3147,7 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -3135,31 +3159,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3168,31 +3192,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3201,31 +3225,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3241,7 +3265,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3251,14 +3275,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3267,14 +3291,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3284,14 +3308,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>86</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3300,14 +3324,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>27</v>
+        <v>168</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3324,7 +3348,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3340,7 +3364,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>172</v>
+        <v>46</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3350,14 +3374,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>107</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3366,14 +3390,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3383,14 +3407,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>104</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3406,7 +3430,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>107</v>
+        <v>178</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3416,14 +3440,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3432,14 +3456,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3449,14 +3473,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>162</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3465,14 +3489,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3482,14 +3506,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>141</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3505,7 +3529,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>127</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3515,14 +3539,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>51</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>168</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3531,14 +3555,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3548,14 +3572,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3564,14 +3588,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3581,11 +3605,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3597,14 +3621,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3614,11 +3638,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3630,14 +3654,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3647,11 +3671,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3663,14 +3687,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3680,11 +3704,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3696,7 +3720,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3713,14 +3737,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3729,28 +3753,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3762,14 +3786,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3779,14 +3803,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3795,28 +3819,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>63</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>64</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3828,14 +3852,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3845,11 +3869,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>14</v>
+        <v>194</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3861,14 +3885,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3878,11 +3902,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>66</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3901,7 +3925,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3911,14 +3935,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3934,7 +3958,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3944,11 +3968,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>139</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>174</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3960,14 +3984,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3977,11 +4001,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>54</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>27</v>
@@ -3993,14 +4017,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>221</v>
+        <v>118</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4010,14 +4034,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>145</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>107</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4026,14 +4050,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4043,14 +4067,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4059,31 +4083,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>21</v>
+        <v>226</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4092,14 +4116,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4109,14 +4133,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>173</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>107</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4132,24 +4156,24 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>38</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>110</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4158,14 +4182,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>236</v>
+        <v>21</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4175,14 +4199,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>239</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4191,14 +4215,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4208,14 +4232,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>32</v>
+        <v>179</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>27</v>
+        <v>110</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4224,31 +4248,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>195</v>
+        <v>240</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4257,14 +4281,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>43</v>
+        <v>243</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4274,14 +4298,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>246</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4290,14 +4314,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4307,14 +4331,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>32</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>215</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4323,14 +4347,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4340,14 +4364,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>200</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4356,28 +4380,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>54</v>
+        <v>217</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>55</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4389,14 +4413,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4406,14 +4430,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4429,7 +4453,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4462,24 +4486,24 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>258</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4488,14 +4512,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4505,14 +4529,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>14</v>
+        <v>259</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4521,14 +4545,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4538,11 +4562,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>21</v>
@@ -4554,31 +4578,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>264</v>
+        <v>80</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
         <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4594,7 +4618,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4604,14 +4628,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>267</v>
+        <v>14</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4620,14 +4644,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4637,14 +4661,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>135</v>
+        <v>268</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>75</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>86</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4653,28 +4677,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>270</v>
+        <v>46</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>135</v>
+        <v>271</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>136</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>21</v>
@@ -4686,14 +4710,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>272</v>
+        <v>21</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4703,14 +4727,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>274</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4726,7 +4750,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>276</v>
+        <v>89</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4736,14 +4760,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>277</v>
+        <v>138</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>278</v>
+        <v>89</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4752,14 +4776,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>27</v>
+        <v>277</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4769,11 +4793,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>280</v>
+        <v>138</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>281</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>21</v>
@@ -4785,14 +4809,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>27</v>
+        <v>279</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4802,14 +4826,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4818,14 +4842,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4835,14 +4859,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>48</v>
+        <v>284</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>287</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>21</v>
+        <v>285</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4851,7 +4875,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4864,15 +4888,15 @@
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>21</v>
@@ -4884,28 +4908,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>292</v>
+        <v>27</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>293</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>21</v>
@@ -4917,28 +4941,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>27</v>
+        <v>291</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>218</v>
+        <v>51</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>21</v>
@@ -4950,28 +4974,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>218</v>
+        <v>295</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>21</v>
@@ -4996,7 +5020,7 @@
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
@@ -5023,21 +5047,21 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>43</v>
+        <v>301</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>289</v>
+        <v>223</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>21</v>
@@ -5049,31 +5073,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>302</v>
+        <v>27</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>303</v>
+        <v>223</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>86</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5082,31 +5106,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>307</v>
+        <v>223</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>115</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5115,28 +5139,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>146</v>
+        <v>307</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>147</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>21</v>
@@ -5148,28 +5172,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>311</v>
+        <v>46</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>105</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>21</v>
@@ -5181,31 +5205,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>27</v>
+        <v>311</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>192</v>
+        <v>312</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>193</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5221,24 +5245,24 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>43</v>
+        <v>315</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>21</v>
+        <v>118</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5247,31 +5271,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>277</v>
+        <v>152</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>311</v>
+        <v>21</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5280,31 +5304,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>43</v>
+        <v>320</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>320</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>115</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5313,31 +5337,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>322</v>
+        <v>197</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>323</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5346,28 +5370,28 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>21</v>
@@ -5379,31 +5403,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>328</v>
+        <v>284</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>329</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>21</v>
+        <v>320</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5412,20 +5436,20 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>331</v>
+        <v>46</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
@@ -5436,7 +5460,7 @@
         <v>329</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>21</v>
+        <v>118</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5445,31 +5469,31 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>192</v>
+        <v>331</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>193</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5485,24 +5509,24 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>164</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5511,28 +5535,28 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>335</v>
+        <v>46</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>218</v>
+        <v>337</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>293</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>21</v>
@@ -5544,31 +5568,31 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>139</v>
+        <v>337</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>287</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5577,28 +5601,28 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>338</v>
+        <v>75</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>303</v>
+        <v>197</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>339</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>21</v>
@@ -5610,31 +5634,31 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>311</v>
+        <v>46</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>341</v>
+        <v>223</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>342</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5650,59 +5674,191 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>31</v>
+        <v>344</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>344</v>
+        <v>223</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
+        <v>302</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
         <v>345</v>
       </c>
-      <c t="s" r="Q127" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="128" ht="24.75" customHeight="1">
-      <c r="P128" s="13">
-        <v>9092.3349999999991</v>
-      </c>
-      <c r="Q128" s="13"/>
-    </row>
-    <row r="129" ht="16.5" customHeight="1">
-      <c t="s" r="A129" s="14">
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>311</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>42</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>145</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>292</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
         <v>346</v>
       </c>
-      <c r="B129" s="14"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
-      <c t="s" r="G129" s="15">
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>294</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>42</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>312</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
         <v>347</v>
       </c>
-      <c r="H129" s="15"/>
-      <c r="I129" s="15"/>
-      <c r="J129" s="16"/>
-      <c t="s" r="K129" s="17">
+      <c t="s" r="Q129" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
         <v>348</v>
       </c>
-      <c r="L129" s="17"/>
-      <c r="M129" s="17"/>
-      <c r="N129" s="17"/>
-      <c r="O129" s="17"/>
-      <c r="P129" s="17"/>
-      <c r="Q129" s="17"/>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>320</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>42</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>349</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>350</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
+        <v>351</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>31</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>42</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>352</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>353</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="P132" s="13">
+        <v>9397.9449999999997</v>
+      </c>
+      <c r="Q132" s="13"/>
+    </row>
+    <row r="133" ht="16.5" customHeight="1">
+      <c t="s" r="A133" s="14">
+        <v>354</v>
+      </c>
+      <c r="B133" s="14"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="14"/>
+      <c t="s" r="G133" s="15">
+        <v>355</v>
+      </c>
+      <c r="H133" s="15"/>
+      <c r="I133" s="15"/>
+      <c r="J133" s="16"/>
+      <c t="s" r="K133" s="17">
+        <v>356</v>
+      </c>
+      <c r="L133" s="17"/>
+      <c r="M133" s="17"/>
+      <c r="N133" s="17"/>
+      <c r="O133" s="17"/>
+      <c r="P133" s="17"/>
+      <c r="Q133" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="617">
+  <mergeCells count="637">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6316,10 +6472,30 @@
     <mergeCell ref="H127:K127"/>
     <mergeCell ref="L127:M127"/>
     <mergeCell ref="N127:O127"/>
-    <mergeCell ref="P128:Q128"/>
-    <mergeCell ref="A129:F129"/>
-    <mergeCell ref="G129:I129"/>
-    <mergeCell ref="K129:Q129"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="P132:Q132"/>
+    <mergeCell ref="A133:F133"/>
+    <mergeCell ref="G133:I133"/>
+    <mergeCell ref="K133:Q133"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-06_00-00.xlsx
+++ b/DaySale_2025-10-06_00-00.xlsx
@@ -650,9 +650,6 @@
     <t>NORHINOSE 50MCG/DOSE NASAL SPRAY 120 DOSES</t>
   </si>
   <si>
-    <t>O.Z TOPICAL LOTION 120ML</t>
-  </si>
-  <si>
     <t>OLFEN 100MG S.R. 10 DEPOCAPS.</t>
   </si>
   <si>
@@ -1073,7 +1070,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Monday, 6 October, 2025 8:14 PM</t>
+    <t>Monday, 6 October, 2025 8:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3892,7 +3889,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3902,11 +3899,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>67</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3918,7 +3915,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3935,11 +3932,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>14</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3951,14 +3948,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3968,14 +3965,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>54</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3984,14 +3981,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4001,14 +3998,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4034,14 +4031,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>145</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>180</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4050,14 +4047,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>118</v>
+        <v>225</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4067,14 +4064,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>27</v>
+        <v>110</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4083,14 +4080,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>226</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4100,14 +4097,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>110</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4116,31 +4113,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>38</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>18</v>
+        <v>110</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4149,7 +4146,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4162,18 +4159,18 @@
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>38</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>110</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4182,7 +4179,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4199,14 +4196,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>179</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>110</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4215,31 +4212,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>179</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>110</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4248,31 +4245,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>46</v>
+        <v>242</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>245</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4281,14 +4278,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>243</v>
+        <v>110</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4298,14 +4295,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>32</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>246</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4314,14 +4311,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4331,14 +4328,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4347,14 +4344,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4364,14 +4361,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>250</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4387,7 +4384,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4397,14 +4394,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4413,14 +4410,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4430,14 +4427,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4446,7 +4443,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t